--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="835" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED972EE-53EC-4C37-B5FF-160598CF456B}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5217B3F3-7EC5-4D4F-9F2F-69E7C55527E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="61">
   <si>
     <t>Treatment</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Platynus_angustatus</t>
   </si>
   <si>
-    <t>Platynini_unknown_marked_with_yellow_tape</t>
-  </si>
-  <si>
     <t>Platynus_hypolithos</t>
   </si>
   <si>
@@ -184,6 +181,45 @@
   </si>
   <si>
     <t>Chlaenius_emarginatus</t>
+  </si>
+  <si>
+    <t>Synuchus_impunctatus</t>
+  </si>
+  <si>
+    <t>Platynini_unknown_marked_with_yellow_tape_black_very_sinuate_pronotum</t>
+  </si>
+  <si>
+    <t>Platynini_unknown_marked_with_green_highlighter_pectinate_claws</t>
+  </si>
+  <si>
+    <t>Patrobus_longicornis</t>
+  </si>
+  <si>
+    <t>Galerita_bicolor</t>
+  </si>
+  <si>
+    <t>Bembidion_unknown_oblongulum_group</t>
+  </si>
+  <si>
+    <t>Notiophilus_unknown_likely_aeneus_or_semistriatus</t>
+  </si>
+  <si>
+    <t>Harpalini_unknown_multiple_species_marked_with_brown_sharpie</t>
+  </si>
+  <si>
+    <t>Dicaelus_politus</t>
+  </si>
+  <si>
+    <t>Dicaelus_teter</t>
+  </si>
+  <si>
+    <t>Cyclotrachelus_fucatus</t>
+  </si>
+  <si>
+    <t>Cyclotrachelus_unknown_likely_sigillatus_or_convivus_or_mixed</t>
+  </si>
+  <si>
+    <t>Carabus_goryi</t>
   </si>
 </sst>
 </file>
@@ -672,13 +708,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
-  <dimension ref="A1:AE193"/>
+  <dimension ref="A1:AQ193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,24 +731,32 @@
     <col min="10" max="10" width="20.36328125" style="5" customWidth="1"/>
     <col min="11" max="11" width="19" style="5" customWidth="1"/>
     <col min="12" max="12" width="15.81640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.90625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.6328125" style="5" customWidth="1"/>
-    <col min="17" max="20" width="9.453125" style="5" customWidth="1"/>
-    <col min="21" max="22" width="12.81640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" style="5" customWidth="1"/>
-    <col min="24" max="25" width="12.26953125" style="5" customWidth="1"/>
-    <col min="26" max="27" width="12.1796875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="12.26953125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="12.1796875" style="5" customWidth="1"/>
-    <col min="30" max="30" width="12.81640625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="11.6328125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" style="5" customWidth="1"/>
-    <col min="33" max="16384" width="8.7265625" style="5"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="5" customWidth="1"/>
+    <col min="17" max="18" width="14" style="5" customWidth="1"/>
+    <col min="19" max="20" width="8.6328125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.6328125" style="5" customWidth="1"/>
+    <col min="26" max="30" width="9.453125" style="5" customWidth="1"/>
+    <col min="31" max="32" width="12.81640625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" style="5" customWidth="1"/>
+    <col min="34" max="35" width="12.26953125" style="5" customWidth="1"/>
+    <col min="36" max="37" width="12.1796875" style="5" customWidth="1"/>
+    <col min="38" max="38" width="12.26953125" style="5" customWidth="1"/>
+    <col min="39" max="39" width="12.1796875" style="5" customWidth="1"/>
+    <col min="40" max="40" width="12.81640625" style="5" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" style="5" customWidth="1"/>
+    <col min="42" max="42" width="9.54296875" style="5" customWidth="1"/>
+    <col min="43" max="45" width="8.7265625" style="5" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -750,64 +794,100 @@
         <v>23</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AQ1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44727</v>
       </c>
@@ -837,7 +917,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44727</v>
       </c>
@@ -867,7 +947,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44727</v>
       </c>
@@ -897,7 +977,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44727</v>
       </c>
@@ -929,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44727</v>
       </c>
@@ -959,7 +1039,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44727</v>
       </c>
@@ -989,7 +1069,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44727</v>
       </c>
@@ -1019,7 +1099,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44727</v>
       </c>
@@ -1051,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44727</v>
       </c>
@@ -1081,7 +1161,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44727</v>
       </c>
@@ -1113,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44727</v>
       </c>
@@ -1143,7 +1223,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44727</v>
       </c>
@@ -1173,7 +1253,7 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44727</v>
       </c>
@@ -1203,7 +1283,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44727</v>
       </c>
@@ -1233,7 +1313,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44727</v>
       </c>
@@ -1761,7 +1841,7 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>44741</v>
       </c>
@@ -1791,7 +1871,7 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>44741</v>
       </c>
@@ -1821,7 +1901,7 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>44741</v>
       </c>
@@ -1851,7 +1931,7 @@
       </c>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>44741</v>
       </c>
@@ -1880,20 +1960,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="N36" s="5">
+      <c r="P36" s="5">
         <v>3</v>
       </c>
-      <c r="S36" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>44741</v>
       </c>
@@ -1924,14 +2007,14 @@
       <c r="J37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S37" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AB37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>44741</v>
       </c>
@@ -1961,7 +2044,7 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>44741</v>
       </c>
@@ -1993,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>44741</v>
       </c>
@@ -2023,7 +2106,7 @@
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>44741</v>
       </c>
@@ -2053,7 +2136,7 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>44741</v>
       </c>
@@ -2082,11 +2165,14 @@
         <v>0</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="AE42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R42" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>44741</v>
       </c>
@@ -2115,8 +2201,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AQ43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>44741</v>
       </c>
@@ -2146,7 +2235,7 @@
       </c>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44741</v>
       </c>
@@ -2178,7 +2267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>44741</v>
       </c>
@@ -2210,7 +2299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44741</v>
       </c>
@@ -2242,7 +2331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44741</v>
       </c>
@@ -2272,7 +2361,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>44741</v>
       </c>
@@ -2304,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>44755</v>
       </c>
@@ -2333,11 +2422,14 @@
         <v>0</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="W50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>44755</v>
       </c>
@@ -2368,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="U51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>44755</v>
       </c>
@@ -2401,11 +2493,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="AA52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AK52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>44755</v>
       </c>
@@ -2434,14 +2526,17 @@
         <v>0</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="Z53" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O53" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>44755</v>
       </c>
@@ -2471,7 +2566,7 @@
       </c>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>44755</v>
       </c>
@@ -2500,17 +2595,17 @@
         <v>0</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="W55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AG55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>44755</v>
       </c>
@@ -2539,17 +2634,17 @@
         <v>0</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="Q56" s="5">
-        <v>2</v>
-      </c>
-      <c r="U56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z56" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>44755</v>
       </c>
@@ -2579,7 +2674,7 @@
       </c>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>44755</v>
       </c>
@@ -2608,17 +2703,20 @@
         <v>0</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="N58" s="5">
-        <v>7</v>
-      </c>
-      <c r="U58" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="5">
+      <c r="P58" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AQ58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>44755</v>
       </c>
@@ -2647,8 +2745,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="T59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>44755</v>
       </c>
@@ -2677,23 +2778,29 @@
         <v>0</v>
       </c>
       <c r="J60" s="9"/>
-      <c r="N60" s="5">
+      <c r="P60" s="5">
         <v>4</v>
       </c>
+      <c r="R60" s="5">
+        <v>2</v>
+      </c>
       <c r="U60" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ60" s="5">
         <v>3</v>
       </c>
-      <c r="AA60" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AK60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>44755</v>
       </c>
@@ -2725,17 +2832,23 @@
       <c r="M61" s="5">
         <v>1</v>
       </c>
-      <c r="N61" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="P61" s="5">
+        <v>1</v>
+      </c>
+      <c r="S61" s="5">
+        <v>2</v>
+      </c>
+      <c r="T61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>44755</v>
       </c>
@@ -2764,14 +2877,14 @@
         <v>0</v>
       </c>
       <c r="J62" s="9"/>
-      <c r="U62" s="5">
-        <v>2</v>
-      </c>
       <c r="AE62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AO62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>44755</v>
       </c>
@@ -2800,14 +2913,14 @@
         <v>0</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="AA63" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AK63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>44755</v>
       </c>
@@ -2836,14 +2949,14 @@
         <v>0</v>
       </c>
       <c r="J64" s="9"/>
-      <c r="Z64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>44755</v>
       </c>
@@ -2875,14 +2988,17 @@
       <c r="M65" s="5">
         <v>1</v>
       </c>
-      <c r="U65" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="5">
+      <c r="O65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>44755</v>
       </c>
@@ -2911,17 +3027,20 @@
         <v>0</v>
       </c>
       <c r="J66" s="9"/>
-      <c r="N66" s="5">
-        <v>1</v>
-      </c>
-      <c r="U66" s="5">
+      <c r="P66" s="5">
+        <v>1</v>
+      </c>
+      <c r="R66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="5">
         <v>3</v>
       </c>
-      <c r="AE66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>44755</v>
       </c>
@@ -2950,11 +3069,11 @@
         <v>0</v>
       </c>
       <c r="J67" s="9"/>
-      <c r="AB67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AL67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>44755</v>
       </c>
@@ -2983,11 +3102,11 @@
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
-      <c r="U68" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>44755</v>
       </c>
@@ -3016,11 +3135,11 @@
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
-      <c r="U69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>44755</v>
       </c>
@@ -3050,7 +3169,7 @@
       </c>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>44755</v>
       </c>
@@ -3079,14 +3198,20 @@
         <v>0</v>
       </c>
       <c r="J71" s="9"/>
-      <c r="U71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="5">
+      <c r="R71" s="5">
+        <v>1</v>
+      </c>
+      <c r="S71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>44755</v>
       </c>
@@ -3115,11 +3240,14 @@
         <v>0</v>
       </c>
       <c r="J72" s="9"/>
-      <c r="AE72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>44755</v>
       </c>
@@ -3150,11 +3278,14 @@
       <c r="J73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R73" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>44769</v>
       </c>
@@ -3183,14 +3314,20 @@
         <v>0</v>
       </c>
       <c r="J74" s="9"/>
-      <c r="N74" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O74" s="5">
+        <v>1</v>
+      </c>
+      <c r="P74" s="5">
+        <v>1</v>
+      </c>
+      <c r="T74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>44769</v>
       </c>
@@ -3219,14 +3356,14 @@
         <v>0</v>
       </c>
       <c r="J75" s="9"/>
-      <c r="U75" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>44769</v>
       </c>
@@ -3255,17 +3392,17 @@
         <v>0</v>
       </c>
       <c r="J76" s="9"/>
-      <c r="Z76" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="5">
+      <c r="AJ76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="5">
         <v>3</v>
       </c>
-      <c r="AE76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>44769</v>
       </c>
@@ -3295,7 +3432,7 @@
       </c>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>44769</v>
       </c>
@@ -3324,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="W78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AG78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>44769</v>
       </c>
@@ -3358,7 +3495,7 @@
       </c>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>44769</v>
       </c>
@@ -3387,14 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J80" s="9"/>
-      <c r="U80" s="5">
+      <c r="AE80" s="5">
         <v>3</v>
       </c>
-      <c r="AA80" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AK80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>44769</v>
       </c>
@@ -3423,8 +3560,14 @@
         <v>0</v>
       </c>
       <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O81" s="5">
+        <v>2</v>
+      </c>
+      <c r="X81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>44769</v>
       </c>
@@ -3453,11 +3596,17 @@
         <v>0</v>
       </c>
       <c r="J82" s="9"/>
-      <c r="AD82" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R82" s="5">
+        <v>1</v>
+      </c>
+      <c r="S82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN82" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>44769</v>
       </c>
@@ -3486,11 +3635,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="9"/>
-      <c r="Z83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AJ83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>44769</v>
       </c>
@@ -3519,11 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J84" s="9"/>
-      <c r="Z84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R84" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>44769</v>
       </c>
@@ -3553,7 +3705,7 @@
       </c>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>44769</v>
       </c>
@@ -3582,14 +3734,14 @@
         <v>0</v>
       </c>
       <c r="J86" s="9"/>
-      <c r="Z86" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AJ86" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>44769</v>
       </c>
@@ -3618,9 +3770,9 @@
         <v>0</v>
       </c>
       <c r="J87" s="9"/>
-      <c r="AB87" s="13"/>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AL87" s="13"/>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>44769</v>
       </c>
@@ -3649,17 +3801,23 @@
         <v>0</v>
       </c>
       <c r="J88" s="9"/>
-      <c r="Z88" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA88" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB88" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O88" s="5">
+        <v>3</v>
+      </c>
+      <c r="R88" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK88" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>44769</v>
       </c>
@@ -3688,14 +3846,17 @@
         <v>0</v>
       </c>
       <c r="J89" s="9"/>
-      <c r="Z89" s="5">
+      <c r="AJ89" s="5">
         <v>3</v>
       </c>
-      <c r="AA89" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AK89" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>44769</v>
       </c>
@@ -3724,17 +3885,20 @@
         <v>1</v>
       </c>
       <c r="J90" s="9"/>
-      <c r="Z90" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA90" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AJ90" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK90" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>44769</v>
       </c>
@@ -3763,14 +3927,17 @@
         <v>0</v>
       </c>
       <c r="J91" s="9"/>
-      <c r="U91" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R91" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE91" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>44769</v>
       </c>
@@ -3799,14 +3966,17 @@
         <v>0</v>
       </c>
       <c r="J92" s="9"/>
-      <c r="U92" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R92" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE92" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>44769</v>
       </c>
@@ -3835,11 +4005,14 @@
         <v>0</v>
       </c>
       <c r="J93" s="9"/>
-      <c r="Q93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>44769</v>
       </c>
@@ -3868,8 +4041,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="9"/>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="O94" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>44769</v>
       </c>
@@ -3898,14 +4077,20 @@
         <v>0</v>
       </c>
       <c r="J95" s="9"/>
-      <c r="U95" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB95" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R95" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE95" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL95" s="5">
+        <v>6</v>
+      </c>
+      <c r="AQ95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>44769</v>
       </c>
@@ -3934,14 +4119,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="9"/>
-      <c r="U96" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R96" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE96" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>44769</v>
       </c>
@@ -3970,8 +4158,11 @@
         <v>0</v>
       </c>
       <c r="J97" s="9"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R97" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>44784</v>
       </c>
@@ -4000,20 +4191,20 @@
         <v>0</v>
       </c>
       <c r="J98" s="9"/>
-      <c r="U98" s="5">
-        <v>2</v>
-      </c>
-      <c r="W98" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z98" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB98" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE98" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG98" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ98" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>44784</v>
       </c>
@@ -4042,8 +4233,11 @@
         <v>0</v>
       </c>
       <c r="J99" s="9"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AQ99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>44784</v>
       </c>
@@ -4073,7 +4267,7 @@
       </c>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>44784</v>
       </c>
@@ -4102,11 +4296,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="9"/>
-      <c r="AE101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>44784</v>
       </c>
@@ -4136,7 +4330,7 @@
       </c>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>44784</v>
       </c>
@@ -4165,14 +4359,14 @@
         <v>0</v>
       </c>
       <c r="J103" s="9"/>
-      <c r="T103" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AC103" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>44784</v>
       </c>
@@ -4201,26 +4395,32 @@
         <v>0</v>
       </c>
       <c r="J104" s="9"/>
-      <c r="U104" s="5">
+      <c r="O104" s="5">
+        <v>1</v>
+      </c>
+      <c r="R104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE104" s="5">
         <v>3</v>
       </c>
-      <c r="X104" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE104" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO104" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>44784</v>
       </c>
@@ -4249,11 +4449,17 @@
         <v>0</v>
       </c>
       <c r="J105" s="9"/>
-      <c r="AA105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O105" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK105" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>44784</v>
       </c>
@@ -4282,17 +4488,20 @@
         <v>0</v>
       </c>
       <c r="J106" s="9"/>
-      <c r="N106" s="5">
-        <v>1</v>
-      </c>
-      <c r="O106" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="5">
+      <c r="P106" s="5">
+        <v>1</v>
+      </c>
+      <c r="V106" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN106" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AQ106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>44784</v>
       </c>
@@ -4322,7 +4531,7 @@
       </c>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>44784</v>
       </c>
@@ -4352,7 +4561,7 @@
       </c>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>44784</v>
       </c>
@@ -4381,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="J109" s="9"/>
-      <c r="U109" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE109" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>44784</v>
       </c>
@@ -4414,17 +4623,20 @@
         <v>0</v>
       </c>
       <c r="J110" s="9"/>
-      <c r="U110" s="5">
+      <c r="R110" s="5">
         <v>3</v>
       </c>
-      <c r="Z110" s="5">
-        <v>1</v>
-      </c>
       <c r="AE110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="AJ110" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>44784</v>
       </c>
@@ -4453,14 +4665,17 @@
         <v>0</v>
       </c>
       <c r="J111" s="9"/>
-      <c r="AA111" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB111" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="T111" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK111" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL111" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>44784</v>
       </c>
@@ -4490,7 +4705,7 @@
       </c>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>44784</v>
       </c>
@@ -4520,7 +4735,7 @@
       </c>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>44784</v>
       </c>
@@ -4552,20 +4767,23 @@
       <c r="M114" s="5">
         <v>1</v>
       </c>
-      <c r="U114" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y114" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z114" s="5">
-        <v>1</v>
+      <c r="R114" s="5">
+        <v>3</v>
       </c>
       <c r="AE114" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AI114" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ114" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO114" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>44784</v>
       </c>
@@ -4594,11 +4812,14 @@
         <v>0</v>
       </c>
       <c r="J115" s="9"/>
-      <c r="AB115" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O115" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>44784</v>
       </c>
@@ -4628,7 +4849,7 @@
       </c>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>44784</v>
       </c>
@@ -4657,11 +4878,14 @@
         <v>0</v>
       </c>
       <c r="J117" s="9"/>
-      <c r="U117" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O117" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>44784</v>
       </c>
@@ -4690,14 +4914,17 @@
         <v>0</v>
       </c>
       <c r="J118" s="9"/>
-      <c r="U118" s="5">
+      <c r="R118" s="5">
         <v>1</v>
       </c>
       <c r="AE118" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO118" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>44784</v>
       </c>
@@ -4726,8 +4953,11 @@
         <v>1</v>
       </c>
       <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>44784</v>
       </c>
@@ -4756,17 +4986,20 @@
         <v>0</v>
       </c>
       <c r="J120" s="9"/>
-      <c r="U120" s="5">
+      <c r="R120" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE120" s="5">
         <v>5</v>
       </c>
-      <c r="AA120" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE120" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AK120" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>44784</v>
       </c>
@@ -4795,11 +5028,20 @@
         <v>0</v>
       </c>
       <c r="J121" s="9"/>
-      <c r="U121" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O121" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>1</v>
+      </c>
+      <c r="R121" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE121" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>44796</v>
       </c>
@@ -4829,7 +5071,7 @@
       </c>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>44796</v>
       </c>
@@ -4859,7 +5101,7 @@
       </c>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>44796</v>
       </c>
@@ -4888,11 +5130,11 @@
         <v>0</v>
       </c>
       <c r="J124" s="9"/>
-      <c r="AE124" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>44796</v>
       </c>
@@ -4923,14 +5165,14 @@
         <v>0</v>
       </c>
       <c r="J125" s="9"/>
-      <c r="U125" s="5">
-        <v>1</v>
-      </c>
       <c r="AE125" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AO125" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>44796</v>
       </c>
@@ -4960,7 +5202,7 @@
       </c>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>44796</v>
       </c>
@@ -4992,7 +5234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>44796</v>
       </c>
@@ -5022,7 +5264,7 @@
       </c>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>44796</v>
       </c>
@@ -5052,7 +5294,7 @@
       </c>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>44796</v>
       </c>
@@ -5082,7 +5324,7 @@
       </c>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>44796</v>
       </c>
@@ -5112,7 +5354,7 @@
       </c>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>44796</v>
       </c>
@@ -5141,14 +5383,14 @@
         <v>0</v>
       </c>
       <c r="J132" s="9"/>
-      <c r="U132" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z132" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE132" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>44796</v>
       </c>
@@ -5178,7 +5420,7 @@
       </c>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>44796</v>
       </c>
@@ -5208,7 +5450,7 @@
       </c>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>44796</v>
       </c>
@@ -5238,7 +5480,7 @@
       </c>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>44796</v>
       </c>
@@ -5268,7 +5510,7 @@
       </c>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>44796</v>
       </c>
@@ -5298,7 +5540,7 @@
       </c>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>44796</v>
       </c>
@@ -5328,7 +5570,7 @@
       </c>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>44796</v>
       </c>
@@ -5358,7 +5600,7 @@
       </c>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>44796</v>
       </c>
@@ -5388,7 +5630,7 @@
       </c>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>44796</v>
       </c>
@@ -5418,7 +5660,7 @@
       </c>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>44796</v>
       </c>
@@ -5447,14 +5689,14 @@
         <v>0</v>
       </c>
       <c r="J142" s="9"/>
-      <c r="U142" s="5">
-        <v>1</v>
-      </c>
       <c r="AE142" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO142" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>44796</v>
       </c>
@@ -5484,7 +5726,7 @@
       </c>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>44796</v>
       </c>
@@ -5514,7 +5756,7 @@
       </c>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>44796</v>
       </c>
@@ -5544,7 +5786,7 @@
       </c>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>44810</v>
       </c>
@@ -5574,7 +5816,7 @@
       </c>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>44810</v>
       </c>
@@ -5604,7 +5846,7 @@
       </c>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>44810</v>
       </c>
@@ -5633,14 +5875,14 @@
         <v>0</v>
       </c>
       <c r="J148" s="9"/>
-      <c r="U148" s="5">
-        <v>1</v>
-      </c>
       <c r="AE148" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO148" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>44810</v>
       </c>
@@ -5669,8 +5911,11 @@
         <v>0</v>
       </c>
       <c r="J149" s="9"/>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>44810</v>
       </c>
@@ -5700,7 +5945,7 @@
       </c>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>44810</v>
       </c>
@@ -5729,26 +5974,26 @@
         <v>0</v>
       </c>
       <c r="J151" s="9"/>
-      <c r="Q151" s="5">
-        <v>1</v>
-      </c>
-      <c r="R151" s="5">
-        <v>1</v>
-      </c>
-      <c r="U151" s="5">
-        <v>2</v>
-      </c>
-      <c r="W151" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD151" s="5">
-        <v>7</v>
+      <c r="Z151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA151" s="5">
+        <v>1</v>
       </c>
       <c r="AE151" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AG151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN151" s="5">
+        <v>7</v>
+      </c>
+      <c r="AO151" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>44810</v>
       </c>
@@ -5778,7 +6023,7 @@
       </c>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>44810</v>
       </c>
@@ -5807,17 +6052,20 @@
         <v>0</v>
       </c>
       <c r="J153" s="9"/>
-      <c r="Q153" s="5">
-        <v>1</v>
+      <c r="O153" s="5">
+        <v>4</v>
       </c>
       <c r="Z153" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AJ153" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>44810</v>
       </c>
@@ -5847,7 +6095,7 @@
       </c>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>44810</v>
       </c>
@@ -5876,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="J155" s="9"/>
-      <c r="W155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AG155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>44810</v>
       </c>
@@ -5910,7 +6158,7 @@
       </c>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>44810</v>
       </c>
@@ -5939,23 +6187,26 @@
         <v>0</v>
       </c>
       <c r="J157" s="9"/>
-      <c r="Q157" s="5">
+      <c r="S157" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z157" s="5">
         <v>5</v>
       </c>
-      <c r="U157" s="5">
+      <c r="AE157" s="5">
         <v>5</v>
       </c>
-      <c r="Z157" s="5">
+      <c r="AJ157" s="5">
         <v>3</v>
       </c>
-      <c r="AD157" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE157" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AN157" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>44810</v>
       </c>
@@ -5984,14 +6235,14 @@
         <v>0</v>
       </c>
       <c r="J158" s="9"/>
-      <c r="Q158" s="5">
+      <c r="Z158" s="5">
         <v>4</v>
       </c>
-      <c r="Z158" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>44810</v>
       </c>
@@ -6021,7 +6272,7 @@
       </c>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>44810</v>
       </c>
@@ -6051,7 +6302,7 @@
       </c>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>44810</v>
       </c>
@@ -6080,17 +6331,17 @@
         <v>0</v>
       </c>
       <c r="J161" s="9"/>
-      <c r="P161" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z161" s="5">
+      <c r="W161" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ161" s="5">
         <v>4</v>
       </c>
-      <c r="AE161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>44810</v>
       </c>
@@ -6119,11 +6370,14 @@
         <v>0</v>
       </c>
       <c r="J162" s="9"/>
-      <c r="AE162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R162" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>44810</v>
       </c>
@@ -6152,14 +6406,14 @@
         <v>0</v>
       </c>
       <c r="J163" s="9"/>
-      <c r="Q163" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE163" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>44810</v>
       </c>
@@ -6188,11 +6442,11 @@
         <v>0</v>
       </c>
       <c r="J164" s="9"/>
-      <c r="U164" s="5">
+      <c r="AE164" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>44810</v>
       </c>
@@ -6221,11 +6475,14 @@
         <v>0</v>
       </c>
       <c r="J165" s="9"/>
-      <c r="U165" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="T165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>44810</v>
       </c>
@@ -6255,7 +6512,7 @@
       </c>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>44810</v>
       </c>
@@ -6285,7 +6542,7 @@
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>44810</v>
       </c>
@@ -6314,17 +6571,20 @@
         <v>0</v>
       </c>
       <c r="J168" s="9"/>
-      <c r="Q168" s="5">
-        <v>1</v>
-      </c>
-      <c r="U168" s="5">
-        <v>3</v>
+      <c r="S168" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z168" s="5">
+        <v>1</v>
       </c>
       <c r="AE168" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO168" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>44810</v>
       </c>
@@ -6353,17 +6613,20 @@
         <v>0</v>
       </c>
       <c r="J169" s="9"/>
-      <c r="Q169" s="5">
-        <v>7</v>
-      </c>
-      <c r="U169" s="5">
-        <v>6</v>
-      </c>
-      <c r="AD169" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="N169" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z169" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE169" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN169" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>44824</v>
       </c>
@@ -6394,14 +6657,14 @@
         <v>0</v>
       </c>
       <c r="J170" s="9"/>
-      <c r="Q170" s="5">
-        <v>1</v>
-      </c>
-      <c r="U170" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z170" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>44824</v>
       </c>
@@ -6430,14 +6693,14 @@
         <v>0</v>
       </c>
       <c r="J171" s="9"/>
-      <c r="AB171" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE171" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AL171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>44824</v>
       </c>
@@ -6466,8 +6729,11 @@
         <v>0</v>
       </c>
       <c r="J172" s="9"/>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>44824</v>
       </c>
@@ -6496,11 +6762,11 @@
         <v>0</v>
       </c>
       <c r="J173" s="9"/>
-      <c r="AE173" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO173" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>44824</v>
       </c>
@@ -6529,11 +6795,11 @@
         <v>0</v>
       </c>
       <c r="J174" s="9"/>
-      <c r="Q174" s="5">
+      <c r="Z174" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>44824</v>
       </c>
@@ -6562,17 +6828,17 @@
         <v>0</v>
       </c>
       <c r="J175" s="9"/>
-      <c r="U175" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD175" s="5">
+      <c r="AE175" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN175" s="5">
         <v>4</v>
       </c>
-      <c r="AE175" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>44824</v>
       </c>
@@ -6601,14 +6867,14 @@
         <v>0</v>
       </c>
       <c r="J176" s="9"/>
-      <c r="Q176" s="5">
+      <c r="Z176" s="5">
         <v>3</v>
       </c>
-      <c r="AE176" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>44824</v>
       </c>
@@ -6639,14 +6905,17 @@
       <c r="J177" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z177" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE177" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="O177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ177" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>44824</v>
       </c>
@@ -6675,14 +6944,20 @@
         <v>0</v>
       </c>
       <c r="J178" s="9"/>
-      <c r="Q178" s="5">
-        <v>7</v>
-      </c>
-      <c r="AD178" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Y178" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z178" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN178" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>44824</v>
       </c>
@@ -6713,11 +6988,11 @@
       <c r="J179" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q179" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>44824</v>
       </c>
@@ -6747,7 +7022,7 @@
       </c>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>44824</v>
       </c>
@@ -6777,7 +7052,7 @@
       </c>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>44824</v>
       </c>
@@ -6806,23 +7081,26 @@
         <v>0</v>
       </c>
       <c r="J182" s="9"/>
-      <c r="Q182" s="5">
-        <v>2</v>
-      </c>
-      <c r="U182" s="5">
+      <c r="Z182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE182" s="5">
         <v>4</v>
       </c>
-      <c r="V182" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z182" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE182" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>44824</v>
       </c>
@@ -6852,7 +7130,7 @@
       </c>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>44824</v>
       </c>
@@ -6881,17 +7159,17 @@
         <v>0</v>
       </c>
       <c r="J184" s="9"/>
-      <c r="P184" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z184" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE184" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="W184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>44824</v>
       </c>
@@ -6920,14 +7198,14 @@
         <v>0</v>
       </c>
       <c r="J185" s="9"/>
-      <c r="Z185" s="5">
+      <c r="AJ185" s="5">
         <v>5</v>
       </c>
-      <c r="AE185" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO185" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>44824</v>
       </c>
@@ -6956,17 +7234,17 @@
         <v>0</v>
       </c>
       <c r="J186" s="9"/>
-      <c r="Q186" s="5">
-        <v>1</v>
-      </c>
-      <c r="U186" s="5">
+      <c r="Z186" s="5">
         <v>1</v>
       </c>
       <c r="AE186" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AO186" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>44824</v>
       </c>
@@ -6995,14 +7273,17 @@
         <v>0</v>
       </c>
       <c r="J187" s="9"/>
-      <c r="V187" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE187" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>44824</v>
       </c>
@@ -7033,17 +7314,17 @@
       <c r="J188" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q188" s="5">
-        <v>1</v>
-      </c>
-      <c r="U188" s="5">
+      <c r="Z188" s="5">
         <v>1</v>
       </c>
       <c r="AE188" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>44824</v>
       </c>
@@ -7074,14 +7355,14 @@
       <c r="J189" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U189" s="5">
-        <v>1</v>
-      </c>
       <c r="AE189" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AO189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>44824</v>
       </c>
@@ -7110,17 +7391,17 @@
         <v>0</v>
       </c>
       <c r="J190" s="9"/>
-      <c r="Q190" s="5">
-        <v>1</v>
-      </c>
-      <c r="U190" s="5">
+      <c r="Z190" s="5">
         <v>1</v>
       </c>
       <c r="AE190" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AO190" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>44824</v>
       </c>
@@ -7149,14 +7430,14 @@
         <v>0</v>
       </c>
       <c r="J191" s="9"/>
-      <c r="Q191" s="5">
-        <v>6</v>
-      </c>
-      <c r="U191" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Z191" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>44824</v>
       </c>
@@ -7185,14 +7466,14 @@
         <v>0</v>
       </c>
       <c r="J192" s="9"/>
-      <c r="U192" s="5">
-        <v>2</v>
-      </c>
       <c r="AE192" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO192" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>44824</v>
       </c>
@@ -7221,13 +7502,13 @@
         <v>0</v>
       </c>
       <c r="J193" s="9"/>
-      <c r="Q193" s="5">
-        <v>2</v>
-      </c>
-      <c r="U193" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC193" s="5">
+      <c r="Z193" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE193" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM193" s="5">
         <v>1</v>
       </c>
     </row>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5217B3F3-7EC5-4D4F-9F2F-69E7C55527E5}"/>
+  <xr:revisionPtr revIDLastSave="1245" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAEF8B9-B0D4-4017-BDD2-2D4798CD0E5C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="68">
   <si>
     <t>Treatment</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>Carabus_goryi</t>
+  </si>
+  <si>
+    <t>Scaphinotus_viduus</t>
+  </si>
+  <si>
+    <t>Scaphinotus_andrewsii</t>
+  </si>
+  <si>
+    <t>Scaphinotus_imperfectus</t>
+  </si>
+  <si>
+    <t>Scaphinotus_ridingsii</t>
+  </si>
+  <si>
+    <t>Sphaeroderus_canadensis</t>
+  </si>
+  <si>
+    <t>Sphaeroderus_stenostomus</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -708,19 +729,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
-  <dimension ref="A1:AQ193"/>
+  <dimension ref="A1:AW193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" style="5" customWidth="1"/>
@@ -728,7 +749,7 @@
     <col min="7" max="7" width="8.7265625" style="5"/>
     <col min="8" max="8" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.36328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="5" customWidth="1"/>
     <col min="12" max="12" width="15.81640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="8" style="5" customWidth="1"/>
@@ -751,12 +772,16 @@
     <col min="39" max="39" width="12.1796875" style="5" customWidth="1"/>
     <col min="40" max="40" width="12.81640625" style="5" customWidth="1"/>
     <col min="41" max="41" width="11.6328125" style="5" customWidth="1"/>
-    <col min="42" max="42" width="9.54296875" style="5" customWidth="1"/>
-    <col min="43" max="45" width="8.7265625" style="5" customWidth="1"/>
-    <col min="46" max="16384" width="8.7265625" style="5"/>
+    <col min="42" max="44" width="12.08984375" style="5" customWidth="1"/>
+    <col min="45" max="45" width="12.7265625" style="5" customWidth="1"/>
+    <col min="46" max="47" width="14.08984375" style="5" customWidth="1"/>
+    <col min="48" max="48" width="10" style="5" customWidth="1"/>
+    <col min="49" max="49" width="9.1796875" style="5" customWidth="1"/>
+    <col min="50" max="51" width="8.7265625" style="5" customWidth="1"/>
+    <col min="52" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -881,13 +906,31 @@
         <v>30</v>
       </c>
       <c r="AP1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44727</v>
       </c>
@@ -917,7 +960,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44727</v>
       </c>
@@ -947,7 +990,7 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44727</v>
       </c>
@@ -977,7 +1020,7 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44727</v>
       </c>
@@ -1009,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44727</v>
       </c>
@@ -1039,7 +1082,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44727</v>
       </c>
@@ -1069,7 +1112,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44727</v>
       </c>
@@ -1099,7 +1142,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44727</v>
       </c>
@@ -1131,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44727</v>
       </c>
@@ -1161,7 +1204,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44727</v>
       </c>
@@ -1193,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44727</v>
       </c>
@@ -1223,7 +1266,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44727</v>
       </c>
@@ -1253,7 +1296,7 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44727</v>
       </c>
@@ -1283,7 +1326,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44727</v>
       </c>
@@ -1313,7 +1356,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44727</v>
       </c>
@@ -1343,7 +1386,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44727</v>
       </c>
@@ -1373,7 +1416,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44727</v>
       </c>
@@ -1405,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44727</v>
       </c>
@@ -1437,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44727</v>
       </c>
@@ -1467,7 +1510,7 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44727</v>
       </c>
@@ -1499,7 +1542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44727</v>
       </c>
@@ -1529,7 +1572,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44727</v>
       </c>
@@ -1561,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44727</v>
       </c>
@@ -1591,7 +1634,7 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44727</v>
       </c>
@@ -1623,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>44741</v>
       </c>
@@ -1655,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>44741</v>
       </c>
@@ -1687,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>44741</v>
       </c>
@@ -1695,7 +1738,9 @@
         <f t="shared" si="0"/>
         <v>W(43/2)</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8">
+        <v>44727</v>
+      </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
@@ -1718,8 +1763,18 @@
       <c r="J28" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" ref="L3:L66" si="2">SUM(M28:AW28)</f>
+        <v>1</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>44741</v>
       </c>
@@ -1751,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>44741</v>
       </c>
@@ -1781,7 +1836,7 @@
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>44741</v>
       </c>
@@ -1811,7 +1866,7 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>44741</v>
       </c>
@@ -1841,7 +1896,7 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>44741</v>
       </c>
@@ -1871,12 +1926,12 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>44741</v>
       </c>
       <c r="B34" s="9" t="str">
-        <f t="shared" ref="B34:B65" si="2">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
+        <f t="shared" ref="B34:B65" si="3">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="C34" s="9"/>
@@ -1884,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="str">
-        <f t="shared" ref="E34:E65" si="3">_xlfn.CONCAT(D34,"_",H34)</f>
+        <f t="shared" ref="E34:E65" si="4">_xlfn.CONCAT(D34,"_",H34)</f>
         <v>1_8</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -1901,12 +1956,12 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>44741</v>
       </c>
       <c r="B35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="C35" s="9"/>
@@ -1914,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_9</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -1931,12 +1986,12 @@
       </c>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>44741</v>
       </c>
       <c r="B36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="C36" s="9"/>
@@ -1944,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_10</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -1960,6 +2015,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="9"/>
+      <c r="K36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="P36" s="5">
         <v>3</v>
       </c>
@@ -1976,20 +2038,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>44741</v>
       </c>
       <c r="B37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="8">
+        <v>44727</v>
+      </c>
       <c r="D37" s="9">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_11</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -2007,6 +2071,13 @@
       <c r="J37" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="K37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AB37" s="5">
         <v>1</v>
       </c>
@@ -2014,12 +2085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>44741</v>
       </c>
       <c r="B38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="C38" s="9"/>
@@ -2027,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_12</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -2044,12 +2115,12 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>44741</v>
       </c>
       <c r="B39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="C39" s="9"/>
@@ -2057,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_13</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -2076,12 +2147,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>44741</v>
       </c>
       <c r="B40" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="C40" s="9"/>
@@ -2089,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_14</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -2106,12 +2177,12 @@
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>44741</v>
       </c>
       <c r="B41" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="C41" s="9"/>
@@ -2119,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_15</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2136,12 +2207,12 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>44741</v>
       </c>
       <c r="B42" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(57/16)</v>
       </c>
       <c r="C42" s="9"/>
@@ -2149,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_16</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -2165,19 +2236,29 @@
         <v>0</v>
       </c>
       <c r="J42" s="9"/>
+      <c r="K42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="R42" s="5">
         <v>3</v>
       </c>
       <c r="AO42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AT42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>44741</v>
       </c>
       <c r="B43" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
       <c r="C43" s="9"/>
@@ -2185,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_17</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -2201,16 +2282,26 @@
         <v>0</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="AQ43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="K43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AU43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>44741</v>
       </c>
       <c r="B44" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
       <c r="C44" s="9"/>
@@ -2218,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_18</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2235,12 +2326,12 @@
       </c>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44741</v>
       </c>
       <c r="B45" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
       <c r="C45" s="9"/>
@@ -2248,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_19</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -2267,12 +2358,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>44741</v>
       </c>
       <c r="B46" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
       <c r="C46" s="9"/>
@@ -2280,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_20</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -2299,12 +2390,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44741</v>
       </c>
       <c r="B47" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
       <c r="C47" s="9"/>
@@ -2312,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_21</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -2331,12 +2422,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44741</v>
       </c>
       <c r="B48" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
       <c r="C48" s="9"/>
@@ -2344,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_22</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -2361,12 +2452,12 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>44741</v>
       </c>
       <c r="B49" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
       <c r="C49" s="9"/>
@@ -2374,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1_23</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -2393,12 +2484,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>44755</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(41/0)</v>
       </c>
       <c r="C50" s="9"/>
@@ -2406,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_0</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -2422,6 +2513,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="9"/>
+      <c r="K50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AD50" s="5">
         <v>1</v>
       </c>
@@ -2429,12 +2527,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>44755</v>
       </c>
       <c r="B51" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(42/1)</v>
       </c>
       <c r="C51" s="8">
@@ -2444,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_1</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -2460,16 +2558,23 @@
         <v>0</v>
       </c>
       <c r="J51" s="9"/>
+      <c r="K51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AE51" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>44755</v>
       </c>
       <c r="B52" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(43/2)</v>
       </c>
       <c r="C52" s="9"/>
@@ -2477,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_2</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -2493,24 +2598,33 @@
         <v>0</v>
       </c>
       <c r="J52" s="9"/>
+      <c r="K52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="AK52" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>44755</v>
       </c>
       <c r="B53" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="8">
+        <v>44741</v>
+      </c>
       <c r="D53" s="9">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_3</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -2526,6 +2640,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="9"/>
+      <c r="K53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="O53" s="5">
         <v>4</v>
       </c>
@@ -2536,12 +2657,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>44755</v>
       </c>
       <c r="B54" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
       <c r="C54" s="9"/>
@@ -2549,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_4</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -2566,20 +2687,22 @@
       </c>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>44755</v>
       </c>
       <c r="B55" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="8">
+        <v>44741</v>
+      </c>
       <c r="D55" s="9">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_5</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -2595,6 +2718,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="9"/>
+      <c r="K55" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="AG55" s="5">
         <v>1</v>
       </c>
@@ -2605,12 +2735,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>44755</v>
       </c>
       <c r="B56" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(47/6)</v>
       </c>
       <c r="C56" s="9"/>
@@ -2618,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_6</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -2634,6 +2764,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="9"/>
+      <c r="L56" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="Z56" s="5">
         <v>2</v>
       </c>
@@ -2644,12 +2778,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>44755</v>
       </c>
       <c r="B57" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(48/7)</v>
       </c>
       <c r="C57" s="9"/>
@@ -2657,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_7</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -2674,12 +2808,12 @@
       </c>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>44755</v>
       </c>
       <c r="B58" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(49/8)</v>
       </c>
       <c r="C58" s="9"/>
@@ -2687,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_8</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -2703,6 +2837,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="9"/>
+      <c r="K58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="P58" s="5">
         <v>7</v>
       </c>
@@ -2712,16 +2853,16 @@
       <c r="AN58" s="5">
         <v>12</v>
       </c>
-      <c r="AQ58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>44755</v>
       </c>
       <c r="B59" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
       <c r="C59" s="9"/>
@@ -2729,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_9</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -2745,16 +2886,23 @@
         <v>0</v>
       </c>
       <c r="J59" s="9"/>
+      <c r="K59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="T59" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>44755</v>
       </c>
       <c r="B60" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
       <c r="C60" s="9"/>
@@ -2762,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_10</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -2778,6 +2926,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="9"/>
+      <c r="L60" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="P60" s="5">
         <v>4</v>
       </c>
@@ -2800,12 +2952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>44755</v>
       </c>
       <c r="B61" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(52/11)</v>
       </c>
       <c r="C61" s="9"/>
@@ -2813,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_11</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -2829,6 +2981,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="9"/>
+      <c r="L61" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="M61" s="5">
         <v>1</v>
       </c>
@@ -2847,13 +3003,19 @@
       <c r="AK61" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AQ61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>44755</v>
       </c>
       <c r="B62" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
       <c r="C62" s="9"/>
@@ -2861,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_12</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -2877,6 +3039,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="9"/>
+      <c r="K62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="AE62" s="5">
         <v>2</v>
       </c>
@@ -2884,12 +3053,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>44755</v>
       </c>
       <c r="B63" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
       <c r="C63" s="9"/>
@@ -2897,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_13</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -2913,6 +3082,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="9"/>
+      <c r="L63" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AK63" s="5">
         <v>1</v>
       </c>
@@ -2920,12 +3093,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>44755</v>
       </c>
       <c r="B64" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
       <c r="C64" s="9"/>
@@ -2933,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_14</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -2949,6 +3122,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="9"/>
+      <c r="L64" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="AJ64" s="5">
         <v>1</v>
       </c>
@@ -2956,12 +3133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>44755</v>
       </c>
       <c r="B65" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
       <c r="C65" s="9"/>
@@ -2969,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2_15</v>
       </c>
       <c r="F65" s="9" t="s">
@@ -2985,6 +3162,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="9"/>
+      <c r="L65" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="M65" s="5">
         <v>1</v>
       </c>
@@ -2997,13 +3178,16 @@
       <c r="AJ65" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>44755</v>
       </c>
       <c r="B66" s="12" t="str">
-        <f t="shared" ref="B66:B97" si="4">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
+        <f t="shared" ref="B66:B97" si="5">_xlfn.CONCAT(F66, "(", G66, "/", H66, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="C66" s="9"/>
@@ -3011,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="5" t="str">
-        <f t="shared" ref="E66:E97" si="5">_xlfn.CONCAT(D66,"_",H66)</f>
+        <f t="shared" ref="E66:E97" si="6">_xlfn.CONCAT(D66,"_",H66)</f>
         <v>2_16</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -3027,6 +3211,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="9"/>
+      <c r="L66" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="P66" s="5">
         <v>1</v>
       </c>
@@ -3040,12 +3228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>44755</v>
       </c>
       <c r="B67" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(58/17)</v>
       </c>
       <c r="C67" s="9"/>
@@ -3053,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_17</v>
       </c>
       <c r="F67" s="9" t="s">
@@ -3069,16 +3257,20 @@
         <v>0</v>
       </c>
       <c r="J67" s="9"/>
+      <c r="L67" s="5">
+        <f t="shared" ref="L67:L130" si="7">SUM(M67:AW67)</f>
+        <v>1</v>
+      </c>
       <c r="AL67" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>44755</v>
       </c>
       <c r="B68" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(59/18)</v>
       </c>
       <c r="C68" s="9"/>
@@ -3086,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_18</v>
       </c>
       <c r="F68" s="9" t="s">
@@ -3102,16 +3294,26 @@
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
+      <c r="K68" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="AE68" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>44755</v>
       </c>
       <c r="B69" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
       <c r="C69" s="9"/>
@@ -3119,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_19</v>
       </c>
       <c r="F69" s="9" t="s">
@@ -3135,16 +3337,23 @@
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
+      <c r="K69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AE69" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>44755</v>
       </c>
       <c r="B70" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(61/20)</v>
       </c>
       <c r="C70" s="9"/>
@@ -3152,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_20</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -3169,12 +3378,12 @@
       </c>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>44755</v>
       </c>
       <c r="B71" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(62/21)</v>
       </c>
       <c r="C71" s="9"/>
@@ -3182,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_21</v>
       </c>
       <c r="F71" s="9" t="s">
@@ -3198,6 +3407,10 @@
         <v>0</v>
       </c>
       <c r="J71" s="9"/>
+      <c r="L71" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="R71" s="5">
         <v>1</v>
       </c>
@@ -3211,12 +3424,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>44755</v>
       </c>
       <c r="B72" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(63/22)</v>
       </c>
       <c r="C72" s="9"/>
@@ -3224,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_22</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -3240,6 +3453,10 @@
         <v>0</v>
       </c>
       <c r="J72" s="9"/>
+      <c r="L72" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="R72" s="5">
         <v>1</v>
       </c>
@@ -3247,20 +3464,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>44755</v>
       </c>
       <c r="B73" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="8">
+        <v>44741</v>
+      </c>
       <c r="D73" s="9">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2_23</v>
       </c>
       <c r="F73" s="9" t="s">
@@ -3278,19 +3497,29 @@
       <c r="J73" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="K73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="R73" s="5">
         <v>2</v>
       </c>
       <c r="AB73" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU73" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>44769</v>
       </c>
       <c r="B74" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(41/0)</v>
       </c>
       <c r="C74" s="9"/>
@@ -3298,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_0</v>
       </c>
       <c r="F74" s="9" t="s">
@@ -3314,6 +3543,10 @@
         <v>0</v>
       </c>
       <c r="J74" s="9"/>
+      <c r="L74" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="O74" s="5">
         <v>1</v>
       </c>
@@ -3327,12 +3560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>44769</v>
       </c>
       <c r="B75" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(42/1)</v>
       </c>
       <c r="C75" s="9"/>
@@ -3340,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_1</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -3356,6 +3589,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="9"/>
+      <c r="K75" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L75" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="AE75" s="5">
         <v>1</v>
       </c>
@@ -3363,12 +3603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>44769</v>
       </c>
       <c r="B76" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(43/2)</v>
       </c>
       <c r="C76" s="9"/>
@@ -3376,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_2</v>
       </c>
       <c r="F76" s="9" t="s">
@@ -3392,6 +3632,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="9"/>
+      <c r="L76" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
       <c r="AJ76" s="5">
         <v>1</v>
       </c>
@@ -3401,13 +3645,16 @@
       <c r="AO76" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>44769</v>
       </c>
       <c r="B77" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(44/3)</v>
       </c>
       <c r="C77" s="9"/>
@@ -3415,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_3</v>
       </c>
       <c r="F77" s="9" t="s">
@@ -3432,12 +3679,12 @@
       </c>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>44769</v>
       </c>
       <c r="B78" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(45/4)</v>
       </c>
       <c r="C78" s="9"/>
@@ -3445,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_4</v>
       </c>
       <c r="F78" s="9" t="s">
@@ -3461,16 +3708,20 @@
         <v>0</v>
       </c>
       <c r="J78" s="9"/>
+      <c r="L78" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AG78" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>44769</v>
       </c>
       <c r="B79" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(46/5)</v>
       </c>
       <c r="C79" s="9"/>
@@ -3478,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_5</v>
       </c>
       <c r="F79" s="9" t="s">
@@ -3495,12 +3746,12 @@
       </c>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>44769</v>
       </c>
       <c r="B80" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(47/6)</v>
       </c>
       <c r="C80" s="9"/>
@@ -3508,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_6</v>
       </c>
       <c r="F80" s="9" t="s">
@@ -3524,6 +3775,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="9"/>
+      <c r="L80" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="AE80" s="5">
         <v>3</v>
       </c>
@@ -3531,12 +3786,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>44769</v>
       </c>
       <c r="B81" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(48/7)</v>
       </c>
       <c r="C81" s="9"/>
@@ -3544,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_7</v>
       </c>
       <c r="F81" s="9" t="s">
@@ -3560,19 +3815,26 @@
         <v>0</v>
       </c>
       <c r="J81" s="9"/>
+      <c r="L81" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="O81" s="5">
         <v>2</v>
       </c>
       <c r="X81" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AT81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>44769</v>
       </c>
       <c r="B82" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(49/8)</v>
       </c>
       <c r="C82" s="9"/>
@@ -3580,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_8</v>
       </c>
       <c r="F82" s="9" t="s">
@@ -3596,6 +3858,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="9"/>
+      <c r="L82" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="R82" s="5">
         <v>1</v>
       </c>
@@ -3606,12 +3872,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>44769</v>
       </c>
       <c r="B83" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
       <c r="C83" s="9"/>
@@ -3619,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_9</v>
       </c>
       <c r="F83" s="9" t="s">
@@ -3635,16 +3901,20 @@
         <v>0</v>
       </c>
       <c r="J83" s="9"/>
+      <c r="L83" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AJ83" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>44769</v>
       </c>
       <c r="B84" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(51/10)</v>
       </c>
       <c r="C84" s="9"/>
@@ -3652,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_10</v>
       </c>
       <c r="F84" s="9" t="s">
@@ -3668,19 +3938,26 @@
         <v>0</v>
       </c>
       <c r="J84" s="9"/>
+      <c r="L84" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="R84" s="5">
         <v>3</v>
       </c>
       <c r="AJ84" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU84" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>44769</v>
       </c>
       <c r="B85" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(52/11)</v>
       </c>
       <c r="C85" s="9"/>
@@ -3688,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_11</v>
       </c>
       <c r="F85" s="9" t="s">
@@ -3705,12 +3982,12 @@
       </c>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>44769</v>
       </c>
       <c r="B86" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(53/12)</v>
       </c>
       <c r="C86" s="9"/>
@@ -3718,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_12</v>
       </c>
       <c r="F86" s="9" t="s">
@@ -3734,6 +4011,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="9"/>
+      <c r="K86" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L86" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="AJ86" s="5">
         <v>1</v>
       </c>
@@ -3741,12 +4025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>44769</v>
       </c>
       <c r="B87" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(54/13)</v>
       </c>
       <c r="C87" s="9"/>
@@ -3754,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_13</v>
       </c>
       <c r="F87" s="9" t="s">
@@ -3772,12 +4056,12 @@
       <c r="J87" s="9"/>
       <c r="AL87" s="13"/>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>44769</v>
       </c>
       <c r="B88" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(55/14)</v>
       </c>
       <c r="C88" s="9"/>
@@ -3785,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_14</v>
       </c>
       <c r="F88" s="9" t="s">
@@ -3801,6 +4085,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="9"/>
+      <c r="L88" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="O88" s="5">
         <v>3</v>
       </c>
@@ -3817,12 +4105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>44769</v>
       </c>
       <c r="B89" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(56/15)</v>
       </c>
       <c r="C89" s="9"/>
@@ -3830,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_15</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -3846,22 +4134,26 @@
         <v>0</v>
       </c>
       <c r="J89" s="9"/>
+      <c r="L89" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="AJ89" s="5">
         <v>3</v>
       </c>
       <c r="AK89" s="5">
         <v>2</v>
       </c>
-      <c r="AQ89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>44769</v>
       </c>
       <c r="B90" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(57/16)</v>
       </c>
       <c r="C90" s="9"/>
@@ -3869,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_16</v>
       </c>
       <c r="F90" s="9" t="s">
@@ -3885,6 +4177,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="9"/>
+      <c r="L90" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
       <c r="AJ90" s="5">
         <v>2</v>
       </c>
@@ -3894,16 +4190,19 @@
       <c r="AL90" s="5">
         <v>1</v>
       </c>
-      <c r="AQ90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AS90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>44769</v>
       </c>
       <c r="B91" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(58/17)</v>
       </c>
       <c r="C91" s="9"/>
@@ -3911,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_17</v>
       </c>
       <c r="F91" s="9" t="s">
@@ -3927,6 +4226,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="9"/>
+      <c r="L91" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="R91" s="5">
         <v>3</v>
       </c>
@@ -3937,12 +4240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>44769</v>
       </c>
       <c r="B92" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(59/18)</v>
       </c>
       <c r="C92" s="9"/>
@@ -3950,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_18</v>
       </c>
       <c r="F92" s="9" t="s">
@@ -3966,6 +4269,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="9"/>
+      <c r="L92" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
       <c r="R92" s="5">
         <v>3</v>
       </c>
@@ -3975,13 +4282,16 @@
       <c r="AK92" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU92" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>44769</v>
       </c>
       <c r="B93" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
       <c r="C93" s="9"/>
@@ -3989,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_19</v>
       </c>
       <c r="F93" s="9" t="s">
@@ -4005,6 +4315,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="9"/>
+      <c r="L93" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="O93" s="5">
         <v>1</v>
       </c>
@@ -4012,12 +4326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>44769</v>
       </c>
       <c r="B94" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>S(61/20)</v>
       </c>
       <c r="C94" s="9"/>
@@ -4025,7 +4339,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_20</v>
       </c>
       <c r="F94" s="9" t="s">
@@ -4041,19 +4355,23 @@
         <v>0</v>
       </c>
       <c r="J94" s="9"/>
+      <c r="L94" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="O94" s="5">
         <v>4</v>
       </c>
-      <c r="AQ94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>44769</v>
       </c>
       <c r="B95" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(62/21)</v>
       </c>
       <c r="C95" s="9"/>
@@ -4061,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_21</v>
       </c>
       <c r="F95" s="9" t="s">
@@ -4077,6 +4395,10 @@
         <v>0</v>
       </c>
       <c r="J95" s="9"/>
+      <c r="L95" s="5">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="R95" s="5">
         <v>3</v>
       </c>
@@ -4086,16 +4408,22 @@
       <c r="AL95" s="5">
         <v>6</v>
       </c>
-      <c r="AQ95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AT95" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU95" s="5">
+        <v>4</v>
+      </c>
+      <c r="AW95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>44769</v>
       </c>
       <c r="B96" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>W(63/22)</v>
       </c>
       <c r="C96" s="9"/>
@@ -4103,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_22</v>
       </c>
       <c r="F96" s="9" t="s">
@@ -4119,6 +4447,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="9"/>
+      <c r="L96" s="5">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
       <c r="R96" s="5">
         <v>3</v>
       </c>
@@ -4128,13 +4460,16 @@
       <c r="AK96" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>44769</v>
       </c>
       <c r="B97" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F(64/23)</v>
       </c>
       <c r="C97" s="9"/>
@@ -4142,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3_23</v>
       </c>
       <c r="F97" s="9" t="s">
@@ -4158,16 +4493,23 @@
         <v>0</v>
       </c>
       <c r="J97" s="9"/>
+      <c r="L97" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="R97" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>44784</v>
       </c>
       <c r="B98" s="12" t="str">
-        <f t="shared" ref="B98:B129" si="6">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
+        <f t="shared" ref="B98:B129" si="8">_xlfn.CONCAT(F98, "(", G98, "/", H98, ")")</f>
         <v>F(41/0)</v>
       </c>
       <c r="C98" s="9"/>
@@ -4175,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="5" t="str">
-        <f t="shared" ref="E98:E129" si="7">_xlfn.CONCAT(D98,"_",H98)</f>
+        <f t="shared" ref="E98:E129" si="9">_xlfn.CONCAT(D98,"_",H98)</f>
         <v>4_0</v>
       </c>
       <c r="F98" s="9" t="s">
@@ -4191,6 +4533,10 @@
         <v>0</v>
       </c>
       <c r="J98" s="9"/>
+      <c r="L98" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="AE98" s="5">
         <v>2</v>
       </c>
@@ -4203,13 +4549,16 @@
       <c r="AL98" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>44784</v>
       </c>
       <c r="B99" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
       <c r="C99" s="9"/>
@@ -4217,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_1</v>
       </c>
       <c r="F99" s="9" t="s">
@@ -4233,16 +4582,23 @@
         <v>0</v>
       </c>
       <c r="J99" s="9"/>
-      <c r="AQ99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="K99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L99" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>44784</v>
       </c>
       <c r="B100" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(43/2)</v>
       </c>
       <c r="C100" s="9"/>
@@ -4250,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_2</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -4266,13 +4622,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="9"/>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="K100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L100" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AU100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>44784</v>
       </c>
       <c r="B101" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
       <c r="C101" s="9"/>
@@ -4280,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_3</v>
       </c>
       <c r="F101" s="9" t="s">
@@ -4296,16 +4662,20 @@
         <v>0</v>
       </c>
       <c r="J101" s="9"/>
+      <c r="L101" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AO101" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>44784</v>
       </c>
       <c r="B102" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
       <c r="C102" s="9"/>
@@ -4313,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_4</v>
       </c>
       <c r="F102" s="9" t="s">
@@ -4330,20 +4700,22 @@
       </c>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>44784</v>
       </c>
       <c r="B103" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="8">
+        <v>44769</v>
+      </c>
       <c r="D103" s="9">
         <v>4</v>
       </c>
       <c r="E103" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_5</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -4359,19 +4731,29 @@
         <v>0</v>
       </c>
       <c r="J103" s="9"/>
+      <c r="K103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="AC103" s="5">
         <v>1</v>
       </c>
       <c r="AN103" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>44784</v>
       </c>
       <c r="B104" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
       <c r="C104" s="9"/>
@@ -4379,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_6</v>
       </c>
       <c r="F104" s="9" t="s">
@@ -4395,6 +4777,10 @@
         <v>0</v>
       </c>
       <c r="J104" s="9"/>
+      <c r="L104" s="5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="O104" s="5">
         <v>1</v>
       </c>
@@ -4419,13 +4805,16 @@
       <c r="AO104" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>44784</v>
       </c>
       <c r="B105" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
       <c r="C105" s="9"/>
@@ -4433,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_7</v>
       </c>
       <c r="F105" s="9" t="s">
@@ -4449,22 +4838,26 @@
         <v>0</v>
       </c>
       <c r="J105" s="9"/>
+      <c r="L105" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="O105" s="5">
         <v>1</v>
       </c>
       <c r="AK105" s="5">
         <v>1</v>
       </c>
-      <c r="AQ105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>44784</v>
       </c>
       <c r="B106" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(49/8)</v>
       </c>
       <c r="C106" s="9"/>
@@ -4472,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_8</v>
       </c>
       <c r="F106" s="9" t="s">
@@ -4488,6 +4881,10 @@
         <v>0</v>
       </c>
       <c r="J106" s="9"/>
+      <c r="L106" s="5">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
       <c r="P106" s="5">
         <v>1</v>
       </c>
@@ -4497,16 +4894,16 @@
       <c r="AN106" s="5">
         <v>12</v>
       </c>
-      <c r="AQ106" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>44784</v>
       </c>
       <c r="B107" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(50/9)</v>
       </c>
       <c r="C107" s="9"/>
@@ -4514,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_9</v>
       </c>
       <c r="F107" s="9" t="s">
@@ -4531,12 +4928,12 @@
       </c>
       <c r="J107" s="9"/>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>44784</v>
       </c>
       <c r="B108" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(51/10)</v>
       </c>
       <c r="C108" s="9"/>
@@ -4544,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_10</v>
       </c>
       <c r="F108" s="9" t="s">
@@ -4561,12 +4958,12 @@
       </c>
       <c r="J108" s="9"/>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>44784</v>
       </c>
       <c r="B109" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
       <c r="C109" s="9"/>
@@ -4574,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_11</v>
       </c>
       <c r="F109" s="9" t="s">
@@ -4590,16 +4987,23 @@
         <v>0</v>
       </c>
       <c r="J109" s="9"/>
+      <c r="L109" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="AE109" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>44784</v>
       </c>
       <c r="B110" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(53/12)</v>
       </c>
       <c r="C110" s="9"/>
@@ -4607,7 +5011,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_12</v>
       </c>
       <c r="F110" s="9" t="s">
@@ -4623,6 +5027,10 @@
         <v>0</v>
       </c>
       <c r="J110" s="9"/>
+      <c r="L110" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="R110" s="5">
         <v>3</v>
       </c>
@@ -4635,13 +5043,16 @@
       <c r="AO110" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>44784</v>
       </c>
       <c r="B111" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(54/13)</v>
       </c>
       <c r="C111" s="9"/>
@@ -4649,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_13</v>
       </c>
       <c r="F111" s="9" t="s">
@@ -4665,6 +5076,10 @@
         <v>0</v>
       </c>
       <c r="J111" s="9"/>
+      <c r="L111" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="T111" s="5">
         <v>1</v>
       </c>
@@ -4675,20 +5090,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>44784</v>
       </c>
       <c r="B112" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="8">
+        <v>44769</v>
+      </c>
       <c r="D112" s="9">
         <v>4</v>
       </c>
       <c r="E112" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_14</v>
       </c>
       <c r="F112" s="9" t="s">
@@ -4704,13 +5121,23 @@
         <v>0</v>
       </c>
       <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="K112" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L112" s="5">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AU112" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>44784</v>
       </c>
       <c r="B113" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(56/15)</v>
       </c>
       <c r="C113" s="9"/>
@@ -4718,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_15</v>
       </c>
       <c r="F113" s="9" t="s">
@@ -4734,13 +5161,20 @@
         <v>0</v>
       </c>
       <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="K113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L113" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>44784</v>
       </c>
       <c r="B114" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(57/16)</v>
       </c>
       <c r="C114" s="9"/>
@@ -4748,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_16</v>
       </c>
       <c r="F114" s="9" t="s">
@@ -4764,6 +5198,10 @@
         <v>0</v>
       </c>
       <c r="J114" s="9"/>
+      <c r="L114" s="5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="M114" s="5">
         <v>1</v>
       </c>
@@ -4782,13 +5220,16 @@
       <c r="AO114" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU114" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>44784</v>
       </c>
       <c r="B115" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(58/17)</v>
       </c>
       <c r="C115" s="9"/>
@@ -4796,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_17</v>
       </c>
       <c r="F115" s="9" t="s">
@@ -4812,6 +5253,10 @@
         <v>0</v>
       </c>
       <c r="J115" s="9"/>
+      <c r="L115" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="O115" s="5">
         <v>4</v>
       </c>
@@ -4819,12 +5264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>44784</v>
       </c>
       <c r="B116" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(59/18)</v>
       </c>
       <c r="C116" s="9"/>
@@ -4832,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_18</v>
       </c>
       <c r="F116" s="9" t="s">
@@ -4849,12 +5294,12 @@
       </c>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>44784</v>
       </c>
       <c r="B117" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(60/19)</v>
       </c>
       <c r="C117" s="9"/>
@@ -4862,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_19</v>
       </c>
       <c r="F117" s="9" t="s">
@@ -4878,19 +5323,26 @@
         <v>0</v>
       </c>
       <c r="J117" s="9"/>
+      <c r="L117" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="O117" s="5">
         <v>1</v>
       </c>
       <c r="AE117" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU117" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>44784</v>
       </c>
       <c r="B118" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(61/20)</v>
       </c>
       <c r="C118" s="9"/>
@@ -4898,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_20</v>
       </c>
       <c r="F118" s="9" t="s">
@@ -4914,6 +5366,10 @@
         <v>0</v>
       </c>
       <c r="J118" s="9"/>
+      <c r="L118" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="R118" s="5">
         <v>1</v>
       </c>
@@ -4923,21 +5379,26 @@
       <c r="AO118" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU118" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>44784</v>
       </c>
       <c r="B119" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="8">
+        <v>44769</v>
+      </c>
       <c r="D119" s="9">
         <v>4</v>
       </c>
       <c r="E119" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_21</v>
       </c>
       <c r="F119" s="9" t="s">
@@ -4953,16 +5414,23 @@
         <v>1</v>
       </c>
       <c r="J119" s="9"/>
+      <c r="K119" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L119" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="R119" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>44784</v>
       </c>
       <c r="B120" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(63/22)</v>
       </c>
       <c r="C120" s="9"/>
@@ -4970,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_22</v>
       </c>
       <c r="F120" s="9" t="s">
@@ -4986,6 +5454,10 @@
         <v>0</v>
       </c>
       <c r="J120" s="9"/>
+      <c r="L120" s="5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="R120" s="5">
         <v>3</v>
       </c>
@@ -4998,13 +5470,16 @@
       <c r="AO120" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>44784</v>
       </c>
       <c r="B121" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(64/23)</v>
       </c>
       <c r="C121" s="9"/>
@@ -5012,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4_23</v>
       </c>
       <c r="F121" s="9" t="s">
@@ -5028,6 +5503,13 @@
         <v>0</v>
       </c>
       <c r="J121" s="9"/>
+      <c r="K121" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L121" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="O121" s="5">
         <v>1</v>
       </c>
@@ -5040,13 +5522,16 @@
       <c r="AE121" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU121" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>44796</v>
       </c>
       <c r="B122" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(41/0)</v>
       </c>
       <c r="C122" s="8"/>
@@ -5054,7 +5539,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_0</v>
       </c>
       <c r="F122" s="9" t="s">
@@ -5071,12 +5556,12 @@
       </c>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>44796</v>
       </c>
       <c r="B123" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
       <c r="C123" s="9"/>
@@ -5084,7 +5569,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_1</v>
       </c>
       <c r="F123" s="9" t="s">
@@ -5101,20 +5586,22 @@
       </c>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>44796</v>
       </c>
       <c r="B124" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(43/2)</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="8">
+        <v>44784</v>
+      </c>
       <c r="D124" s="9">
         <v>5</v>
       </c>
       <c r="E124" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_2</v>
       </c>
       <c r="F124" s="9" t="s">
@@ -5130,26 +5617,31 @@
         <v>0</v>
       </c>
       <c r="J124" s="9"/>
+      <c r="K124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L124" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="AO124" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>44796</v>
       </c>
       <c r="B125" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C125" s="8">
-        <v>44784</v>
-      </c>
+      <c r="C125" s="8"/>
       <c r="D125" s="9">
         <v>5</v>
       </c>
       <c r="E125" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_3</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -5165,6 +5657,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="9"/>
+      <c r="K125" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L125" s="5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="AE125" s="5">
         <v>1</v>
       </c>
@@ -5172,12 +5671,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>44796</v>
       </c>
       <c r="B126" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
       <c r="C126" s="9"/>
@@ -5185,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_4</v>
       </c>
       <c r="F126" s="9" t="s">
@@ -5202,12 +5701,12 @@
       </c>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>44796</v>
       </c>
       <c r="B127" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
       <c r="C127" s="9"/>
@@ -5215,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_5</v>
       </c>
       <c r="F127" s="9" t="s">
@@ -5234,12 +5733,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>44796</v>
       </c>
       <c r="B128" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
       <c r="C128" s="9"/>
@@ -5247,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_6</v>
       </c>
       <c r="F128" s="9" t="s">
@@ -5264,12 +5763,12 @@
       </c>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>44796</v>
       </c>
       <c r="B129" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
       <c r="C129" s="9"/>
@@ -5277,7 +5776,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5_7</v>
       </c>
       <c r="F129" s="9" t="s">
@@ -5294,12 +5793,12 @@
       </c>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>44796</v>
       </c>
       <c r="B130" s="9" t="str">
-        <f t="shared" ref="B130:B161" si="8">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
+        <f t="shared" ref="B130:B161" si="10">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
       <c r="C130" s="9"/>
@@ -5307,7 +5806,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="5" t="str">
-        <f t="shared" ref="E130:E161" si="9">_xlfn.CONCAT(D130,"_",H130)</f>
+        <f t="shared" ref="E130:E161" si="11">_xlfn.CONCAT(D130,"_",H130)</f>
         <v>5_8</v>
       </c>
       <c r="F130" s="9" t="s">
@@ -5324,12 +5823,12 @@
       </c>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>44796</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
       <c r="C131" s="9"/>
@@ -5337,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_9</v>
       </c>
       <c r="F131" s="9" t="s">
@@ -5354,20 +5853,22 @@
       </c>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>44796</v>
       </c>
       <c r="B132" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="8">
+        <v>44784</v>
+      </c>
       <c r="D132" s="9">
         <v>5</v>
       </c>
       <c r="E132" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_10</v>
       </c>
       <c r="F132" s="9" t="s">
@@ -5383,19 +5884,29 @@
         <v>0</v>
       </c>
       <c r="J132" s="9"/>
+      <c r="K132" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L132" s="5">
+        <f t="shared" ref="L131:L193" si="12">SUM(M132:AW132)</f>
+        <v>4</v>
+      </c>
       <c r="AE132" s="5">
         <v>2</v>
       </c>
       <c r="AJ132" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>44796</v>
       </c>
       <c r="B133" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
       <c r="C133" s="9"/>
@@ -5403,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_11</v>
       </c>
       <c r="F133" s="9" t="s">
@@ -5420,12 +5931,12 @@
       </c>
       <c r="J133" s="9"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>44796</v>
       </c>
       <c r="B134" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="C134" s="9"/>
@@ -5433,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_12</v>
       </c>
       <c r="F134" s="9" t="s">
@@ -5450,12 +5961,12 @@
       </c>
       <c r="J134" s="9"/>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>44796</v>
       </c>
       <c r="B135" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="C135" s="9"/>
@@ -5463,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_13</v>
       </c>
       <c r="F135" s="9" t="s">
@@ -5480,12 +5991,12 @@
       </c>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>44796</v>
       </c>
       <c r="B136" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="C136" s="9"/>
@@ -5493,7 +6004,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_14</v>
       </c>
       <c r="F136" s="9" t="s">
@@ -5510,12 +6021,12 @@
       </c>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>44796</v>
       </c>
       <c r="B137" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="C137" s="9"/>
@@ -5523,7 +6034,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_15</v>
       </c>
       <c r="F137" s="9" t="s">
@@ -5540,12 +6051,12 @@
       </c>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>44796</v>
       </c>
       <c r="B138" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(57/16)</v>
       </c>
       <c r="C138" s="9"/>
@@ -5553,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_16</v>
       </c>
       <c r="F138" s="9" t="s">
@@ -5570,12 +6081,12 @@
       </c>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>44796</v>
       </c>
       <c r="B139" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
       <c r="C139" s="9"/>
@@ -5583,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_17</v>
       </c>
       <c r="F139" s="9" t="s">
@@ -5600,12 +6111,12 @@
       </c>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>44796</v>
       </c>
       <c r="B140" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
       <c r="C140" s="9"/>
@@ -5613,7 +6124,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_18</v>
       </c>
       <c r="F140" s="9" t="s">
@@ -5630,12 +6141,12 @@
       </c>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>44796</v>
       </c>
       <c r="B141" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
       <c r="C141" s="9"/>
@@ -5643,7 +6154,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_19</v>
       </c>
       <c r="F141" s="9" t="s">
@@ -5660,12 +6171,12 @@
       </c>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>44796</v>
       </c>
       <c r="B142" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
       <c r="C142" s="9"/>
@@ -5673,7 +6184,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_20</v>
       </c>
       <c r="F142" s="9" t="s">
@@ -5689,19 +6200,29 @@
         <v>0</v>
       </c>
       <c r="J142" s="9"/>
+      <c r="K142" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L142" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
       <c r="AE142" s="5">
         <v>1</v>
       </c>
       <c r="AO142" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU142" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>44796</v>
       </c>
       <c r="B143" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
       <c r="C143" s="9"/>
@@ -5709,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="E143" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_21</v>
       </c>
       <c r="F143" s="9" t="s">
@@ -5726,12 +6247,12 @@
       </c>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>44796</v>
       </c>
       <c r="B144" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
       <c r="C144" s="9"/>
@@ -5739,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_22</v>
       </c>
       <c r="F144" s="9" t="s">
@@ -5756,12 +6277,12 @@
       </c>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>44796</v>
       </c>
       <c r="B145" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
       <c r="C145" s="9"/>
@@ -5769,7 +6290,7 @@
         <v>5</v>
       </c>
       <c r="E145" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5_23</v>
       </c>
       <c r="F145" s="9" t="s">
@@ -5786,12 +6307,12 @@
       </c>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>44810</v>
       </c>
       <c r="B146" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(41/0)</v>
       </c>
       <c r="C146" s="9"/>
@@ -5799,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_0</v>
       </c>
       <c r="F146" s="9" t="s">
@@ -5816,12 +6337,12 @@
       </c>
       <c r="J146" s="9"/>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>44810</v>
       </c>
       <c r="B147" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
       <c r="C147" s="9"/>
@@ -5829,7 +6350,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_1</v>
       </c>
       <c r="F147" s="9" t="s">
@@ -5846,12 +6367,12 @@
       </c>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>44810</v>
       </c>
       <c r="B148" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
       <c r="C148" s="9"/>
@@ -5859,7 +6380,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_2</v>
       </c>
       <c r="F148" s="9" t="s">
@@ -5875,6 +6396,10 @@
         <v>0</v>
       </c>
       <c r="J148" s="9"/>
+      <c r="L148" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AE148" s="5">
         <v>1</v>
       </c>
@@ -5882,12 +6407,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>44810</v>
       </c>
       <c r="B149" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
       <c r="C149" s="9"/>
@@ -5895,7 +6420,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_3</v>
       </c>
       <c r="F149" s="9" t="s">
@@ -5911,16 +6436,23 @@
         <v>0</v>
       </c>
       <c r="J149" s="9"/>
+      <c r="L149" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="O149" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>44810</v>
       </c>
       <c r="B150" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
       <c r="C150" s="9"/>
@@ -5928,7 +6460,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_4</v>
       </c>
       <c r="F150" s="9" t="s">
@@ -5945,12 +6477,12 @@
       </c>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>44810</v>
       </c>
       <c r="B151" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
       <c r="C151" s="9"/>
@@ -5958,7 +6490,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_5</v>
       </c>
       <c r="F151" s="9" t="s">
@@ -5974,6 +6506,10 @@
         <v>0</v>
       </c>
       <c r="J151" s="9"/>
+      <c r="L151" s="5">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
       <c r="Z151" s="5">
         <v>1</v>
       </c>
@@ -5992,13 +6528,19 @@
       <c r="AO151" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AS151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU151" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>44810</v>
       </c>
       <c r="B152" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
       <c r="C152" s="9"/>
@@ -6006,7 +6548,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_6</v>
       </c>
       <c r="F152" s="9" t="s">
@@ -6023,12 +6565,12 @@
       </c>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>44810</v>
       </c>
       <c r="B153" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
       <c r="C153" s="9"/>
@@ -6036,7 +6578,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_7</v>
       </c>
       <c r="F153" s="9" t="s">
@@ -6052,6 +6594,10 @@
         <v>0</v>
       </c>
       <c r="J153" s="9"/>
+      <c r="L153" s="5">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
       <c r="O153" s="5">
         <v>4</v>
       </c>
@@ -6065,12 +6611,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>44810</v>
       </c>
       <c r="B154" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(49/8)</v>
       </c>
       <c r="C154" s="9"/>
@@ -6078,7 +6624,7 @@
         <v>6</v>
       </c>
       <c r="E154" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_8</v>
       </c>
       <c r="F154" s="9" t="s">
@@ -6095,20 +6641,22 @@
       </c>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>44810</v>
       </c>
       <c r="B155" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C155" s="9"/>
+      <c r="C155" s="8">
+        <v>44796</v>
+      </c>
       <c r="D155" s="9">
         <v>6</v>
       </c>
       <c r="E155" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_9</v>
       </c>
       <c r="F155" s="9" t="s">
@@ -6124,16 +6672,23 @@
         <v>0</v>
       </c>
       <c r="J155" s="9"/>
+      <c r="K155" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L155" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="AG155" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>44810</v>
       </c>
       <c r="B156" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
       <c r="C156" s="9"/>
@@ -6141,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="E156" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_10</v>
       </c>
       <c r="F156" s="9" t="s">
@@ -6158,12 +6713,12 @@
       </c>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>44810</v>
       </c>
       <c r="B157" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
       <c r="C157" s="9"/>
@@ -6171,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_11</v>
       </c>
       <c r="F157" s="9" t="s">
@@ -6187,6 +6742,10 @@
         <v>0</v>
       </c>
       <c r="J157" s="9"/>
+      <c r="L157" s="5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
       <c r="S157" s="5">
         <v>2</v>
       </c>
@@ -6205,13 +6764,16 @@
       <c r="AO157" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AR157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>44810</v>
       </c>
       <c r="B158" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
       <c r="C158" s="9"/>
@@ -6219,7 +6781,7 @@
         <v>6</v>
       </c>
       <c r="E158" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_12</v>
       </c>
       <c r="F158" s="9" t="s">
@@ -6235,6 +6797,10 @@
         <v>0</v>
       </c>
       <c r="J158" s="9"/>
+      <c r="L158" s="5">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="Z158" s="5">
         <v>4</v>
       </c>
@@ -6242,12 +6808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>44810</v>
       </c>
       <c r="B159" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
       <c r="C159" s="9"/>
@@ -6255,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_13</v>
       </c>
       <c r="F159" s="9" t="s">
@@ -6271,13 +6837,20 @@
         <v>0</v>
       </c>
       <c r="J159" s="9"/>
-    </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="K159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L159" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>44810</v>
       </c>
       <c r="B160" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
       <c r="C160" s="9"/>
@@ -6285,7 +6858,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_14</v>
       </c>
       <c r="F160" s="9" t="s">
@@ -6302,12 +6875,12 @@
       </c>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>44810</v>
       </c>
       <c r="B161" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
       <c r="C161" s="9"/>
@@ -6315,7 +6888,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6_15</v>
       </c>
       <c r="F161" s="9" t="s">
@@ -6331,6 +6904,10 @@
         <v>0</v>
       </c>
       <c r="J161" s="9"/>
+      <c r="L161" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
       <c r="W161" s="5">
         <v>1</v>
       </c>
@@ -6341,12 +6918,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>44810</v>
       </c>
       <c r="B162" s="12" t="str">
-        <f t="shared" ref="B162:B193" si="10">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
+        <f t="shared" ref="B162:B193" si="13">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
       <c r="C162" s="9"/>
@@ -6354,7 +6931,7 @@
         <v>6</v>
       </c>
       <c r="E162" s="5" t="str">
-        <f t="shared" ref="E162:E193" si="11">_xlfn.CONCAT(D162,"_",H162)</f>
+        <f t="shared" ref="E162:E193" si="14">_xlfn.CONCAT(D162,"_",H162)</f>
         <v>6_16</v>
       </c>
       <c r="F162" s="9" t="s">
@@ -6370,6 +6947,10 @@
         <v>0</v>
       </c>
       <c r="J162" s="9"/>
+      <c r="L162" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="R162" s="5">
         <v>1</v>
       </c>
@@ -6377,12 +6958,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>44810</v>
       </c>
       <c r="B163" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(58/17)</v>
       </c>
       <c r="C163" s="9"/>
@@ -6390,7 +6971,7 @@
         <v>6</v>
       </c>
       <c r="E163" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_17</v>
       </c>
       <c r="F163" s="9" t="s">
@@ -6406,6 +6987,10 @@
         <v>0</v>
       </c>
       <c r="J163" s="9"/>
+      <c r="L163" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="Z163" s="5">
         <v>1</v>
       </c>
@@ -6413,12 +6998,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>44810</v>
       </c>
       <c r="B164" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(59/18)</v>
       </c>
       <c r="C164" s="9"/>
@@ -6426,7 +7011,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_18</v>
       </c>
       <c r="F164" s="9" t="s">
@@ -6442,16 +7027,23 @@
         <v>0</v>
       </c>
       <c r="J164" s="9"/>
+      <c r="K164" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L164" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AE164" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>44810</v>
       </c>
       <c r="B165" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
       <c r="C165" s="9"/>
@@ -6459,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="E165" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_19</v>
       </c>
       <c r="F165" s="9" t="s">
@@ -6475,6 +7067,10 @@
         <v>0</v>
       </c>
       <c r="J165" s="9"/>
+      <c r="L165" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="T165" s="5">
         <v>1</v>
       </c>
@@ -6482,12 +7078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>44810</v>
       </c>
       <c r="B166" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
       <c r="C166" s="9"/>
@@ -6495,7 +7091,7 @@
         <v>6</v>
       </c>
       <c r="E166" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_20</v>
       </c>
       <c r="F166" s="9" t="s">
@@ -6512,12 +7108,12 @@
       </c>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>44810</v>
       </c>
       <c r="B167" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
       <c r="C167" s="9"/>
@@ -6525,7 +7121,7 @@
         <v>6</v>
       </c>
       <c r="E167" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_21</v>
       </c>
       <c r="F167" s="9" t="s">
@@ -6542,12 +7138,12 @@
       </c>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>44810</v>
       </c>
       <c r="B168" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(63/22)</v>
       </c>
       <c r="C168" s="9"/>
@@ -6555,7 +7151,7 @@
         <v>6</v>
       </c>
       <c r="E168" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_22</v>
       </c>
       <c r="F168" s="9" t="s">
@@ -6571,6 +7167,10 @@
         <v>0</v>
       </c>
       <c r="J168" s="9"/>
+      <c r="L168" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="S168" s="5">
         <v>1</v>
       </c>
@@ -6583,13 +7183,16 @@
       <c r="AO168" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU168" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>44810</v>
       </c>
       <c r="B169" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(64/23)</v>
       </c>
       <c r="C169" s="9"/>
@@ -6597,7 +7200,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6_23</v>
       </c>
       <c r="F169" s="9" t="s">
@@ -6613,6 +7216,10 @@
         <v>0</v>
       </c>
       <c r="J169" s="9"/>
+      <c r="L169" s="5">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="N169" s="5">
         <v>1</v>
       </c>
@@ -6626,22 +7233,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>44824</v>
       </c>
       <c r="B170" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(41/0)</v>
       </c>
-      <c r="C170" s="8">
-        <v>44810</v>
-      </c>
+      <c r="C170" s="8"/>
       <c r="D170" s="9">
         <v>7</v>
       </c>
       <c r="E170" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_0</v>
       </c>
       <c r="F170" s="9" t="s">
@@ -6657,6 +7262,13 @@
         <v>0</v>
       </c>
       <c r="J170" s="9"/>
+      <c r="K170" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L170" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="Z170" s="5">
         <v>1</v>
       </c>
@@ -6664,12 +7276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>44824</v>
       </c>
       <c r="B171" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(42/1)</v>
       </c>
       <c r="C171" s="9"/>
@@ -6677,7 +7289,7 @@
         <v>7</v>
       </c>
       <c r="E171" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_1</v>
       </c>
       <c r="F171" s="9" t="s">
@@ -6693,27 +7305,36 @@
         <v>0</v>
       </c>
       <c r="J171" s="9"/>
+      <c r="L171" s="5">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="AL171" s="5">
         <v>1</v>
       </c>
       <c r="AO171" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU171" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>44824</v>
       </c>
       <c r="B172" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(43/2)</v>
       </c>
-      <c r="C172" s="9"/>
+      <c r="C172" s="8">
+        <v>44810</v>
+      </c>
       <c r="D172" s="9">
         <v>7</v>
       </c>
       <c r="E172" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_2</v>
       </c>
       <c r="F172" s="9" t="s">
@@ -6729,16 +7350,23 @@
         <v>0</v>
       </c>
       <c r="J172" s="9"/>
+      <c r="K172" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L172" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="O172" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>44824</v>
       </c>
       <c r="B173" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(44/3)</v>
       </c>
       <c r="C173" s="9"/>
@@ -6746,7 +7374,7 @@
         <v>7</v>
       </c>
       <c r="E173" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_3</v>
       </c>
       <c r="F173" s="9" t="s">
@@ -6762,16 +7390,26 @@
         <v>0</v>
       </c>
       <c r="J173" s="9"/>
+      <c r="K173" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L173" s="5">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="AO173" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU173" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>44824</v>
       </c>
       <c r="B174" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(45/4)</v>
       </c>
       <c r="C174" s="9"/>
@@ -6779,7 +7417,7 @@
         <v>7</v>
       </c>
       <c r="E174" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_4</v>
       </c>
       <c r="F174" s="9" t="s">
@@ -6795,16 +7433,23 @@
         <v>0</v>
       </c>
       <c r="J174" s="9"/>
+      <c r="K174" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L174" s="5">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="Z174" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>44824</v>
       </c>
       <c r="B175" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(46/5)</v>
       </c>
       <c r="C175" s="9"/>
@@ -6812,7 +7457,7 @@
         <v>7</v>
       </c>
       <c r="E175" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_5</v>
       </c>
       <c r="F175" s="9" t="s">
@@ -6828,6 +7473,10 @@
         <v>0</v>
       </c>
       <c r="J175" s="9"/>
+      <c r="L175" s="5">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
       <c r="AE175" s="5">
         <v>1</v>
       </c>
@@ -6837,13 +7486,16 @@
       <c r="AO175" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AU175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>44824</v>
       </c>
       <c r="B176" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(47/6)</v>
       </c>
       <c r="C176" s="9"/>
@@ -6851,7 +7503,7 @@
         <v>7</v>
       </c>
       <c r="E176" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_6</v>
       </c>
       <c r="F176" s="9" t="s">
@@ -6867,6 +7519,13 @@
         <v>0</v>
       </c>
       <c r="J176" s="9"/>
+      <c r="K176" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L176" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="Z176" s="5">
         <v>3</v>
       </c>
@@ -6874,12 +7533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>44824</v>
       </c>
       <c r="B177" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(48/7)</v>
       </c>
       <c r="C177" s="9"/>
@@ -6887,7 +7546,7 @@
         <v>7</v>
       </c>
       <c r="E177" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_7</v>
       </c>
       <c r="F177" s="9" t="s">
@@ -6905,6 +7564,10 @@
       <c r="J177" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="L177" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="O177" s="5">
         <v>2</v>
       </c>
@@ -6915,12 +7578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>44824</v>
       </c>
       <c r="B178" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(49/8)</v>
       </c>
       <c r="C178" s="9"/>
@@ -6928,7 +7591,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_8</v>
       </c>
       <c r="F178" s="9" t="s">
@@ -6944,6 +7607,13 @@
         <v>0</v>
       </c>
       <c r="J178" s="9"/>
+      <c r="K178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L178" s="5">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="Y178" s="5">
         <v>1</v>
       </c>
@@ -6953,16 +7623,16 @@
       <c r="AN178" s="5">
         <v>2</v>
       </c>
-      <c r="AQ178" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AW178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>44824</v>
       </c>
       <c r="B179" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(50/9)</v>
       </c>
       <c r="C179" s="9"/>
@@ -6970,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="E179" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_9</v>
       </c>
       <c r="F179" s="9" t="s">
@@ -6988,16 +7658,23 @@
       <c r="J179" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="K179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L179" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="Z179" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>44824</v>
       </c>
       <c r="B180" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(51/10)</v>
       </c>
       <c r="C180" s="9"/>
@@ -7005,7 +7682,7 @@
         <v>7</v>
       </c>
       <c r="E180" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_10</v>
       </c>
       <c r="F180" s="9" t="s">
@@ -7022,12 +7699,12 @@
       </c>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>44824</v>
       </c>
       <c r="B181" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(52/11)</v>
       </c>
       <c r="C181" s="9"/>
@@ -7035,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="E181" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_11</v>
       </c>
       <c r="F181" s="9" t="s">
@@ -7052,12 +7729,12 @@
       </c>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>44824</v>
       </c>
       <c r="B182" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(53/12)</v>
       </c>
       <c r="C182" s="9"/>
@@ -7065,7 +7742,7 @@
         <v>7</v>
       </c>
       <c r="E182" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_12</v>
       </c>
       <c r="F182" s="9" t="s">
@@ -7081,6 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J182" s="9"/>
+      <c r="K182" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L182" s="5">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
       <c r="Z182" s="5">
         <v>2</v>
       </c>
@@ -7096,24 +7780,29 @@
       <c r="AO182" s="5">
         <v>1</v>
       </c>
-      <c r="AP182" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>44824</v>
       </c>
       <c r="B183" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C183" s="9"/>
+      <c r="C183" s="8">
+        <v>44810</v>
+      </c>
       <c r="D183" s="9">
         <v>7</v>
       </c>
       <c r="E183" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_13</v>
       </c>
       <c r="F183" s="9" t="s">
@@ -7129,13 +7818,26 @@
         <v>0</v>
       </c>
       <c r="J183" s="9"/>
-    </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="K183" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L183" s="5">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AQ183" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>44824</v>
       </c>
       <c r="B184" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(55/14)</v>
       </c>
       <c r="C184" s="9"/>
@@ -7143,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="E184" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_14</v>
       </c>
       <c r="F184" s="9" t="s">
@@ -7159,6 +7861,10 @@
         <v>0</v>
       </c>
       <c r="J184" s="9"/>
+      <c r="L184" s="5">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
       <c r="W184" s="5">
         <v>1</v>
       </c>
@@ -7168,21 +7874,26 @@
       <c r="AO184" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU184" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>44824</v>
       </c>
       <c r="B185" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(56/15)</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="C185" s="8">
+        <v>44810</v>
+      </c>
       <c r="D185" s="9">
         <v>7</v>
       </c>
       <c r="E185" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_15</v>
       </c>
       <c r="F185" s="9" t="s">
@@ -7198,19 +7909,29 @@
         <v>0</v>
       </c>
       <c r="J185" s="9"/>
+      <c r="K185" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L185" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="AJ185" s="5">
         <v>5</v>
       </c>
       <c r="AO185" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU185" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>44824</v>
       </c>
       <c r="B186" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(57/16)</v>
       </c>
       <c r="C186" s="9"/>
@@ -7218,7 +7939,7 @@
         <v>7</v>
       </c>
       <c r="E186" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_16</v>
       </c>
       <c r="F186" s="9" t="s">
@@ -7234,6 +7955,10 @@
         <v>0</v>
       </c>
       <c r="J186" s="9"/>
+      <c r="L186" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="Z186" s="5">
         <v>1</v>
       </c>
@@ -7244,12 +7969,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>44824</v>
       </c>
       <c r="B187" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(58/17)</v>
       </c>
       <c r="C187" s="9"/>
@@ -7257,7 +7982,7 @@
         <v>7</v>
       </c>
       <c r="E187" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_17</v>
       </c>
       <c r="F187" s="9" t="s">
@@ -7273,30 +7998,42 @@
         <v>0</v>
       </c>
       <c r="J187" s="9"/>
+      <c r="K187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L187" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AF187" s="5">
         <v>1</v>
       </c>
       <c r="AO187" s="5">
         <v>1</v>
       </c>
-      <c r="AQ187" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>44824</v>
       </c>
       <c r="B188" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(59/18)</v>
       </c>
-      <c r="C188" s="9"/>
+      <c r="C188" s="8">
+        <v>44810</v>
+      </c>
       <c r="D188" s="9">
         <v>7</v>
       </c>
       <c r="E188" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_18</v>
       </c>
       <c r="F188" s="9" t="s">
@@ -7314,6 +8051,13 @@
       <c r="J188" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="K188" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L188" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="Z188" s="5">
         <v>1</v>
       </c>
@@ -7323,13 +8067,16 @@
       <c r="AO188" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AP188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>44824</v>
       </c>
       <c r="B189" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
       <c r="C189" s="9"/>
@@ -7337,7 +8084,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_19</v>
       </c>
       <c r="F189" s="9" t="s">
@@ -7355,19 +8102,29 @@
       <c r="J189" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="L189" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="AE189" s="5">
         <v>1</v>
       </c>
       <c r="AO189" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AP189" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <v>44824</v>
       </c>
       <c r="B190" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
       <c r="C190" s="9"/>
@@ -7375,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="E190" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_20</v>
       </c>
       <c r="F190" s="9" t="s">
@@ -7391,6 +8148,10 @@
         <v>0</v>
       </c>
       <c r="J190" s="9"/>
+      <c r="L190" s="5">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
       <c r="Z190" s="5">
         <v>1</v>
       </c>
@@ -7400,13 +8161,19 @@
       <c r="AO190" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AR190" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU190" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>44824</v>
       </c>
       <c r="B191" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
       <c r="C191" s="9"/>
@@ -7414,7 +8181,7 @@
         <v>7</v>
       </c>
       <c r="E191" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_21</v>
       </c>
       <c r="F191" s="9" t="s">
@@ -7430,19 +8197,26 @@
         <v>0</v>
       </c>
       <c r="J191" s="9"/>
+      <c r="L191" s="5">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="Z191" s="5">
         <v>6</v>
       </c>
       <c r="AE191" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AU191" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>44824</v>
       </c>
       <c r="B192" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>W(63/22)</v>
       </c>
       <c r="C192" s="9"/>
@@ -7450,7 +8224,7 @@
         <v>7</v>
       </c>
       <c r="E192" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_22</v>
       </c>
       <c r="F192" s="9" t="s">
@@ -7466,6 +8240,13 @@
         <v>0</v>
       </c>
       <c r="J192" s="9"/>
+      <c r="K192" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L192" s="5">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="AE192" s="5">
         <v>2</v>
       </c>
@@ -7478,7 +8259,7 @@
         <v>44824</v>
       </c>
       <c r="B193" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>F(64/23)</v>
       </c>
       <c r="C193" s="9"/>
@@ -7486,7 +8267,7 @@
         <v>7</v>
       </c>
       <c r="E193" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7_23</v>
       </c>
       <c r="F193" s="9" t="s">
@@ -7502,6 +8283,10 @@
         <v>0</v>
       </c>
       <c r="J193" s="9"/>
+      <c r="L193" s="5">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="Z193" s="5">
         <v>2</v>
       </c>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1245" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EAEF8B9-B0D4-4017-BDD2-2D4798CD0E5C}"/>
+  <xr:revisionPtr revIDLastSave="1254" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B002C625-AD80-4EB0-B583-3447E6C0FC58}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +744,10 @@
   <dimension ref="A1:AW193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +833,7 @@
       <c r="M1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -833,7 +845,7 @@
       <c r="Q1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="14" t="s">
         <v>59</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -851,7 +863,7 @@
       <c r="W1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="14" t="s">
         <v>54</v>
       </c>
       <c r="Y1" s="7" t="s">
@@ -866,10 +878,10 @@
       <c r="AB1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="14" t="s">
         <v>50</v>
       </c>
       <c r="AE1" s="7" t="s">
@@ -926,7 +938,7 @@
       <c r="AV1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1767,7 +1779,7 @@
         <v>67</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L3:L66" si="2">SUM(M28:AW28)</f>
+        <f t="shared" ref="L28:L66" si="2">SUM(M28:AW28)</f>
         <v>1</v>
       </c>
       <c r="AU28" s="5">
@@ -3258,7 +3270,7 @@
       </c>
       <c r="J67" s="9"/>
       <c r="L67" s="5">
-        <f t="shared" ref="L67:L130" si="7">SUM(M67:AW67)</f>
+        <f t="shared" ref="L67:L125" si="7">SUM(M67:AW67)</f>
         <v>1</v>
       </c>
       <c r="AL67" s="5">
@@ -5888,7 +5900,7 @@
         <v>67</v>
       </c>
       <c r="L132" s="5">
-        <f t="shared" ref="L131:L193" si="12">SUM(M132:AW132)</f>
+        <f t="shared" ref="L132:L193" si="12">SUM(M132:AW132)</f>
         <v>4</v>
       </c>
       <c r="AE132" s="5">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1254" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B002C625-AD80-4EB0-B583-3447E6C0FC58}"/>
+  <xr:revisionPtr revIDLastSave="1456" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486C9CBA-5FAE-4FFC-AFE1-D35AA966C18D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
   <si>
     <t>Treatment</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>F means surrounding forest. W means windthrow. S means salvaged after windthrow.</t>
-  </si>
-  <si>
-    <t>Total_Carabidae</t>
   </si>
   <si>
     <t>Beetle_vial_examined</t>
@@ -242,12 +239,27 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Notes_on_labelling</t>
+  </si>
+  <si>
+    <t>Likely the vial for this is in Wooster somewhere - these beetles were pinned in Wooster</t>
+  </si>
+  <si>
+    <t>Total_Carabidae_during_pinning</t>
+  </si>
+  <si>
+    <t>Total_Carabidae_from_sum_of_species_counts</t>
+  </si>
+  <si>
+    <t>There is some confusion on the carabids from this sample interval - 9 appear to have already been pinned but now I just went through the beetle vial and two more were found in the vial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +290,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +396,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,10 +756,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -741,13 +777,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
-  <dimension ref="A1:AW193"/>
+  <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O199" sqref="O199"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,53 +797,55 @@
     <col min="7" max="7" width="8.7265625" style="5"/>
     <col min="8" max="8" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="5" customWidth="1"/>
-    <col min="17" max="18" width="14" style="5" customWidth="1"/>
-    <col min="19" max="20" width="8.6328125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="6.6328125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.6328125" style="5" customWidth="1"/>
-    <col min="26" max="30" width="9.453125" style="5" customWidth="1"/>
-    <col min="31" max="32" width="12.81640625" style="5" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" style="5" customWidth="1"/>
-    <col min="34" max="35" width="12.26953125" style="5" customWidth="1"/>
-    <col min="36" max="37" width="12.1796875" style="5" customWidth="1"/>
-    <col min="38" max="38" width="12.26953125" style="5" customWidth="1"/>
-    <col min="39" max="39" width="12.1796875" style="5" customWidth="1"/>
-    <col min="40" max="40" width="12.81640625" style="5" customWidth="1"/>
-    <col min="41" max="41" width="11.6328125" style="5" customWidth="1"/>
-    <col min="42" max="44" width="12.08984375" style="5" customWidth="1"/>
-    <col min="45" max="45" width="12.7265625" style="5" customWidth="1"/>
-    <col min="46" max="47" width="14.08984375" style="5" customWidth="1"/>
-    <col min="48" max="48" width="10" style="5" customWidth="1"/>
-    <col min="49" max="49" width="9.1796875" style="5" customWidth="1"/>
-    <col min="50" max="51" width="8.7265625" style="5" customWidth="1"/>
-    <col min="52" max="16384" width="8.7265625" style="5"/>
+    <col min="10" max="10" width="13.7265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="32.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" style="5" customWidth="1"/>
+    <col min="19" max="20" width="14" style="5" customWidth="1"/>
+    <col min="21" max="22" width="8.6328125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="9.6328125" style="5" customWidth="1"/>
+    <col min="28" max="32" width="9.453125" style="5" customWidth="1"/>
+    <col min="33" max="34" width="12.81640625" style="5" customWidth="1"/>
+    <col min="35" max="35" width="12.54296875" style="5" customWidth="1"/>
+    <col min="36" max="37" width="12.26953125" style="5" customWidth="1"/>
+    <col min="38" max="39" width="12.1796875" style="5" customWidth="1"/>
+    <col min="40" max="40" width="12.26953125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="12.1796875" style="5" customWidth="1"/>
+    <col min="42" max="42" width="12.81640625" style="5" customWidth="1"/>
+    <col min="43" max="43" width="11.6328125" style="5" customWidth="1"/>
+    <col min="44" max="46" width="12.08984375" style="5" customWidth="1"/>
+    <col min="47" max="47" width="12.7265625" style="5" customWidth="1"/>
+    <col min="48" max="49" width="14.08984375" style="5" customWidth="1"/>
+    <col min="50" max="50" width="10" style="5" customWidth="1"/>
+    <col min="51" max="51" width="9.1796875" style="5" customWidth="1"/>
+    <col min="52" max="53" width="8.7265625" style="5" customWidth="1"/>
+    <col min="54" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -822,127 +860,133 @@
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="AV1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="14" t="s">
+      <c r="AY1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44727</v>
       </c>
@@ -971,8 +1015,9 @@
         <v>1</v>
       </c>
       <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44727</v>
       </c>
@@ -1001,8 +1046,9 @@
         <v>0</v>
       </c>
       <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44727</v>
       </c>
@@ -1031,8 +1077,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44727</v>
       </c>
@@ -1040,7 +1087,9 @@
         <f t="shared" si="0"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8">
+        <v>44713</v>
+      </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
@@ -1060,11 +1109,18 @@
       <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="L5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44727</v>
       </c>
@@ -1093,8 +1149,9 @@
         <v>0</v>
       </c>
       <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44727</v>
       </c>
@@ -1123,8 +1180,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44727</v>
       </c>
@@ -1132,7 +1190,9 @@
         <f t="shared" si="0"/>
         <v>W(47/6)</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8">
+        <v>44714</v>
+      </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
@@ -1153,8 +1213,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K8" s="9"/>
+      <c r="L8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44727</v>
       </c>
@@ -1182,11 +1249,12 @@
       <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44727</v>
       </c>
@@ -1194,7 +1262,9 @@
         <f t="shared" si="0"/>
         <v>S(49/8)</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8">
+        <v>44714</v>
+      </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
@@ -1215,8 +1285,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K10" s="9"/>
+      <c r="L10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44727</v>
       </c>
@@ -1244,11 +1321,12 @@
       <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44727</v>
       </c>
@@ -1277,8 +1355,9 @@
         <v>0</v>
       </c>
       <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44727</v>
       </c>
@@ -1307,8 +1386,9 @@
         <v>1</v>
       </c>
       <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44727</v>
       </c>
@@ -1337,8 +1417,9 @@
         <v>0</v>
       </c>
       <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44727</v>
       </c>
@@ -1367,8 +1448,9 @@
         <v>1</v>
       </c>
       <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44727</v>
       </c>
@@ -1376,7 +1458,9 @@
         <f t="shared" si="0"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8">
+        <v>44713</v>
+      </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
@@ -1397,8 +1481,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K16" s="9"/>
+      <c r="L16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44727</v>
       </c>
@@ -1427,8 +1518,9 @@
         <v>0</v>
       </c>
       <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44727</v>
       </c>
@@ -1436,7 +1528,9 @@
         <f t="shared" si="0"/>
         <v>S(57/16)</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8">
+        <v>44713</v>
+      </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
@@ -1456,11 +1550,18 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="L18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44727</v>
       </c>
@@ -1488,11 +1589,12 @@
       <c r="I19" s="9">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44727</v>
       </c>
@@ -1521,8 +1623,9 @@
         <v>0</v>
       </c>
       <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44727</v>
       </c>
@@ -1550,11 +1653,12 @@
       <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44727</v>
       </c>
@@ -1583,8 +1687,9 @@
         <v>0</v>
       </c>
       <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44727</v>
       </c>
@@ -1612,11 +1717,12 @@
       <c r="I23" s="9">
         <v>2</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44727</v>
       </c>
@@ -1645,8 +1751,9 @@
         <v>0</v>
       </c>
       <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44727</v>
       </c>
@@ -1674,11 +1781,12 @@
       <c r="I25" s="9">
         <v>0</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>44741</v>
       </c>
@@ -1706,11 +1814,12 @@
       <c r="I26" s="9">
         <v>1</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>44741</v>
       </c>
@@ -1738,11 +1847,12 @@
       <c r="I27" s="9">
         <v>0</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>44741</v>
       </c>
@@ -1772,21 +1882,22 @@
       <c r="I28" s="9">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" ref="L28:L66" si="2">SUM(M28:AW28)</f>
-        <v>1</v>
-      </c>
-      <c r="AU28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="L28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" ref="N28:N66" si="2">SUM(O28:AY28)</f>
+        <v>1</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>44741</v>
       </c>
@@ -1814,11 +1925,12 @@
       <c r="I29" s="9">
         <v>1</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>44741</v>
       </c>
@@ -1847,8 +1959,9 @@
         <v>0</v>
       </c>
       <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>44741</v>
       </c>
@@ -1877,8 +1990,9 @@
         <v>0</v>
       </c>
       <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>44741</v>
       </c>
@@ -1907,8 +2021,9 @@
         <v>0</v>
       </c>
       <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>44741</v>
       </c>
@@ -1937,8 +2052,9 @@
         <v>0</v>
       </c>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>44741</v>
       </c>
@@ -1967,8 +2083,9 @@
         <v>0</v>
       </c>
       <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>44741</v>
       </c>
@@ -1997,8 +2114,9 @@
         <v>0</v>
       </c>
       <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>44741</v>
       </c>
@@ -2027,30 +2145,31 @@
         <v>0</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="K36" s="9"/>
+      <c r="L36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P36" s="5">
+      <c r="R36" s="5">
         <v>3</v>
       </c>
-      <c r="R36" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="T36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>44741</v>
       </c>
@@ -2080,24 +2199,25 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="L37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AB37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AD37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>44741</v>
       </c>
@@ -2126,8 +2246,9 @@
         <v>0</v>
       </c>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>44741</v>
       </c>
@@ -2155,11 +2276,12 @@
       <c r="I39" s="9">
         <v>2</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>44741</v>
       </c>
@@ -2188,8 +2310,9 @@
         <v>0</v>
       </c>
       <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>44741</v>
       </c>
@@ -2218,8 +2341,9 @@
         <v>0</v>
       </c>
       <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>44741</v>
       </c>
@@ -2248,24 +2372,25 @@
         <v>0</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="K42" s="9"/>
+      <c r="L42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R42" s="5">
+      <c r="T42" s="5">
         <v>3</v>
       </c>
-      <c r="AO42" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AQ42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>44741</v>
       </c>
@@ -2294,21 +2419,22 @@
         <v>0</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="K43" s="9"/>
+      <c r="L43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AU43" s="5">
-        <v>1</v>
-      </c>
       <c r="AW43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>44741</v>
       </c>
@@ -2337,8 +2463,9 @@
         <v>0</v>
       </c>
       <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44741</v>
       </c>
@@ -2366,11 +2493,12 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>44741</v>
       </c>
@@ -2398,11 +2526,12 @@
       <c r="I46" s="9">
         <v>1</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44741</v>
       </c>
@@ -2430,11 +2559,12 @@
       <c r="I47" s="9">
         <v>2</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44741</v>
       </c>
@@ -2463,8 +2593,9 @@
         <v>0</v>
       </c>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>44741</v>
       </c>
@@ -2492,11 +2623,12 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>44755</v>
       </c>
@@ -2525,21 +2657,22 @@
         <v>0</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="K50" s="9"/>
+      <c r="L50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AD50" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AF50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>44755</v>
       </c>
@@ -2570,18 +2703,19 @@
         <v>0</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K51" s="9"/>
+      <c r="L51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AE51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AG51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>44755</v>
       </c>
@@ -2610,18 +2744,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" s="5">
+      <c r="K52" s="9"/>
+      <c r="L52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AM52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>44755</v>
       </c>
@@ -2652,24 +2787,25 @@
         <v>0</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" s="5">
+      <c r="K53" s="9"/>
+      <c r="L53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O53" s="5">
+      <c r="Q53" s="5">
         <v>4</v>
       </c>
-      <c r="AJ53" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK53" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AL53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM53" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>44755</v>
       </c>
@@ -2698,8 +2834,9 @@
         <v>0</v>
       </c>
       <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>44755</v>
       </c>
@@ -2730,24 +2867,25 @@
         <v>0</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" s="5">
+      <c r="K55" s="9"/>
+      <c r="L55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AG55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN55" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AI55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>44755</v>
       </c>
@@ -2776,21 +2914,26 @@
         <v>0</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="L56" s="5">
+      <c r="K56" s="9"/>
+      <c r="L56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="16"/>
+      <c r="N56" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Z56" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AB56" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>44755</v>
       </c>
@@ -2819,8 +2962,15 @@
         <v>1</v>
       </c>
       <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K57" s="9"/>
+      <c r="L57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>44755</v>
       </c>
@@ -2849,27 +2999,28 @@
         <v>0</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="K58" s="9"/>
+      <c r="L58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N58" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="P58" s="5">
-        <v>7</v>
-      </c>
-      <c r="AE58" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN58" s="5">
+      <c r="R58" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="5">
         <v>12</v>
       </c>
-      <c r="AW58" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>44755</v>
       </c>
@@ -2898,18 +3049,19 @@
         <v>0</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="K59" s="9"/>
+      <c r="L59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="V59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>44755</v>
       </c>
@@ -2938,33 +3090,37 @@
         <v>0</v>
       </c>
       <c r="J60" s="9"/>
-      <c r="L60" s="5">
+      <c r="K60" s="9"/>
+      <c r="L60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N60" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P60" s="5">
+      <c r="R60" s="5">
         <v>4</v>
       </c>
-      <c r="R60" s="5">
-        <v>2</v>
-      </c>
-      <c r="U60" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ60" s="5">
+      <c r="T60" s="5">
+        <v>2</v>
+      </c>
+      <c r="W60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="5">
         <v>3</v>
       </c>
-      <c r="AK60" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AM60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>44755</v>
       </c>
@@ -2993,36 +3149,40 @@
         <v>0</v>
       </c>
       <c r="J61" s="9"/>
-      <c r="L61" s="5">
+      <c r="K61" s="9"/>
+      <c r="L61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M61" s="5">
-        <v>1</v>
-      </c>
-      <c r="P61" s="5">
-        <v>1</v>
-      </c>
-      <c r="S61" s="5">
-        <v>2</v>
-      </c>
-      <c r="T61" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ61" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="O61" s="5">
+        <v>1</v>
+      </c>
+      <c r="R61" s="5">
+        <v>1</v>
+      </c>
+      <c r="U61" s="5">
+        <v>2</v>
+      </c>
+      <c r="V61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>44755</v>
       </c>
@@ -3051,21 +3211,22 @@
         <v>0</v>
       </c>
       <c r="J62" s="9"/>
-      <c r="K62" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="K62" s="9"/>
+      <c r="L62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE62" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AG62" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>44755</v>
       </c>
@@ -3094,18 +3255,22 @@
         <v>0</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="L63" s="5">
+      <c r="K63" s="9"/>
+      <c r="L63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AK63" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AM63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>44755</v>
       </c>
@@ -3134,18 +3299,22 @@
         <v>0</v>
       </c>
       <c r="J64" s="9"/>
-      <c r="L64" s="5">
+      <c r="K64" s="9"/>
+      <c r="L64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N64" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AJ64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>44755</v>
       </c>
@@ -3174,27 +3343,31 @@
         <v>0</v>
       </c>
       <c r="J65" s="9"/>
-      <c r="L65" s="5">
+      <c r="K65" s="9"/>
+      <c r="L65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M65" s="5">
-        <v>1</v>
-      </c>
       <c r="O65" s="5">
         <v>1</v>
       </c>
-      <c r="AE65" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ65" s="5">
+      <c r="Q65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL65" s="5">
         <v>3</v>
       </c>
-      <c r="AU65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>44755</v>
       </c>
@@ -3223,24 +3396,28 @@
         <v>0</v>
       </c>
       <c r="J66" s="9"/>
-      <c r="L66" s="5">
+      <c r="K66" s="9"/>
+      <c r="L66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P66" s="5">
-        <v>1</v>
-      </c>
       <c r="R66" s="5">
         <v>1</v>
       </c>
-      <c r="AE66" s="5">
+      <c r="T66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="5">
         <v>3</v>
       </c>
-      <c r="AO66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AQ66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>44755</v>
       </c>
@@ -3269,15 +3446,19 @@
         <v>0</v>
       </c>
       <c r="J67" s="9"/>
-      <c r="L67" s="5">
-        <f t="shared" ref="L67:L125" si="7">SUM(M67:AW67)</f>
-        <v>1</v>
-      </c>
-      <c r="AL67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K67" s="9"/>
+      <c r="L67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" ref="N67:N125" si="7">SUM(O67:AY67)</f>
+        <v>1</v>
+      </c>
+      <c r="AN67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>44755</v>
       </c>
@@ -3306,21 +3487,22 @@
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
-      <c r="K68" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L68" s="5">
+      <c r="K68" s="9"/>
+      <c r="L68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N68" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AE68" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG68" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>44755</v>
       </c>
@@ -3349,18 +3531,19 @@
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
-      <c r="K69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L69" s="5">
+      <c r="K69" s="9"/>
+      <c r="L69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N69" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>44755</v>
       </c>
@@ -3389,8 +3572,9 @@
         <v>1</v>
       </c>
       <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>44755</v>
       </c>
@@ -3419,24 +3603,28 @@
         <v>0</v>
       </c>
       <c r="J71" s="9"/>
-      <c r="L71" s="5">
+      <c r="K71" s="9"/>
+      <c r="L71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N71" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R71" s="5">
-        <v>1</v>
-      </c>
-      <c r="S71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL71" s="5">
+      <c r="T71" s="5">
+        <v>1</v>
+      </c>
+      <c r="U71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>44755</v>
       </c>
@@ -3465,18 +3653,22 @@
         <v>0</v>
       </c>
       <c r="J72" s="9"/>
-      <c r="L72" s="5">
+      <c r="K72" s="9"/>
+      <c r="L72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N72" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="R72" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>44755</v>
       </c>
@@ -3506,27 +3698,28 @@
       <c r="I73" s="9">
         <v>0</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L73" s="5">
+      <c r="L73" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N73" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="R73" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU73" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T73" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD73" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW73" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>44769</v>
       </c>
@@ -3555,24 +3748,28 @@
         <v>0</v>
       </c>
       <c r="J74" s="9"/>
-      <c r="L74" s="5">
+      <c r="K74" s="9"/>
+      <c r="L74" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N74" s="5">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O74" s="5">
-        <v>1</v>
-      </c>
-      <c r="P74" s="5">
-        <v>1</v>
-      </c>
-      <c r="T74" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="Q74" s="5">
+        <v>1</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1</v>
+      </c>
+      <c r="V74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>44769</v>
       </c>
@@ -3601,21 +3798,22 @@
         <v>0</v>
       </c>
       <c r="J75" s="9"/>
-      <c r="K75" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L75" s="5">
+      <c r="K75" s="9"/>
+      <c r="L75" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N75" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AE75" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>44769</v>
       </c>
@@ -3644,24 +3842,28 @@
         <v>0</v>
       </c>
       <c r="J76" s="9"/>
-      <c r="L76" s="5">
+      <c r="K76" s="9"/>
+      <c r="L76" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N76" s="5">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AJ76" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="5">
+      <c r="AL76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="5">
         <v>3</v>
       </c>
-      <c r="AO76" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU76" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AQ76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>44769</v>
       </c>
@@ -3690,8 +3892,9 @@
         <v>0</v>
       </c>
       <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>44769</v>
       </c>
@@ -3720,15 +3923,19 @@
         <v>0</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="L78" s="5">
+      <c r="K78" s="9"/>
+      <c r="L78" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N78" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AG78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AI78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>44769</v>
       </c>
@@ -3757,8 +3964,9 @@
         <v>0</v>
       </c>
       <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>44769</v>
       </c>
@@ -3787,18 +3995,22 @@
         <v>0</v>
       </c>
       <c r="J80" s="9"/>
-      <c r="L80" s="5">
+      <c r="K80" s="9"/>
+      <c r="L80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N80" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AE80" s="5">
+      <c r="AG80" s="5">
         <v>3</v>
       </c>
-      <c r="AK80" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AM80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>44769</v>
       </c>
@@ -3827,21 +4039,25 @@
         <v>0</v>
       </c>
       <c r="J81" s="9"/>
-      <c r="L81" s="5">
+      <c r="K81" s="9"/>
+      <c r="L81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N81" s="5">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O81" s="5">
-        <v>2</v>
-      </c>
-      <c r="X81" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="Q81" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>44769</v>
       </c>
@@ -3870,58 +4086,63 @@
         <v>0</v>
       </c>
       <c r="J82" s="9"/>
-      <c r="L82" s="5">
+      <c r="K82" s="9"/>
+      <c r="L82" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N82" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="R82" s="5">
-        <v>1</v>
-      </c>
-      <c r="S82" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN82" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A83" s="8">
+      <c r="T82" s="5">
+        <v>1</v>
+      </c>
+      <c r="U82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP82" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="17">
         <v>44769</v>
       </c>
-      <c r="B83" s="9" t="str">
+      <c r="B83" s="18" t="str">
         <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18">
         <v>3</v>
       </c>
-      <c r="E83" s="5" t="str">
+      <c r="E83" s="19" t="str">
         <f t="shared" si="6"/>
         <v>3_9</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="F83" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="18">
         <v>50</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="18">
         <v>9</v>
       </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9"/>
-      <c r="L83" s="5">
+      <c r="I83" s="18">
+        <v>0</v>
+      </c>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="N83" s="19">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AL83" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>44769</v>
       </c>
@@ -3950,21 +4171,25 @@
         <v>0</v>
       </c>
       <c r="J84" s="9"/>
-      <c r="L84" s="5">
+      <c r="K84" s="9"/>
+      <c r="L84" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N84" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="R84" s="5">
+      <c r="T84" s="5">
         <v>3</v>
       </c>
-      <c r="AJ84" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU84" s="5">
+      <c r="AL84" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW84" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>44769</v>
       </c>
@@ -3993,8 +4218,15 @@
         <v>0</v>
       </c>
       <c r="J85" s="9"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K85" s="9"/>
+      <c r="L85" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>44769</v>
       </c>
@@ -4023,21 +4255,22 @@
         <v>0</v>
       </c>
       <c r="J86" s="9"/>
-      <c r="K86" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L86" s="5">
+      <c r="K86" s="9"/>
+      <c r="L86" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N86" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AJ86" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AL86" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>44769</v>
       </c>
@@ -4066,9 +4299,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="9"/>
-      <c r="AL87" s="13"/>
-    </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K87" s="9"/>
+      <c r="AN87" s="13"/>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>44769</v>
       </c>
@@ -4097,27 +4331,31 @@
         <v>0</v>
       </c>
       <c r="J88" s="9"/>
-      <c r="L88" s="5">
+      <c r="K88" s="9"/>
+      <c r="L88" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N88" s="5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="O88" s="5">
+      <c r="Q88" s="5">
         <v>3</v>
       </c>
-      <c r="R88" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ88" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK88" s="5">
-        <v>2</v>
+      <c r="T88" s="5">
+        <v>1</v>
       </c>
       <c r="AL88" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AM88" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>44769</v>
       </c>
@@ -4146,21 +4384,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="9"/>
-      <c r="L89" s="5">
+      <c r="K89" s="9"/>
+      <c r="L89" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N89" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AJ89" s="5">
+      <c r="AL89" s="5">
         <v>3</v>
       </c>
-      <c r="AK89" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AM89" s="5">
+        <v>2</v>
+      </c>
+      <c r="AY89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>44769</v>
       </c>
@@ -4189,27 +4431,31 @@
         <v>1</v>
       </c>
       <c r="J90" s="9"/>
-      <c r="L90" s="5">
+      <c r="K90" s="9"/>
+      <c r="L90" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N90" s="5">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AJ90" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK90" s="5">
-        <v>2</v>
-      </c>
       <c r="AL90" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS90" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AM90" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
         <v>44769</v>
       </c>
@@ -4238,21 +4484,25 @@
         <v>0</v>
       </c>
       <c r="J91" s="9"/>
-      <c r="L91" s="5">
+      <c r="K91" s="9"/>
+      <c r="L91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N91" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R91" s="5">
+      <c r="T91" s="5">
         <v>3</v>
       </c>
-      <c r="AE91" s="5">
-        <v>2</v>
-      </c>
-      <c r="AK91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AG91" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>44769</v>
       </c>
@@ -4281,64 +4531,69 @@
         <v>0</v>
       </c>
       <c r="J92" s="9"/>
-      <c r="L92" s="5">
+      <c r="K92" s="9"/>
+      <c r="L92" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N92" s="5">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="R92" s="5">
+      <c r="T92" s="5">
         <v>3</v>
       </c>
-      <c r="AE92" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK92" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU92" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A93" s="8">
+      <c r="AG92" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM92" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW92" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="17">
         <v>44769</v>
       </c>
-      <c r="B93" s="9" t="str">
+      <c r="B93" s="18" t="str">
         <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9">
+      <c r="C93" s="18"/>
+      <c r="D93" s="18">
         <v>3</v>
       </c>
-      <c r="E93" s="5" t="str">
+      <c r="E93" s="19" t="str">
         <f t="shared" si="6"/>
         <v>3_19</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="F93" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="18">
         <v>60</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="18">
         <v>19</v>
       </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-      <c r="J93" s="9"/>
-      <c r="L93" s="5">
+      <c r="I93" s="18">
+        <v>0</v>
+      </c>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="N93" s="19">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O93" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="Q93" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>44769</v>
       </c>
@@ -4367,18 +4622,22 @@
         <v>0</v>
       </c>
       <c r="J94" s="9"/>
-      <c r="L94" s="5">
+      <c r="K94" s="9"/>
+      <c r="L94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N94" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O94" s="5">
+      <c r="Q94" s="5">
         <v>4</v>
       </c>
-      <c r="AW94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>44769</v>
       </c>
@@ -4407,30 +4666,34 @@
         <v>0</v>
       </c>
       <c r="J95" s="9"/>
-      <c r="L95" s="5">
+      <c r="K95" s="9"/>
+      <c r="L95" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N95" s="5">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="R95" s="5">
+      <c r="T95" s="5">
         <v>3</v>
       </c>
-      <c r="AE95" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL95" s="5">
-        <v>6</v>
-      </c>
-      <c r="AT95" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU95" s="5">
+      <c r="AG95" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN95" s="5">
+        <v>6</v>
+      </c>
+      <c r="AV95" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW95" s="5">
         <v>4</v>
       </c>
-      <c r="AW95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>44769</v>
       </c>
@@ -4459,24 +4722,28 @@
         <v>0</v>
       </c>
       <c r="J96" s="9"/>
-      <c r="L96" s="5">
+      <c r="K96" s="9"/>
+      <c r="L96" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N96" s="5">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="R96" s="5">
+      <c r="T96" s="5">
         <v>3</v>
       </c>
-      <c r="AE96" s="5">
-        <v>7</v>
-      </c>
-      <c r="AK96" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU96" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AG96" s="5">
+        <v>7</v>
+      </c>
+      <c r="AM96" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>44769</v>
       </c>
@@ -4505,18 +4772,22 @@
         <v>0</v>
       </c>
       <c r="J97" s="9"/>
-      <c r="L97" s="5">
+      <c r="K97" s="9"/>
+      <c r="L97" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N97" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="R97" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU97" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="T97" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>44784</v>
       </c>
@@ -4545,27 +4816,31 @@
         <v>0</v>
       </c>
       <c r="J98" s="9"/>
-      <c r="L98" s="5">
+      <c r="K98" s="9"/>
+      <c r="L98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N98" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AE98" s="5">
-        <v>2</v>
-      </c>
       <c r="AG98" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ98" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI98" s="5">
         <v>1</v>
       </c>
       <c r="AL98" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU98" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AN98" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW98" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>44784</v>
       </c>
@@ -4594,18 +4869,19 @@
         <v>0</v>
       </c>
       <c r="J99" s="9"/>
-      <c r="K99" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L99" s="5">
+      <c r="K99" s="9"/>
+      <c r="L99" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N99" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AW99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>44784</v>
       </c>
@@ -4634,18 +4910,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="9"/>
-      <c r="K100" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L100" s="5">
+      <c r="K100" s="9"/>
+      <c r="L100" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N100" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AU100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AW100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>44784</v>
       </c>
@@ -4674,15 +4951,19 @@
         <v>0</v>
       </c>
       <c r="J101" s="9"/>
-      <c r="L101" s="5">
+      <c r="K101" s="9"/>
+      <c r="L101" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N101" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AO101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AQ101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>44784</v>
       </c>
@@ -4711,8 +4992,9 @@
         <v>0</v>
       </c>
       <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>44784</v>
       </c>
@@ -4743,24 +5025,25 @@
         <v>0</v>
       </c>
       <c r="J103" s="9"/>
-      <c r="K103" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L103" s="5">
+      <c r="K103" s="9"/>
+      <c r="L103" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N103" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AC103" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN103" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AE103" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP103" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>44784</v>
       </c>
@@ -4789,39 +5072,43 @@
         <v>0</v>
       </c>
       <c r="J104" s="9"/>
-      <c r="L104" s="5">
+      <c r="K104" s="9"/>
+      <c r="L104" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N104" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O104" s="5">
-        <v>1</v>
-      </c>
-      <c r="R104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE104" s="5">
+      <c r="Q104" s="5">
+        <v>1</v>
+      </c>
+      <c r="T104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG104" s="5">
         <v>3</v>
       </c>
-      <c r="AH104" s="5">
-        <v>1</v>
-      </c>
       <c r="AJ104" s="5">
         <v>1</v>
       </c>
-      <c r="AK104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN104" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO104" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AL104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP104" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ104" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>44784</v>
       </c>
@@ -4850,21 +5137,25 @@
         <v>0</v>
       </c>
       <c r="J105" s="9"/>
-      <c r="L105" s="5">
+      <c r="K105" s="9"/>
+      <c r="L105" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N105" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="O105" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK105" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="Q105" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM105" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>44784</v>
       </c>
@@ -4893,24 +5184,28 @@
         <v>0</v>
       </c>
       <c r="J106" s="9"/>
-      <c r="L106" s="5">
+      <c r="K106" s="9"/>
+      <c r="L106" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N106" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="P106" s="5">
-        <v>1</v>
-      </c>
-      <c r="V106" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN106" s="5">
+      <c r="R106" s="5">
+        <v>1</v>
+      </c>
+      <c r="X106" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP106" s="5">
         <v>12</v>
       </c>
-      <c r="AW106" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>44784</v>
       </c>
@@ -4939,8 +5234,9 @@
         <v>0</v>
       </c>
       <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>44784</v>
       </c>
@@ -4969,8 +5265,9 @@
         <v>0</v>
       </c>
       <c r="J108" s="9"/>
-    </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>44784</v>
       </c>
@@ -4999,18 +5296,22 @@
         <v>0</v>
       </c>
       <c r="J109" s="9"/>
-      <c r="L109" s="5">
+      <c r="K109" s="9"/>
+      <c r="L109" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N109" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AE109" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU109" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AG109" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>44784</v>
       </c>
@@ -5039,27 +5340,31 @@
         <v>0</v>
       </c>
       <c r="J110" s="9"/>
-      <c r="L110" s="5">
+      <c r="K110" s="9"/>
+      <c r="L110" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N110" s="5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="R110" s="5">
+      <c r="T110" s="5">
         <v>3</v>
       </c>
-      <c r="AE110" s="5">
+      <c r="AG110" s="5">
         <v>3</v>
       </c>
-      <c r="AJ110" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO110" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AL110" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ110" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>44784</v>
       </c>
@@ -5088,21 +5393,25 @@
         <v>0</v>
       </c>
       <c r="J111" s="9"/>
-      <c r="L111" s="5">
+      <c r="K111" s="9"/>
+      <c r="L111" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N111" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="T111" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK111" s="5">
-        <v>2</v>
-      </c>
-      <c r="AL111" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="V111" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM111" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN111" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>44784</v>
       </c>
@@ -5133,18 +5442,19 @@
         <v>0</v>
       </c>
       <c r="J112" s="9"/>
-      <c r="K112" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L112" s="5">
+      <c r="K112" s="9"/>
+      <c r="L112" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N112" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AU112" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW112" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>44784</v>
       </c>
@@ -5173,15 +5483,16 @@
         <v>0</v>
       </c>
       <c r="J113" s="9"/>
-      <c r="K113" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L113" s="5">
+      <c r="K113" s="9"/>
+      <c r="L113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N113" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>44784</v>
       </c>
@@ -5210,33 +5521,37 @@
         <v>0</v>
       </c>
       <c r="J114" s="9"/>
-      <c r="L114" s="5">
+      <c r="K114" s="9"/>
+      <c r="L114" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N114" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="M114" s="5">
-        <v>1</v>
-      </c>
-      <c r="R114" s="5">
+      <c r="O114" s="5">
+        <v>1</v>
+      </c>
+      <c r="T114" s="5">
         <v>3</v>
       </c>
-      <c r="AE114" s="5">
-        <v>2</v>
-      </c>
-      <c r="AI114" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ114" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO114" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU114" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG114" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK114" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL114" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ114" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW114" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>44784</v>
       </c>
@@ -5265,18 +5580,22 @@
         <v>0</v>
       </c>
       <c r="J115" s="9"/>
-      <c r="L115" s="5">
+      <c r="K115" s="9"/>
+      <c r="L115" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N115" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O115" s="5">
+      <c r="Q115" s="5">
         <v>4</v>
       </c>
-      <c r="AL115" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AN115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>44784</v>
       </c>
@@ -5305,8 +5624,15 @@
         <v>0</v>
       </c>
       <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K116" s="9"/>
+      <c r="L116" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M116" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>44784</v>
       </c>
@@ -5335,21 +5661,25 @@
         <v>0</v>
       </c>
       <c r="J117" s="9"/>
-      <c r="L117" s="5">
+      <c r="K117" s="9"/>
+      <c r="L117" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N117" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O117" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE117" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU117" s="5">
+      <c r="Q117" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG117" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW117" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>44784</v>
       </c>
@@ -5378,24 +5708,28 @@
         <v>0</v>
       </c>
       <c r="J118" s="9"/>
-      <c r="L118" s="5">
+      <c r="K118" s="9"/>
+      <c r="L118" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N118" s="5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="R118" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE118" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO118" s="5">
+      <c r="T118" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ118" s="5">
         <v>4</v>
       </c>
-      <c r="AU118" s="5">
+      <c r="AW118" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>44784</v>
       </c>
@@ -5426,18 +5760,19 @@
         <v>1</v>
       </c>
       <c r="J119" s="9"/>
-      <c r="K119" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L119" s="5">
+      <c r="K119" s="9"/>
+      <c r="L119" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N119" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R119" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>44784</v>
       </c>
@@ -5466,27 +5801,31 @@
         <v>0</v>
       </c>
       <c r="J120" s="9"/>
-      <c r="L120" s="5">
+      <c r="K120" s="9"/>
+      <c r="L120" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N120" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="R120" s="5">
+      <c r="T120" s="5">
         <v>3</v>
       </c>
-      <c r="AE120" s="5">
+      <c r="AG120" s="5">
         <v>5</v>
       </c>
-      <c r="AK120" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO120" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU120" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AM120" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ120" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>44784</v>
       </c>
@@ -5515,30 +5854,31 @@
         <v>0</v>
       </c>
       <c r="J121" s="9"/>
-      <c r="K121" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L121" s="5">
+      <c r="K121" s="9"/>
+      <c r="L121" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N121" s="5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="O121" s="5">
-        <v>1</v>
-      </c>
       <c r="Q121" s="5">
         <v>1</v>
       </c>
-      <c r="R121" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE121" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU121" s="5">
+      <c r="S121" s="5">
+        <v>1</v>
+      </c>
+      <c r="T121" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG121" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW121" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>44796</v>
       </c>
@@ -5567,8 +5907,9 @@
         <v>0</v>
       </c>
       <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>44796</v>
       </c>
@@ -5597,8 +5938,9 @@
         <v>0</v>
       </c>
       <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>44796</v>
       </c>
@@ -5629,18 +5971,19 @@
         <v>0</v>
       </c>
       <c r="J124" s="9"/>
-      <c r="K124" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L124" s="5">
+      <c r="K124" s="9"/>
+      <c r="L124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N124" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AO124" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AQ124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>44796</v>
       </c>
@@ -5669,21 +6012,22 @@
         <v>0</v>
       </c>
       <c r="J125" s="9"/>
-      <c r="K125" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L125" s="5">
+      <c r="K125" s="9"/>
+      <c r="L125" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N125" s="5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AE125" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO125" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG125" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ125" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>44796</v>
       </c>
@@ -5712,8 +6056,9 @@
         <v>0</v>
       </c>
       <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>44796</v>
       </c>
@@ -5741,11 +6086,12 @@
       <c r="I127" s="9">
         <v>0</v>
       </c>
-      <c r="J127" s="9" t="s">
+      <c r="J127" s="9"/>
+      <c r="K127" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>44796</v>
       </c>
@@ -5774,8 +6120,9 @@
         <v>0</v>
       </c>
       <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>44796</v>
       </c>
@@ -5804,8 +6151,9 @@
         <v>0</v>
       </c>
       <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>44796</v>
       </c>
@@ -5834,8 +6182,9 @@
         <v>0</v>
       </c>
       <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>44796</v>
       </c>
@@ -5864,8 +6213,9 @@
         <v>0</v>
       </c>
       <c r="J131" s="9"/>
-    </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>44796</v>
       </c>
@@ -5896,24 +6246,25 @@
         <v>0</v>
       </c>
       <c r="J132" s="9"/>
-      <c r="K132" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L132" s="5">
-        <f t="shared" ref="L132:L193" si="12">SUM(M132:AW132)</f>
+      <c r="K132" s="9"/>
+      <c r="L132" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N132" s="5">
+        <f t="shared" ref="N132:N193" si="12">SUM(O132:AY132)</f>
         <v>4</v>
       </c>
-      <c r="AE132" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ132" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU132" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AG132" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL132" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>44796</v>
       </c>
@@ -5942,8 +6293,9 @@
         <v>0</v>
       </c>
       <c r="J133" s="9"/>
-    </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>44796</v>
       </c>
@@ -5972,8 +6324,9 @@
         <v>0</v>
       </c>
       <c r="J134" s="9"/>
-    </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K134" s="9"/>
+    </row>
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>44796</v>
       </c>
@@ -6002,8 +6355,9 @@
         <v>0</v>
       </c>
       <c r="J135" s="9"/>
-    </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K135" s="9"/>
+    </row>
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>44796</v>
       </c>
@@ -6032,8 +6386,9 @@
         <v>0</v>
       </c>
       <c r="J136" s="9"/>
-    </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K136" s="9"/>
+    </row>
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>44796</v>
       </c>
@@ -6062,8 +6417,9 @@
         <v>0</v>
       </c>
       <c r="J137" s="9"/>
-    </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K137" s="9"/>
+    </row>
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>44796</v>
       </c>
@@ -6092,8 +6448,9 @@
         <v>0</v>
       </c>
       <c r="J138" s="9"/>
-    </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K138" s="9"/>
+    </row>
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>44796</v>
       </c>
@@ -6122,8 +6479,9 @@
         <v>0</v>
       </c>
       <c r="J139" s="9"/>
-    </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K139" s="9"/>
+    </row>
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>44796</v>
       </c>
@@ -6152,8 +6510,9 @@
         <v>0</v>
       </c>
       <c r="J140" s="9"/>
-    </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>44796</v>
       </c>
@@ -6182,8 +6541,9 @@
         <v>0</v>
       </c>
       <c r="J141" s="9"/>
-    </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>44796</v>
       </c>
@@ -6212,24 +6572,25 @@
         <v>0</v>
       </c>
       <c r="J142" s="9"/>
-      <c r="K142" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L142" s="5">
+      <c r="K142" s="9"/>
+      <c r="L142" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N142" s="5">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="AE142" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO142" s="5">
+      <c r="AG142" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ142" s="5">
         <v>3</v>
       </c>
-      <c r="AU142" s="5">
+      <c r="AW142" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>44796</v>
       </c>
@@ -6258,8 +6619,9 @@
         <v>0</v>
       </c>
       <c r="J143" s="9"/>
-    </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K143" s="9"/>
+    </row>
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>44796</v>
       </c>
@@ -6288,8 +6650,9 @@
         <v>0</v>
       </c>
       <c r="J144" s="9"/>
-    </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>44796</v>
       </c>
@@ -6318,8 +6681,9 @@
         <v>0</v>
       </c>
       <c r="J145" s="9"/>
-    </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K145" s="9"/>
+    </row>
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>44810</v>
       </c>
@@ -6348,8 +6712,9 @@
         <v>0</v>
       </c>
       <c r="J146" s="9"/>
-    </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K146" s="9"/>
+    </row>
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>44810</v>
       </c>
@@ -6378,8 +6743,9 @@
         <v>0</v>
       </c>
       <c r="J147" s="9"/>
-    </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>44810</v>
       </c>
@@ -6408,18 +6774,22 @@
         <v>0</v>
       </c>
       <c r="J148" s="9"/>
-      <c r="L148" s="5">
+      <c r="K148" s="9"/>
+      <c r="L148" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N148" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AE148" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO148" s="5">
+      <c r="AG148" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ148" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>44810</v>
       </c>
@@ -6448,18 +6818,22 @@
         <v>0</v>
       </c>
       <c r="J149" s="9"/>
-      <c r="L149" s="5">
+      <c r="K149" s="9"/>
+      <c r="L149" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N149" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="O149" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="Q149" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>44810</v>
       </c>
@@ -6488,66 +6862,70 @@
         <v>0</v>
       </c>
       <c r="J150" s="9"/>
-    </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A151" s="11">
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="17">
         <v>44810</v>
       </c>
-      <c r="B151" s="12" t="str">
+      <c r="B151" s="18" t="str">
         <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9">
-        <v>6</v>
-      </c>
-      <c r="E151" s="5" t="str">
+      <c r="C151" s="18"/>
+      <c r="D151" s="18">
+        <v>6</v>
+      </c>
+      <c r="E151" s="19" t="str">
         <f t="shared" si="11"/>
         <v>6_5</v>
       </c>
-      <c r="F151" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="9">
+      <c r="F151" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="18">
         <v>46</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151" s="18">
         <v>5</v>
       </c>
-      <c r="I151" s="9">
-        <v>0</v>
-      </c>
-      <c r="J151" s="9"/>
-      <c r="L151" s="5">
+      <c r="I151" s="18">
+        <v>0</v>
+      </c>
+      <c r="J151" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K151" s="18"/>
+      <c r="N151" s="19">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="Z151" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA151" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE151" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG151" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN151" s="5">
-        <v>7</v>
-      </c>
-      <c r="AO151" s="5">
-        <v>2</v>
-      </c>
-      <c r="AS151" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU151" s="5">
+      <c r="AB151" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG151" s="19">
+        <v>2</v>
+      </c>
+      <c r="AI151" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP151" s="19">
+        <v>7</v>
+      </c>
+      <c r="AQ151" s="19">
+        <v>2</v>
+      </c>
+      <c r="AU151" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW151" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>44810</v>
       </c>
@@ -6576,8 +6954,9 @@
         <v>0</v>
       </c>
       <c r="J152" s="9"/>
-    </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K152" s="9"/>
+    </row>
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>44810</v>
       </c>
@@ -6606,24 +6985,28 @@
         <v>0</v>
       </c>
       <c r="J153" s="9"/>
-      <c r="L153" s="5">
+      <c r="K153" s="9"/>
+      <c r="L153" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N153" s="5">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="O153" s="5">
+      <c r="Q153" s="5">
         <v>4</v>
       </c>
-      <c r="Z153" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ153" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB153" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL153" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>44810</v>
       </c>
@@ -6652,8 +7035,9 @@
         <v>0</v>
       </c>
       <c r="J154" s="9"/>
-    </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K154" s="9"/>
+    </row>
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>44810</v>
       </c>
@@ -6684,18 +7068,19 @@
         <v>0</v>
       </c>
       <c r="J155" s="9"/>
-      <c r="K155" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L155" s="5">
+      <c r="K155" s="9"/>
+      <c r="L155" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N155" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AG155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AI155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>44810</v>
       </c>
@@ -6724,8 +7109,9 @@
         <v>0</v>
       </c>
       <c r="J156" s="9"/>
-    </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>44810</v>
       </c>
@@ -6754,33 +7140,37 @@
         <v>0</v>
       </c>
       <c r="J157" s="9"/>
-      <c r="L157" s="5">
+      <c r="K157" s="9"/>
+      <c r="L157" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N157" s="5">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="S157" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z157" s="5">
+      <c r="U157" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB157" s="5">
         <v>5</v>
       </c>
-      <c r="AE157" s="5">
+      <c r="AG157" s="5">
         <v>5</v>
       </c>
-      <c r="AJ157" s="5">
+      <c r="AL157" s="5">
         <v>3</v>
       </c>
-      <c r="AN157" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO157" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR157" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AP157" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ157" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>44810</v>
       </c>
@@ -6809,18 +7199,22 @@
         <v>0</v>
       </c>
       <c r="J158" s="9"/>
-      <c r="L158" s="5">
+      <c r="K158" s="9"/>
+      <c r="L158" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N158" s="5">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="Z158" s="5">
+      <c r="AB158" s="5">
         <v>4</v>
       </c>
-      <c r="AJ158" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AL158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>44810</v>
       </c>
@@ -6849,15 +7243,16 @@
         <v>0</v>
       </c>
       <c r="J159" s="9"/>
-      <c r="K159" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L159" s="5">
+      <c r="K159" s="9"/>
+      <c r="L159" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N159" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>44810</v>
       </c>
@@ -6886,8 +7281,15 @@
         <v>0</v>
       </c>
       <c r="J160" s="9"/>
-    </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K160" s="9"/>
+      <c r="L160" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>44810</v>
       </c>
@@ -6916,21 +7318,25 @@
         <v>0</v>
       </c>
       <c r="J161" s="9"/>
-      <c r="L161" s="5">
+      <c r="K161" s="9"/>
+      <c r="L161" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N161" s="5">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="W161" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ161" s="5">
+      <c r="Y161" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL161" s="5">
         <v>4</v>
       </c>
-      <c r="AO161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AQ161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>44810</v>
       </c>
@@ -6959,18 +7365,22 @@
         <v>0</v>
       </c>
       <c r="J162" s="9"/>
-      <c r="L162" s="5">
+      <c r="K162" s="9"/>
+      <c r="L162" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N162" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="R162" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T162" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>44810</v>
       </c>
@@ -6999,18 +7409,22 @@
         <v>0</v>
       </c>
       <c r="J163" s="9"/>
-      <c r="L163" s="5">
+      <c r="K163" s="9"/>
+      <c r="L163" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N163" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z163" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO163" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>44810</v>
       </c>
@@ -7039,18 +7453,19 @@
         <v>0</v>
       </c>
       <c r="J164" s="9"/>
-      <c r="K164" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L164" s="5">
+      <c r="K164" s="9"/>
+      <c r="L164" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N164" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AE164" s="5">
+      <c r="AG164" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>44810</v>
       </c>
@@ -7079,18 +7494,22 @@
         <v>0</v>
       </c>
       <c r="J165" s="9"/>
-      <c r="L165" s="5">
+      <c r="K165" s="9"/>
+      <c r="L165" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N165" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="T165" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE165" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="V165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>44810</v>
       </c>
@@ -7119,8 +7538,9 @@
         <v>0</v>
       </c>
       <c r="J166" s="9"/>
-    </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>44810</v>
       </c>
@@ -7149,8 +7569,9 @@
         <v>0</v>
       </c>
       <c r="J167" s="9"/>
-    </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="K167" s="9"/>
+    </row>
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>44810</v>
       </c>
@@ -7179,27 +7600,31 @@
         <v>0</v>
       </c>
       <c r="J168" s="9"/>
-      <c r="L168" s="5">
+      <c r="K168" s="9"/>
+      <c r="L168" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N168" s="5">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="S168" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z168" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE168" s="5">
+      <c r="U168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG168" s="5">
         <v>3</v>
       </c>
-      <c r="AO168" s="5">
+      <c r="AQ168" s="5">
         <v>3</v>
       </c>
-      <c r="AU168" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AW168" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>44810</v>
       </c>
@@ -7228,24 +7653,28 @@
         <v>0</v>
       </c>
       <c r="J169" s="9"/>
-      <c r="L169" s="5">
+      <c r="K169" s="9"/>
+      <c r="L169" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N169" s="5">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="N169" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z169" s="5">
-        <v>7</v>
-      </c>
-      <c r="AE169" s="5">
-        <v>6</v>
-      </c>
-      <c r="AN169" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="P169" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB169" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG169" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP169" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>44824</v>
       </c>
@@ -7274,21 +7703,22 @@
         <v>0</v>
       </c>
       <c r="J170" s="9"/>
-      <c r="K170" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L170" s="5">
+      <c r="K170" s="9"/>
+      <c r="L170" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N170" s="5">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z170" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE170" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB170" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>44824</v>
       </c>
@@ -7317,21 +7747,25 @@
         <v>0</v>
       </c>
       <c r="J171" s="9"/>
-      <c r="L171" s="5">
+      <c r="K171" s="9"/>
+      <c r="L171" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N171" s="5">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AL171" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO171" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU171" s="5">
+      <c r="AN171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW171" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>44824</v>
       </c>
@@ -7362,18 +7796,19 @@
         <v>0</v>
       </c>
       <c r="J172" s="9"/>
-      <c r="K172" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L172" s="5">
+      <c r="K172" s="9"/>
+      <c r="L172" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N172" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="O172" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="Q172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>44824</v>
       </c>
@@ -7402,21 +7837,22 @@
         <v>0</v>
       </c>
       <c r="J173" s="9"/>
-      <c r="K173" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L173" s="5">
+      <c r="K173" s="9"/>
+      <c r="L173" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N173" s="5">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AO173" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU173" s="5">
+      <c r="AQ173" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW173" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>44824</v>
       </c>
@@ -7445,18 +7881,19 @@
         <v>0</v>
       </c>
       <c r="J174" s="9"/>
-      <c r="K174" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L174" s="5">
+      <c r="K174" s="9"/>
+      <c r="L174" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N174" s="5">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Z174" s="5">
+      <c r="AB174" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>44824</v>
       </c>
@@ -7485,24 +7922,28 @@
         <v>0</v>
       </c>
       <c r="J175" s="9"/>
-      <c r="L175" s="5">
+      <c r="K175" s="9"/>
+      <c r="L175" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N175" s="5">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="AE175" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN175" s="5">
+      <c r="AG175" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP175" s="5">
         <v>4</v>
       </c>
-      <c r="AO175" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU175" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AQ175" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>44824</v>
       </c>
@@ -7531,21 +7972,22 @@
         <v>0</v>
       </c>
       <c r="J176" s="9"/>
-      <c r="K176" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L176" s="5">
+      <c r="K176" s="9"/>
+      <c r="L176" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N176" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="Z176" s="5">
+      <c r="AB176" s="5">
         <v>3</v>
       </c>
-      <c r="AO176" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AQ176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>44824</v>
       </c>
@@ -7573,24 +8015,28 @@
       <c r="I177" s="9">
         <v>0</v>
       </c>
-      <c r="J177" s="9" t="s">
+      <c r="J177" s="9"/>
+      <c r="K177" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L177" s="5">
+      <c r="L177" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N177" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="O177" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ177" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO177" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="Q177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL177" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>44824</v>
       </c>
@@ -7619,27 +8065,28 @@
         <v>0</v>
       </c>
       <c r="J178" s="9"/>
-      <c r="K178" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L178" s="5">
+      <c r="K178" s="9"/>
+      <c r="L178" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N178" s="5">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="Y178" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z178" s="5">
-        <v>7</v>
-      </c>
-      <c r="AN178" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW178" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AA178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB178" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP178" s="5">
+        <v>2</v>
+      </c>
+      <c r="AY178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>44824</v>
       </c>
@@ -7667,21 +8114,22 @@
       <c r="I179" s="9">
         <v>0</v>
       </c>
-      <c r="J179" s="9" t="s">
+      <c r="J179" s="9"/>
+      <c r="K179" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K179" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L179" s="5">
+      <c r="L179" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N179" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Z179" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AB179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>44824</v>
       </c>
@@ -7710,8 +8158,9 @@
         <v>0</v>
       </c>
       <c r="J180" s="9"/>
-    </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>44824</v>
       </c>
@@ -7740,8 +8189,9 @@
         <v>0</v>
       </c>
       <c r="J181" s="9"/>
-    </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="K181" s="9"/>
+    </row>
+    <row r="182" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>44824</v>
       </c>
@@ -7770,36 +8220,37 @@
         <v>0</v>
       </c>
       <c r="J182" s="9"/>
-      <c r="K182" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L182" s="5">
+      <c r="K182" s="9"/>
+      <c r="L182" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N182" s="5">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="Z182" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE182" s="5">
+      <c r="AB182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG182" s="5">
         <v>4</v>
       </c>
-      <c r="AF182" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ182" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO182" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU182" s="5">
-        <v>2</v>
-      </c>
-      <c r="AV182" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AH182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AX182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>44824</v>
       </c>
@@ -7830,21 +8281,22 @@
         <v>0</v>
       </c>
       <c r="J183" s="9"/>
-      <c r="K183" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L183" s="5">
+      <c r="K183" s="9"/>
+      <c r="L183" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N183" s="5">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="AQ183" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU183" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AS183" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>44824</v>
       </c>
@@ -7873,24 +8325,28 @@
         <v>0</v>
       </c>
       <c r="J184" s="9"/>
-      <c r="L184" s="5">
+      <c r="K184" s="9"/>
+      <c r="L184" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N184" s="5">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="W184" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ184" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO184" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU184" s="5">
+      <c r="Y184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW184" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>44824</v>
       </c>
@@ -7921,24 +8377,25 @@
         <v>0</v>
       </c>
       <c r="J185" s="9"/>
-      <c r="K185" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L185" s="5">
+      <c r="K185" s="9"/>
+      <c r="L185" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N185" s="5">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="AJ185" s="5">
+      <c r="AL185" s="5">
         <v>5</v>
       </c>
-      <c r="AO185" s="5">
-        <v>2</v>
-      </c>
-      <c r="AU185" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AQ185" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW185" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>44824</v>
       </c>
@@ -7967,21 +8424,25 @@
         <v>0</v>
       </c>
       <c r="J186" s="9"/>
-      <c r="L186" s="5">
+      <c r="K186" s="9"/>
+      <c r="L186" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N186" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="Z186" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE186" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO186" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AB186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ186" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>44824</v>
       </c>
@@ -8010,27 +8471,28 @@
         <v>0</v>
       </c>
       <c r="J187" s="9"/>
-      <c r="K187" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L187" s="5">
+      <c r="K187" s="9"/>
+      <c r="L187" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N187" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AF187" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO187" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU187" s="5">
+      <c r="AH187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ187" s="5">
         <v>1</v>
       </c>
       <c r="AW187" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AY187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>44824</v>
       </c>
@@ -8060,170 +8522,182 @@
       <c r="I188" s="9">
         <v>0</v>
       </c>
-      <c r="J188" s="9" t="s">
+      <c r="J188" s="9"/>
+      <c r="K188" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K188" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L188" s="5">
+      <c r="L188" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N188" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="Z188" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE188" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO188" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP188" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A189" s="8">
+      <c r="AB188" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG188" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ188" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="17">
         <v>44824</v>
       </c>
-      <c r="B189" s="9" t="str">
+      <c r="B189" s="18" t="str">
         <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9">
-        <v>7</v>
-      </c>
-      <c r="E189" s="5" t="str">
+      <c r="C189" s="18"/>
+      <c r="D189" s="18">
+        <v>7</v>
+      </c>
+      <c r="E189" s="19" t="str">
         <f t="shared" si="14"/>
         <v>7_19</v>
       </c>
-      <c r="F189" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="9">
+      <c r="F189" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="18">
         <v>60</v>
       </c>
-      <c r="H189" s="9">
+      <c r="H189" s="18">
         <v>19</v>
       </c>
-      <c r="I189" s="9">
-        <v>0</v>
-      </c>
-      <c r="J189" s="9" t="s">
+      <c r="I189" s="18">
+        <v>0</v>
+      </c>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L189" s="5">
+      <c r="N189" s="19">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AE189" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO189" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP189" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU189" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A190" s="8">
+      <c r="AG189" s="19">
+        <v>1</v>
+      </c>
+      <c r="AQ189" s="19">
+        <v>1</v>
+      </c>
+      <c r="AR189" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW189" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="17">
         <v>44824</v>
       </c>
-      <c r="B190" s="9" t="str">
+      <c r="B190" s="18" t="str">
         <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9">
-        <v>7</v>
-      </c>
-      <c r="E190" s="5" t="str">
+      <c r="C190" s="18"/>
+      <c r="D190" s="18">
+        <v>7</v>
+      </c>
+      <c r="E190" s="19" t="str">
         <f t="shared" si="14"/>
         <v>7_20</v>
       </c>
-      <c r="F190" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G190" s="9">
+      <c r="F190" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G190" s="18">
         <v>61</v>
       </c>
-      <c r="H190" s="9">
+      <c r="H190" s="18">
         <v>20</v>
       </c>
-      <c r="I190" s="9">
-        <v>0</v>
-      </c>
-      <c r="J190" s="9"/>
-      <c r="L190" s="5">
+      <c r="I190" s="18">
+        <v>0</v>
+      </c>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="N190" s="19">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="Z190" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE190" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO190" s="5">
-        <v>7</v>
-      </c>
-      <c r="AR190" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU190" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A191" s="8">
+      <c r="AB190" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG190" s="19">
+        <v>1</v>
+      </c>
+      <c r="AQ190" s="19">
+        <v>7</v>
+      </c>
+      <c r="AT190" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW190" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="17">
         <v>44824</v>
       </c>
-      <c r="B191" s="9" t="str">
+      <c r="B191" s="18" t="str">
         <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9">
-        <v>7</v>
-      </c>
-      <c r="E191" s="5" t="str">
+      <c r="C191" s="18"/>
+      <c r="D191" s="18">
+        <v>7</v>
+      </c>
+      <c r="E191" s="19" t="str">
         <f t="shared" si="14"/>
         <v>7_21</v>
       </c>
-      <c r="F191" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191" s="9">
+      <c r="F191" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191" s="18">
         <v>62</v>
       </c>
-      <c r="H191" s="9">
+      <c r="H191" s="18">
         <v>21</v>
       </c>
-      <c r="I191" s="9">
-        <v>0</v>
-      </c>
-      <c r="J191" s="9"/>
-      <c r="L191" s="5">
+      <c r="I191" s="18">
+        <v>0</v>
+      </c>
+      <c r="J191" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K191" s="18"/>
+      <c r="L191" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M191" s="19">
+        <v>2</v>
+      </c>
+      <c r="N191" s="19">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="Z191" s="5">
-        <v>6</v>
-      </c>
-      <c r="AE191" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU191" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AB191" s="19">
+        <v>6</v>
+      </c>
+      <c r="AG191" s="19">
+        <v>1</v>
+      </c>
+      <c r="AW191" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>44824</v>
       </c>
@@ -8252,21 +8726,22 @@
         <v>0</v>
       </c>
       <c r="J192" s="9"/>
-      <c r="K192" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L192" s="5">
+      <c r="K192" s="9"/>
+      <c r="L192" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N192" s="5">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="AE192" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO192" s="5">
+      <c r="AG192" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ192" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
         <v>44824</v>
       </c>
@@ -8295,22 +8770,26 @@
         <v>0</v>
       </c>
       <c r="J193" s="9"/>
-      <c r="L193" s="5">
+      <c r="K193" s="9"/>
+      <c r="L193" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N193" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="Z193" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE193" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM193" s="5">
+      <c r="AB193" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG193" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO193" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1456" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486C9CBA-5FAE-4FFC-AFE1-D35AA966C18D}"/>
+  <xr:revisionPtr revIDLastSave="1491" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566F4B18-2010-41D3-A3EA-DDD4AC971699}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="76">
   <si>
     <t>Treatment</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>There is some confusion on the carabids from this sample interval - 9 appear to have already been pinned but now I just went through the beetle vial and two more were found in the vial</t>
+  </si>
+  <si>
+    <t>3 carabid larvae (not removed)</t>
+  </si>
+  <si>
+    <t>many staphylinids (not removed)</t>
+  </si>
+  <si>
+    <t>many interesting staphylinids not removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           </t>
   </si>
 </sst>
 </file>
@@ -780,10 +792,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,7 +1037,9 @@
         <f t="shared" si="0"/>
         <v>S(42/1)</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8">
+        <v>44714</v>
+      </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
@@ -1047,6 +1061,12 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
@@ -1569,7 +1589,9 @@
         <f t="shared" si="0"/>
         <v>F(58/17)</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8">
+        <v>44713</v>
+      </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
@@ -1593,6 +1615,12 @@
       <c r="K19" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
@@ -1666,7 +1694,9 @@
         <f t="shared" si="0"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8">
+        <v>44713</v>
+      </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
@@ -1686,8 +1716,16 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="K22" s="9"/>
+      <c r="L22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
@@ -1730,7 +1768,9 @@
         <f t="shared" si="0"/>
         <v>W(63/22)</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8">
+        <v>44713</v>
+      </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
@@ -1752,6 +1792,12 @@
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
+      <c r="L24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
@@ -1827,7 +1873,9 @@
         <f t="shared" si="0"/>
         <v>S(42/1)</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8">
+        <v>44727</v>
+      </c>
       <c r="D27" s="9">
         <v>1</v>
       </c>
@@ -1847,9 +1895,17 @@
       <c r="I27" s="9">
         <v>0</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="K27" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
@@ -1938,7 +1994,9 @@
         <f t="shared" si="0"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8">
+        <v>44727</v>
+      </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
@@ -1960,6 +2018,12 @@
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
+      <c r="L30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
@@ -2280,6 +2344,9 @@
       <c r="K39" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="M39" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
@@ -2320,7 +2387,9 @@
         <f t="shared" si="3"/>
         <v>F(56/15)</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="8">
+        <v>44727</v>
+      </c>
       <c r="D41" s="9">
         <v>1</v>
       </c>
@@ -2340,8 +2409,16 @@
       <c r="I41" s="9">
         <v>0</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K41" s="9"/>
+      <c r="L41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
@@ -2442,7 +2519,9 @@
         <f t="shared" si="3"/>
         <v>W(59/18)</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="8">
+        <v>44727</v>
+      </c>
       <c r="D44" s="9">
         <v>1</v>
       </c>
@@ -2464,6 +2543,12 @@
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
+      <c r="L44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
@@ -2603,7 +2688,9 @@
         <f t="shared" si="3"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="8">
+        <v>44727</v>
+      </c>
       <c r="D49" s="9">
         <v>1</v>
       </c>
@@ -2626,6 +2713,12 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.35">
@@ -8137,7 +8230,9 @@
         <f t="shared" si="13"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C180" s="9"/>
+      <c r="C180" s="8">
+        <v>44810</v>
+      </c>
       <c r="D180" s="9">
         <v>7</v>
       </c>
@@ -8159,6 +8254,12 @@
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
+      <c r="L180" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M180" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A181" s="8">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1491" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566F4B18-2010-41D3-A3EA-DDD4AC971699}"/>
+  <xr:revisionPtr revIDLastSave="1512" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40C19D8-DFB0-4E73-9BEF-32870A9130C5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="76">
   <si>
     <t>Treatment</t>
   </si>
@@ -255,9 +255,6 @@
     <t>There is some confusion on the carabids from this sample interval - 9 appear to have already been pinned but now I just went through the beetle vial and two more were found in the vial</t>
   </si>
   <si>
-    <t>3 carabid larvae (not removed)</t>
-  </si>
-  <si>
     <t>many staphylinids (not removed)</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>3 carabid larvae (not removed or counted)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,6 +425,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,10 +807,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,36 +1186,36 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+    <row r="7" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
         <v>44727</v>
       </c>
-      <c r="B7" s="12" t="str">
+      <c r="B7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>0_5</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21">
         <v>46</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="21">
         <v>5</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
@@ -1377,36 +1392,36 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
         <v>44727</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="str">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>0_11</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21">
         <v>52</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="21">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
@@ -1717,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="5" t="s">
@@ -1896,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>9</v>
@@ -2064,7 +2079,9 @@
         <f t="shared" si="0"/>
         <v>W(47/6)</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8">
+        <v>44727</v>
+      </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
@@ -2086,6 +2103,12 @@
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
+      <c r="L32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
@@ -2095,7 +2118,9 @@
         <f t="shared" si="0"/>
         <v>F(48/7)</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8">
+        <v>44727</v>
+      </c>
       <c r="D33" s="9">
         <v>1</v>
       </c>
@@ -2117,6 +2142,12 @@
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
+      <c r="L33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
@@ -2345,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.35">
@@ -2410,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="5" t="s">
@@ -6192,7 +6223,9 @@
         <f t="shared" si="8"/>
         <v>W(47/6)</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="8">
+        <v>44784</v>
+      </c>
       <c r="D128" s="9">
         <v>5</v>
       </c>
@@ -6214,6 +6247,12 @@
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
+      <c r="L128" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M128" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
@@ -6691,7 +6730,9 @@
         <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="8">
+        <v>44784</v>
+      </c>
       <c r="D143" s="9">
         <v>5</v>
       </c>
@@ -6713,6 +6754,12 @@
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
+      <c r="L143" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M143" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
@@ -6784,7 +6831,9 @@
         <f t="shared" si="10"/>
         <v>F(41/0)</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="8">
+        <v>44796</v>
+      </c>
       <c r="D146" s="9">
         <v>6</v>
       </c>
@@ -6806,6 +6855,12 @@
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
+      <c r="L146" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M146" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
@@ -7181,7 +7236,9 @@
         <f t="shared" si="10"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C156" s="9"/>
+      <c r="C156" s="8">
+        <v>44796</v>
+      </c>
       <c r="D156" s="9">
         <v>6</v>
       </c>
@@ -7203,6 +7260,12 @@
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
+      <c r="L156" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M156" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="11">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1512" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40C19D8-DFB0-4E73-9BEF-32870A9130C5}"/>
+  <xr:revisionPtr revIDLastSave="1554" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3219D0-B7C7-4402-93AF-C990A860E4B6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="78">
   <si>
     <t>Treatment</t>
   </si>
@@ -266,6 +266,12 @@
   <si>
     <t>3 carabid larvae (not removed or counted)</t>
   </si>
+  <si>
+    <t>many scarabs and roves - not removed</t>
+  </si>
+  <si>
+    <t>set date almost seemed like 6/13/22 but I assume it was miswritten</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +346,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,13 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,10 +804,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1091,7 +1088,9 @@
         <f t="shared" si="0"/>
         <v>W(43/2)</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8">
+        <v>44714</v>
+      </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
@@ -1111,8 +1110,16 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="K4" s="9"/>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
@@ -1186,36 +1193,36 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+    <row r="7" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>44727</v>
       </c>
-      <c r="B7" s="21" t="str">
+      <c r="B7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="str">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0_5</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="F7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="20">
         <v>46</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>5</v>
       </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
@@ -1369,7 +1376,9 @@
         <f t="shared" si="0"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8">
+        <v>44714</v>
+      </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
@@ -1391,37 +1400,43 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="L12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>44727</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="str">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0_11</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="F13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20">
         <v>52</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>11</v>
       </c>
-      <c r="I13" s="21">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
@@ -1822,7 +1837,9 @@
         <f t="shared" si="0"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8">
+        <v>44713</v>
+      </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
@@ -1846,6 +1863,12 @@
       <c r="K25" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
@@ -1855,7 +1878,9 @@
         <f t="shared" si="0"/>
         <v>F(41/0)</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8">
+        <v>44727</v>
+      </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
@@ -1879,6 +1904,12 @@
       <c r="K26" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
@@ -1976,7 +2007,9 @@
         <f t="shared" si="0"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8">
+        <v>44727</v>
+      </c>
       <c r="D29" s="9">
         <v>1</v>
       </c>
@@ -1996,9 +2029,17 @@
       <c r="I29" s="9">
         <v>1</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="K29" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
@@ -2387,7 +2428,9 @@
         <f t="shared" si="3"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8">
+        <v>44727</v>
+      </c>
       <c r="D40" s="9">
         <v>1</v>
       </c>
@@ -2409,6 +2452,12 @@
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
+      <c r="L40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
@@ -2589,7 +2638,9 @@
         <f t="shared" si="3"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8">
+        <v>44727</v>
+      </c>
       <c r="D45" s="9">
         <v>1</v>
       </c>
@@ -2613,6 +2664,12 @@
       <c r="K45" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
@@ -2688,7 +2745,9 @@
         <f t="shared" si="3"/>
         <v>W(63/22)</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="8">
+        <v>44727</v>
+      </c>
       <c r="D48" s="9">
         <v>1</v>
       </c>
@@ -2710,6 +2769,12 @@
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
+      <c r="L48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
@@ -2937,7 +3002,9 @@
         <f t="shared" si="3"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="8">
+        <v>44741</v>
+      </c>
       <c r="D54" s="9">
         <v>2</v>
       </c>
@@ -2959,6 +3026,12 @@
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
+      <c r="L54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
@@ -7162,7 +7235,9 @@
         <f t="shared" si="10"/>
         <v>S(49/8)</v>
       </c>
-      <c r="C154" s="9"/>
+      <c r="C154" s="8">
+        <v>44796</v>
+      </c>
       <c r="D154" s="9">
         <v>6</v>
       </c>
@@ -7184,6 +7259,12 @@
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
+      <c r="L154" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M154" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
@@ -7673,7 +7754,9 @@
         <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C166" s="9"/>
+      <c r="C166" s="8">
+        <v>44796</v>
+      </c>
       <c r="D166" s="9">
         <v>6</v>
       </c>
@@ -7695,6 +7778,12 @@
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
+      <c r="L166" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M166" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="11">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1554" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3219D0-B7C7-4402-93AF-C990A860E4B6}"/>
+  <xr:revisionPtr revIDLastSave="1590" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B841012B-F904-492B-9317-D97A2C80AF77}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="78">
   <si>
     <t>Treatment</t>
   </si>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,12 +425,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -803,11 +797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:AY193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1187,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44727</v>
       </c>
@@ -1201,28 +1195,36 @@
         <f t="shared" si="0"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="str">
+      <c r="C7" s="8">
+        <v>44714</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0_5</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
         <v>46</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
@@ -1407,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44727</v>
       </c>
@@ -1415,28 +1417,28 @@
         <f t="shared" si="0"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21" t="str">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0_11</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="F13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9">
         <v>52</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="9">
         <v>11</v>
       </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
@@ -1446,7 +1448,9 @@
         <f t="shared" si="0"/>
         <v>S(53/12)</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8">
+        <v>44713</v>
+      </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
@@ -1468,6 +1472,12 @@
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
+      <c r="L14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
@@ -2089,7 +2099,9 @@
         <f t="shared" si="0"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8">
+        <v>44727</v>
+      </c>
       <c r="D31" s="9">
         <v>1</v>
       </c>
@@ -2198,7 +2210,9 @@
         <f t="shared" ref="B34:B65" si="3">_xlfn.CONCAT(F34, "(", G34, "/", H34, ")")</f>
         <v>S(49/8)</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8">
+        <v>44727</v>
+      </c>
       <c r="D34" s="9">
         <v>1</v>
       </c>
@@ -2220,6 +2234,12 @@
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
+      <c r="L34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
@@ -2229,7 +2249,9 @@
         <f t="shared" si="3"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="8">
+        <v>44727</v>
+      </c>
       <c r="D35" s="9">
         <v>1</v>
       </c>
@@ -2260,7 +2282,9 @@
         <f t="shared" si="3"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="8">
+        <v>44727</v>
+      </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
@@ -2361,7 +2385,9 @@
         <f t="shared" si="3"/>
         <v>S(53/12)</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8">
+        <v>44727</v>
+      </c>
       <c r="D38" s="9">
         <v>1</v>
       </c>
@@ -2383,6 +2409,12 @@
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
+      <c r="L38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
@@ -2392,7 +2424,9 @@
         <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="8">
+        <v>44727</v>
+      </c>
       <c r="D39" s="9">
         <v>1</v>
       </c>
@@ -2508,7 +2542,9 @@
         <f t="shared" si="3"/>
         <v>S(57/16)</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="8">
+        <v>44727</v>
+      </c>
       <c r="D42" s="9">
         <v>1</v>
       </c>
@@ -2555,7 +2591,9 @@
         <f t="shared" si="3"/>
         <v>F(58/17)</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="8">
+        <v>44727</v>
+      </c>
       <c r="D43" s="9">
         <v>1</v>
       </c>
@@ -2679,7 +2717,9 @@
         <f t="shared" si="3"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8">
+        <v>44727</v>
+      </c>
       <c r="D46" s="9">
         <v>1</v>
       </c>
@@ -2703,6 +2743,12 @@
       <c r="K46" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
@@ -2712,7 +2758,9 @@
         <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8">
+        <v>44727</v>
+      </c>
       <c r="D47" s="9">
         <v>1</v>
       </c>
@@ -6083,7 +6131,9 @@
         <f t="shared" si="8"/>
         <v>F(41/0)</v>
       </c>
-      <c r="C122" s="8"/>
+      <c r="C122" s="8">
+        <v>44784</v>
+      </c>
       <c r="D122" s="9">
         <v>5</v>
       </c>
@@ -6114,7 +6164,9 @@
         <f t="shared" si="8"/>
         <v>S(42/1)</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="8">
+        <v>44784</v>
+      </c>
       <c r="D123" s="9">
         <v>5</v>
       </c>
@@ -6188,7 +6240,9 @@
         <f t="shared" si="8"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C125" s="8"/>
+      <c r="C125" s="8">
+        <v>44784</v>
+      </c>
       <c r="D125" s="9">
         <v>5</v>
       </c>
@@ -6232,7 +6286,9 @@
         <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="8">
+        <v>44784</v>
+      </c>
       <c r="D126" s="9">
         <v>5</v>
       </c>
@@ -6263,7 +6319,9 @@
         <f t="shared" si="8"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="8">
+        <v>44784</v>
+      </c>
       <c r="D127" s="9">
         <v>5</v>
       </c>
@@ -6335,7 +6393,9 @@
         <f t="shared" si="8"/>
         <v>F(48/7)</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="8">
+        <v>44784</v>
+      </c>
       <c r="D129" s="9">
         <v>5</v>
       </c>
@@ -6357,6 +6417,12 @@
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
+      <c r="L129" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M129" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
@@ -6366,7 +6432,9 @@
         <f t="shared" ref="B130:B161" si="10">_xlfn.CONCAT(F130, "(", G130, "/", H130, ")")</f>
         <v>S(49/8)</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="8">
+        <v>44784</v>
+      </c>
       <c r="D130" s="9">
         <v>5</v>
       </c>
@@ -6397,7 +6465,9 @@
         <f t="shared" si="10"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="8">
+        <v>44784</v>
+      </c>
       <c r="D131" s="9">
         <v>5</v>
       </c>
@@ -6477,7 +6547,9 @@
         <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C133" s="9"/>
+      <c r="C133" s="8">
+        <v>44784</v>
+      </c>
       <c r="D133" s="9">
         <v>5</v>
       </c>
@@ -6508,7 +6580,9 @@
         <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="8">
+        <v>44784</v>
+      </c>
       <c r="D134" s="9">
         <v>5</v>
       </c>
@@ -6539,7 +6613,9 @@
         <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C135" s="9"/>
+      <c r="C135" s="8">
+        <v>44784</v>
+      </c>
       <c r="D135" s="9">
         <v>5</v>
       </c>
@@ -6570,7 +6646,9 @@
         <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="8">
+        <v>44784</v>
+      </c>
       <c r="D136" s="9">
         <v>5</v>
       </c>
@@ -6592,6 +6670,12 @@
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
+      <c r="L136" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M136" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
@@ -6601,7 +6685,9 @@
         <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="8">
+        <v>44784</v>
+      </c>
       <c r="D137" s="9">
         <v>5</v>
       </c>
@@ -6632,7 +6718,9 @@
         <f t="shared" si="10"/>
         <v>S(57/16)</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="8">
+        <v>44784</v>
+      </c>
       <c r="D138" s="9">
         <v>5</v>
       </c>
@@ -6663,7 +6751,9 @@
         <f t="shared" si="10"/>
         <v>F(58/17)</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="8">
+        <v>44784</v>
+      </c>
       <c r="D139" s="9">
         <v>5</v>
       </c>
@@ -6694,7 +6784,9 @@
         <f t="shared" si="10"/>
         <v>W(59/18)</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="8">
+        <v>44784</v>
+      </c>
       <c r="D140" s="9">
         <v>5</v>
       </c>
@@ -6725,7 +6817,9 @@
         <f t="shared" si="10"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C141" s="9"/>
+      <c r="C141" s="8">
+        <v>44784</v>
+      </c>
       <c r="D141" s="9">
         <v>5</v>
       </c>
@@ -6756,7 +6850,9 @@
         <f t="shared" si="10"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="8">
+        <v>44784</v>
+      </c>
       <c r="D142" s="9">
         <v>5</v>
       </c>
@@ -6842,7 +6938,9 @@
         <f t="shared" si="10"/>
         <v>W(63/22)</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="8">
+        <v>44784</v>
+      </c>
       <c r="D144" s="9">
         <v>5</v>
       </c>
@@ -6873,7 +6971,9 @@
         <f t="shared" si="10"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="8">
+        <v>44784</v>
+      </c>
       <c r="D145" s="9">
         <v>5</v>
       </c>
@@ -6943,7 +7043,9 @@
         <f t="shared" si="10"/>
         <v>S(42/1)</v>
       </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="8">
+        <v>44796</v>
+      </c>
       <c r="D147" s="9">
         <v>6</v>
       </c>
@@ -6974,7 +7076,9 @@
         <f t="shared" si="10"/>
         <v>W(43/2)</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="8">
+        <v>44796</v>
+      </c>
       <c r="D148" s="9">
         <v>6</v>
       </c>
@@ -7018,7 +7122,9 @@
         <f t="shared" si="10"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="8">
+        <v>44796</v>
+      </c>
       <c r="D149" s="9">
         <v>6</v>
       </c>
@@ -7062,7 +7168,9 @@
         <f t="shared" si="10"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="8">
+        <v>44796</v>
+      </c>
       <c r="D150" s="9">
         <v>6</v>
       </c>
@@ -7084,6 +7192,12 @@
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
+      <c r="L150" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M150" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
@@ -7093,7 +7207,9 @@
         <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C151" s="18"/>
+      <c r="C151" s="17">
+        <v>44796</v>
+      </c>
       <c r="D151" s="18">
         <v>6</v>
       </c>
@@ -7154,7 +7270,9 @@
         <f t="shared" si="10"/>
         <v>W(47/6)</v>
       </c>
-      <c r="C152" s="9"/>
+      <c r="C152" s="8">
+        <v>44796</v>
+      </c>
       <c r="D152" s="9">
         <v>6</v>
       </c>
@@ -7176,6 +7294,12 @@
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
+      <c r="L152" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M152" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
@@ -7185,7 +7309,9 @@
         <f t="shared" si="10"/>
         <v>F(48/7)</v>
       </c>
-      <c r="C153" s="9"/>
+      <c r="C153" s="8">
+        <v>44796</v>
+      </c>
       <c r="D153" s="9">
         <v>6</v>
       </c>
@@ -7356,7 +7482,9 @@
         <f t="shared" si="10"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="8">
+        <v>44796</v>
+      </c>
       <c r="D157" s="9">
         <v>6</v>
       </c>
@@ -7415,7 +7543,9 @@
         <f t="shared" si="10"/>
         <v>S(53/12)</v>
       </c>
-      <c r="C158" s="9"/>
+      <c r="C158" s="8">
+        <v>44796</v>
+      </c>
       <c r="D158" s="9">
         <v>6</v>
       </c>
@@ -7459,7 +7589,9 @@
         <f t="shared" si="10"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C159" s="9"/>
+      <c r="C159" s="8">
+        <v>44796</v>
+      </c>
       <c r="D159" s="9">
         <v>6</v>
       </c>
@@ -7497,7 +7629,9 @@
         <f t="shared" si="10"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C160" s="9"/>
+      <c r="C160" s="8">
+        <v>44796</v>
+      </c>
       <c r="D160" s="9">
         <v>6</v>
       </c>
@@ -7534,7 +7668,9 @@
         <f t="shared" si="10"/>
         <v>F(56/15)</v>
       </c>
-      <c r="C161" s="9"/>
+      <c r="C161" s="8">
+        <v>44796</v>
+      </c>
       <c r="D161" s="9">
         <v>6</v>
       </c>
@@ -7581,7 +7717,9 @@
         <f t="shared" ref="B162:B193" si="13">_xlfn.CONCAT(F162, "(", G162, "/", H162, ")")</f>
         <v>S(57/16)</v>
       </c>
-      <c r="C162" s="9"/>
+      <c r="C162" s="8">
+        <v>44796</v>
+      </c>
       <c r="D162" s="9">
         <v>6</v>
       </c>
@@ -7625,7 +7763,9 @@
         <f t="shared" si="13"/>
         <v>F(58/17)</v>
       </c>
-      <c r="C163" s="9"/>
+      <c r="C163" s="8">
+        <v>44796</v>
+      </c>
       <c r="D163" s="9">
         <v>6</v>
       </c>
@@ -7669,7 +7809,9 @@
         <f t="shared" si="13"/>
         <v>W(59/18)</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="8">
+        <v>44796</v>
+      </c>
       <c r="D164" s="9">
         <v>6</v>
       </c>
@@ -7710,7 +7852,9 @@
         <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C165" s="9"/>
+      <c r="C165" s="8">
+        <v>44796</v>
+      </c>
       <c r="D165" s="9">
         <v>6</v>
       </c>
@@ -7793,7 +7937,9 @@
         <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="8">
+        <v>44796</v>
+      </c>
       <c r="D167" s="9">
         <v>6</v>
       </c>
@@ -7824,7 +7970,9 @@
         <f t="shared" si="13"/>
         <v>W(63/22)</v>
       </c>
-      <c r="C168" s="9"/>
+      <c r="C168" s="8">
+        <v>44796</v>
+      </c>
       <c r="D168" s="9">
         <v>6</v>
       </c>
@@ -7877,7 +8025,9 @@
         <f t="shared" si="13"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="8">
+        <v>44796</v>
+      </c>
       <c r="D169" s="9">
         <v>6</v>
       </c>
@@ -7927,7 +8077,9 @@
         <f t="shared" si="13"/>
         <v>F(41/0)</v>
       </c>
-      <c r="C170" s="8"/>
+      <c r="C170" s="8">
+        <v>44810</v>
+      </c>
       <c r="D170" s="9">
         <v>7</v>
       </c>
@@ -7971,7 +8123,9 @@
         <f t="shared" si="13"/>
         <v>S(42/1)</v>
       </c>
-      <c r="C171" s="9"/>
+      <c r="C171" s="8">
+        <v>44810</v>
+      </c>
       <c r="D171" s="9">
         <v>7</v>
       </c>
@@ -8061,7 +8215,9 @@
         <f t="shared" si="13"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C173" s="9"/>
+      <c r="C173" s="8">
+        <v>44810</v>
+      </c>
       <c r="D173" s="9">
         <v>7</v>
       </c>
@@ -8105,7 +8261,9 @@
         <f t="shared" si="13"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C174" s="9"/>
+      <c r="C174" s="8">
+        <v>44810</v>
+      </c>
       <c r="D174" s="9">
         <v>7</v>
       </c>
@@ -8146,7 +8304,9 @@
         <f t="shared" si="13"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="8">
+        <v>44810</v>
+      </c>
       <c r="D175" s="9">
         <v>7</v>
       </c>
@@ -8196,7 +8356,9 @@
         <f t="shared" si="13"/>
         <v>W(47/6)</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="8">
+        <v>44810</v>
+      </c>
       <c r="D176" s="9">
         <v>7</v>
       </c>
@@ -8240,7 +8402,9 @@
         <f t="shared" si="13"/>
         <v>F(48/7)</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="8">
+        <v>44810</v>
+      </c>
       <c r="D177" s="9">
         <v>7</v>
       </c>
@@ -8289,7 +8453,9 @@
         <f t="shared" si="13"/>
         <v>S(49/8)</v>
       </c>
-      <c r="C178" s="9"/>
+      <c r="C178" s="8">
+        <v>44810</v>
+      </c>
       <c r="D178" s="9">
         <v>7</v>
       </c>
@@ -8339,7 +8505,9 @@
         <f t="shared" si="13"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C179" s="9"/>
+      <c r="C179" s="8">
+        <v>44810</v>
+      </c>
       <c r="D179" s="9">
         <v>7</v>
       </c>
@@ -8421,7 +8589,9 @@
         <f t="shared" si="13"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C181" s="9"/>
+      <c r="C181" s="8">
+        <v>44810</v>
+      </c>
       <c r="D181" s="9">
         <v>7</v>
       </c>
@@ -8452,7 +8622,9 @@
         <f t="shared" si="13"/>
         <v>S(53/12)</v>
       </c>
-      <c r="C182" s="9"/>
+      <c r="C182" s="8">
+        <v>44810</v>
+      </c>
       <c r="D182" s="9">
         <v>7</v>
       </c>
@@ -8557,7 +8729,9 @@
         <f t="shared" si="13"/>
         <v>W(55/14)</v>
       </c>
-      <c r="C184" s="9"/>
+      <c r="C184" s="8">
+        <v>44810</v>
+      </c>
       <c r="D184" s="9">
         <v>7</v>
       </c>
@@ -8656,7 +8830,9 @@
         <f t="shared" si="13"/>
         <v>S(57/16)</v>
       </c>
-      <c r="C186" s="9"/>
+      <c r="C186" s="8">
+        <v>44810</v>
+      </c>
       <c r="D186" s="9">
         <v>7</v>
       </c>
@@ -8703,7 +8879,9 @@
         <f t="shared" si="13"/>
         <v>F(58/17)</v>
       </c>
-      <c r="C187" s="9"/>
+      <c r="C187" s="8">
+        <v>44810</v>
+      </c>
       <c r="D187" s="9">
         <v>7</v>
       </c>
@@ -8807,7 +8985,9 @@
         <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C189" s="18"/>
+      <c r="C189" s="17">
+        <v>44810</v>
+      </c>
       <c r="D189" s="18">
         <v>7</v>
       </c>
@@ -8856,7 +9036,9 @@
         <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C190" s="18"/>
+      <c r="C190" s="17">
+        <v>44810</v>
+      </c>
       <c r="D190" s="18">
         <v>7</v>
       </c>
@@ -8906,7 +9088,9 @@
         <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C191" s="18"/>
+      <c r="C191" s="17">
+        <v>44810</v>
+      </c>
       <c r="D191" s="18">
         <v>7</v>
       </c>
@@ -8958,7 +9142,9 @@
         <f t="shared" si="13"/>
         <v>W(63/22)</v>
       </c>
-      <c r="C192" s="9"/>
+      <c r="C192" s="8">
+        <v>44810</v>
+      </c>
       <c r="D192" s="9">
         <v>7</v>
       </c>
@@ -9002,7 +9188,9 @@
         <f t="shared" si="13"/>
         <v>F(64/23)</v>
       </c>
-      <c r="C193" s="9"/>
+      <c r="C193" s="8">
+        <v>44810</v>
+      </c>
       <c r="D193" s="9">
         <v>7</v>
       </c>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1590" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B841012B-F904-492B-9317-D97A2C80AF77}"/>
+  <xr:revisionPtr revIDLastSave="1596" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C70A885-24AB-4666-92F0-8211F74EA542}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="110" windowWidth="17120" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="78">
   <si>
     <t>Treatment</t>
   </si>
@@ -798,10 +798,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A136" sqref="A136"/>
+      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,6 +2273,12 @@
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
+      <c r="L35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
@@ -6456,6 +6462,12 @@
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
+      <c r="L130" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M130" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
@@ -6742,6 +6754,12 @@
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
+      <c r="L138" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M138" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="8">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1596" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C70A885-24AB-4666-92F0-8211F74EA542}"/>
+  <xr:revisionPtr revIDLastSave="1620" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D5886A-894C-4833-84D8-84AB5A38172E}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="110" windowWidth="17120" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="79">
   <si>
     <t>Treatment</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Notes_on_labelling</t>
   </si>
   <si>
-    <t>Likely the vial for this is in Wooster somewhere - these beetles were pinned in Wooster</t>
-  </si>
-  <si>
     <t>Total_Carabidae_during_pinning</t>
   </si>
   <si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>set date almost seemed like 6/13/22 but I assume it was miswritten</t>
+  </si>
+  <si>
+    <t>there is one tiny beetle that I pointed that I'm not sure but I don’t think is a carabid</t>
+  </si>
+  <si>
+    <t>apparently there are two beetle vials - 3 carabids removed from the first - 13 carabids removed from the second - I will mark NEW on specimens from the second vial</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +428,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +810,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>45</v>
@@ -1012,7 +1024,9 @@
         <f t="shared" ref="B2:B33" si="0">_xlfn.CONCAT(F2, "(", G2, "/", H2, ")")</f>
         <v>F(41/0)</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8">
+        <v>44713</v>
+      </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
@@ -1032,8 +1046,16 @@
       <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="K2" s="9"/>
+      <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
@@ -1105,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="5" t="s">
@@ -1487,7 +1509,9 @@
         <f t="shared" si="0"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8">
+        <v>44713</v>
+      </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
@@ -1509,6 +1533,12 @@
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
+      <c r="L15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
@@ -1670,7 +1700,9 @@
         <f t="shared" si="0"/>
         <v>W(59/18)</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8">
+        <v>44713</v>
+      </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
@@ -1692,6 +1724,12 @@
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
+      <c r="L20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
@@ -1757,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="5" t="s">
@@ -1952,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>9</v>
@@ -2040,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>9</v>
@@ -2457,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.35">
@@ -2530,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="5" t="s">
@@ -5518,47 +5556,51 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A109" s="11">
+    <row r="109" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="17">
         <v>44784</v>
       </c>
-      <c r="B109" s="12" t="str">
+      <c r="B109" s="18" t="str">
         <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9">
+      <c r="C109" s="17">
+        <v>44769</v>
+      </c>
+      <c r="D109" s="18">
         <v>4</v>
       </c>
-      <c r="E109" s="5" t="str">
+      <c r="E109" s="19" t="str">
         <f t="shared" si="9"/>
         <v>4_11</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="9">
+      <c r="F109" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="18">
         <v>52</v>
       </c>
-      <c r="H109" s="9">
+      <c r="H109" s="18">
         <v>11</v>
       </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N109" s="5">
+      <c r="I109" s="18">
+        <v>0</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K109" s="18"/>
+      <c r="L109" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N109" s="19">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AG109" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW109" s="5">
+      <c r="AG109" s="19">
+        <v>2</v>
+      </c>
+      <c r="AW109" s="19">
         <v>1</v>
       </c>
     </row>
@@ -6161,6 +6203,12 @@
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
+      <c r="L122" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M122" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
@@ -6194,6 +6242,12 @@
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
+      <c r="L123" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M123" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
@@ -6826,6 +6880,12 @@
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
+      <c r="L140" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M140" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
@@ -7217,66 +7277,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:49" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="17">
+    <row r="151" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="11">
         <v>44810</v>
       </c>
-      <c r="B151" s="18" t="str">
+      <c r="B151" s="12" t="str">
         <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C151" s="17">
+      <c r="C151" s="20">
         <v>44796</v>
       </c>
-      <c r="D151" s="18">
-        <v>6</v>
-      </c>
-      <c r="E151" s="19" t="str">
+      <c r="D151" s="21">
+        <v>6</v>
+      </c>
+      <c r="E151" s="22" t="str">
         <f t="shared" si="11"/>
         <v>6_5</v>
       </c>
-      <c r="F151" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="18">
+      <c r="F151" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="21">
         <v>46</v>
       </c>
-      <c r="H151" s="18">
+      <c r="H151" s="21">
         <v>5</v>
       </c>
-      <c r="I151" s="18">
-        <v>0</v>
-      </c>
-      <c r="J151" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K151" s="18"/>
-      <c r="N151" s="19">
+      <c r="I151" s="21">
+        <v>0</v>
+      </c>
+      <c r="J151" s="21"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N151" s="22">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="AB151" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC151" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG151" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI151" s="19">
-        <v>1</v>
-      </c>
-      <c r="AP151" s="19">
-        <v>7</v>
-      </c>
-      <c r="AQ151" s="19">
-        <v>2</v>
-      </c>
-      <c r="AU151" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW151" s="19">
+      <c r="AB151" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG151" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI151" s="22">
+        <v>1</v>
+      </c>
+      <c r="AP151" s="22">
+        <v>7</v>
+      </c>
+      <c r="AQ151" s="22">
+        <v>2</v>
+      </c>
+      <c r="AU151" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW151" s="22">
         <v>4</v>
       </c>
     </row>
@@ -9129,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K191" s="18"/>
       <c r="L191" s="19" t="s">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1620" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D5886A-894C-4833-84D8-84AB5A38172E}"/>
+  <xr:revisionPtr revIDLastSave="1638" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0288E19-6D1F-4D86-8001-81724D1C0006}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="79">
   <si>
     <t>Treatment</t>
   </si>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,15 +428,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -810,10 +801,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,7 +1177,9 @@
         <f t="shared" si="0"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8">
+        <v>44714</v>
+      </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
@@ -1208,6 +1201,12 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
@@ -1739,7 +1738,9 @@
         <f t="shared" si="0"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8">
+        <v>44713</v>
+      </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
@@ -1763,6 +1764,12 @@
       <c r="K21" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
@@ -2161,6 +2168,12 @@
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
+      <c r="L31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
@@ -6405,6 +6418,12 @@
       <c r="K127" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="L127" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M127" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
@@ -6555,6 +6574,12 @@
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
+      <c r="L131" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M131" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
@@ -6919,6 +6944,12 @@
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
+      <c r="L141" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M141" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
@@ -7040,6 +7071,12 @@
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
+      <c r="L144" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M144" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
@@ -7277,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>44810</v>
       </c>
@@ -7285,59 +7322,59 @@
         <f t="shared" si="10"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C151" s="20">
+      <c r="C151" s="8">
         <v>44796</v>
       </c>
-      <c r="D151" s="21">
-        <v>6</v>
-      </c>
-      <c r="E151" s="22" t="str">
+      <c r="D151" s="9">
+        <v>6</v>
+      </c>
+      <c r="E151" s="5" t="str">
         <f t="shared" si="11"/>
         <v>6_5</v>
       </c>
-      <c r="F151" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="21">
+      <c r="F151" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="9">
         <v>46</v>
       </c>
-      <c r="H151" s="21">
+      <c r="H151" s="9">
         <v>5</v>
       </c>
-      <c r="I151" s="21">
-        <v>0</v>
-      </c>
-      <c r="J151" s="21"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="N151" s="22">
+      <c r="I151" s="9">
+        <v>0</v>
+      </c>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N151" s="5">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="AB151" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC151" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG151" s="22">
-        <v>2</v>
-      </c>
-      <c r="AI151" s="22">
-        <v>1</v>
-      </c>
-      <c r="AP151" s="22">
-        <v>7</v>
-      </c>
-      <c r="AQ151" s="22">
-        <v>2</v>
-      </c>
-      <c r="AU151" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW151" s="22">
+      <c r="AB151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG151" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP151" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ151" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU151" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW151" s="5">
         <v>4</v>
       </c>
     </row>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0288E19-6D1F-4D86-8001-81724D1C0006}"/>
+  <xr:revisionPtr revIDLastSave="1651" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6E4787-A62D-4774-BA8D-85C4C212B36A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
   <si>
     <t>Treatment</t>
   </si>
@@ -275,6 +275,9 @@
   <si>
     <t>apparently there are two beetle vials - 3 carabids removed from the first - 13 carabids removed from the second - I will mark NEW on specimens from the second vial</t>
   </si>
+  <si>
+    <t>When I (Aaron) am pinning the carabids I am writing down any points of confusion about labelling - and sometimes reporting some interesting non-adult-carabid beetle finds</t>
+  </si>
 </sst>
 </file>
 
@@ -371,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +431,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,43 +757,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -800,11 +814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:AY193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C124" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8729,6 +8743,12 @@
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
+      <c r="L181" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M181" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="182" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A182" s="8">

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1651" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6E4787-A62D-4774-BA8D-85C4C212B36A}"/>
+  <xr:revisionPtr revIDLastSave="1657" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0966DD-750F-4421-9897-B779D817634C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="81">
   <si>
     <t>Treatment</t>
   </si>
@@ -278,6 +278,9 @@
   <si>
     <t>When I (Aaron) am pinning the carabids I am writing down any points of confusion about labelling - and sometimes reporting some interesting non-adult-carabid beetle finds</t>
   </si>
+  <si>
+    <t>previously some beetles were pinned in wooster (?) - I just pinned one additional silphid from the beetle container</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +437,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -814,11 +826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43E875-3D05-450D-A232-4115B14D5C30}">
   <dimension ref="A1:AY193"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4868,44 +4880,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="17">
+    <row r="93" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="21">
         <v>44769</v>
       </c>
-      <c r="B93" s="18" t="str">
+      <c r="B93" s="22" t="str">
         <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18">
+      <c r="C93" s="22"/>
+      <c r="D93" s="22">
         <v>3</v>
       </c>
-      <c r="E93" s="19" t="str">
+      <c r="E93" s="23" t="str">
         <f t="shared" si="6"/>
         <v>3_19</v>
       </c>
-      <c r="F93" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="18">
+      <c r="F93" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="22">
         <v>60</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="22">
         <v>19</v>
       </c>
-      <c r="I93" s="18">
-        <v>0</v>
-      </c>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="N93" s="19">
+      <c r="I93" s="22">
+        <v>0</v>
+      </c>
+      <c r="J93" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K93" s="22"/>
+      <c r="L93" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N93" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Q93" s="19">
-        <v>1</v>
-      </c>
-      <c r="AB93" s="19">
+      <c r="Q93" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9113,54 +9130,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="17">
+    <row r="189" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="21">
         <v>44824</v>
       </c>
-      <c r="B189" s="18" t="str">
+      <c r="B189" s="22" t="str">
         <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C189" s="17">
+      <c r="C189" s="21">
         <v>44810</v>
       </c>
-      <c r="D189" s="18">
-        <v>7</v>
-      </c>
-      <c r="E189" s="19" t="str">
+      <c r="D189" s="22">
+        <v>7</v>
+      </c>
+      <c r="E189" s="23" t="str">
         <f t="shared" si="14"/>
         <v>7_19</v>
       </c>
-      <c r="F189" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="18">
+      <c r="F189" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="22">
         <v>60</v>
       </c>
-      <c r="H189" s="18">
+      <c r="H189" s="22">
         <v>19</v>
       </c>
-      <c r="I189" s="18">
-        <v>0</v>
-      </c>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18" t="s">
+      <c r="I189" s="22">
+        <v>0</v>
+      </c>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N189" s="19">
+      <c r="L189" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N189" s="23">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG189" s="19">
-        <v>1</v>
-      </c>
-      <c r="AQ189" s="19">
-        <v>1</v>
-      </c>
-      <c r="AR189" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW189" s="19">
+      <c r="AG189" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ189" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR189" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW189" s="23">
         <v>1</v>
       </c>
     </row>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1657" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0966DD-750F-4421-9897-B779D817634C}"/>
+  <xr:revisionPtr revIDLastSave="1674" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2756F270-83AE-40BB-A77C-6DF67D3095E3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="81">
   <si>
     <t>Treatment</t>
   </si>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,15 +437,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +818,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,7 +1383,9 @@
         <f t="shared" si="0"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8">
+        <v>44714</v>
+      </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
@@ -1416,6 +1409,12 @@
       <c r="K11" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="L11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
@@ -1612,7 +1611,9 @@
         <f t="shared" si="0"/>
         <v>F(56/15)</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="8">
+        <v>44713</v>
+      </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
@@ -1634,6 +1635,12 @@
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
+      <c r="L17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
@@ -4880,49 +4887,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="21">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
         <v>44769</v>
       </c>
-      <c r="B93" s="22" t="str">
+      <c r="B93" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9">
         <v>3</v>
       </c>
-      <c r="E93" s="23" t="str">
+      <c r="E93" s="5" t="str">
         <f t="shared" si="6"/>
         <v>3_19</v>
       </c>
-      <c r="F93" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="22">
+      <c r="F93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="9">
         <v>60</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="9">
         <v>19</v>
       </c>
-      <c r="I93" s="22">
-        <v>0</v>
-      </c>
-      <c r="J93" s="22" t="s">
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N93" s="23">
+      <c r="K93" s="9"/>
+      <c r="L93" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N93" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Q93" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB93" s="23">
+      <c r="Q93" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6414,6 +6421,12 @@
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
+      <c r="L126" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M126" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
@@ -6693,6 +6706,12 @@
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
+      <c r="L133" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M133" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
@@ -6726,6 +6745,12 @@
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
+      <c r="L134" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M134" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
@@ -6831,6 +6856,12 @@
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
+      <c r="L137" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M137" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
@@ -7141,6 +7172,12 @@
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
+      <c r="L145" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M145" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
@@ -9130,57 +9167,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="21">
+    <row r="189" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A189" s="8">
         <v>44824</v>
       </c>
-      <c r="B189" s="22" t="str">
+      <c r="B189" s="9" t="str">
         <f t="shared" si="13"/>
         <v>F(60/19)</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="8">
         <v>44810</v>
       </c>
-      <c r="D189" s="22">
-        <v>7</v>
-      </c>
-      <c r="E189" s="23" t="str">
+      <c r="D189" s="9">
+        <v>7</v>
+      </c>
+      <c r="E189" s="5" t="str">
         <f t="shared" si="14"/>
         <v>7_19</v>
       </c>
-      <c r="F189" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189" s="22">
+      <c r="F189" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="9">
         <v>60</v>
       </c>
-      <c r="H189" s="22">
+      <c r="H189" s="9">
         <v>19</v>
       </c>
-      <c r="I189" s="22">
-        <v>0</v>
-      </c>
-      <c r="J189" s="22"/>
-      <c r="K189" s="22" t="s">
+      <c r="I189" s="9">
+        <v>0</v>
+      </c>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L189" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N189" s="23">
+      <c r="L189" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N189" s="5">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AG189" s="23">
-        <v>1</v>
-      </c>
-      <c r="AQ189" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR189" s="23">
-        <v>1</v>
-      </c>
-      <c r="AW189" s="23">
+      <c r="AG189" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ189" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR189" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW189" s="5">
         <v>1</v>
       </c>
     </row>

--- a/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
+++ b/PNR Raw Data/PNR2022_InvertebrateCommunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles_github_folder/PNR Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1674" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2756F270-83AE-40BB-A77C-6DF67D3095E3}"/>
+  <xr:revisionPtr revIDLastSave="1717" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A96E546-916B-4B0C-98E1-669DEA506649}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="84">
   <si>
     <t>Treatment</t>
   </si>
@@ -273,13 +273,22 @@
     <t>there is one tiny beetle that I pointed that I'm not sure but I don’t think is a carabid</t>
   </si>
   <si>
-    <t>apparently there are two beetle vials - 3 carabids removed from the first - 13 carabids removed from the second - I will mark NEW on specimens from the second vial</t>
-  </si>
-  <si>
     <t>When I (Aaron) am pinning the carabids I am writing down any points of confusion about labelling - and sometimes reporting some interesting non-adult-carabid beetle finds</t>
   </si>
   <si>
     <t>previously some beetles were pinned in wooster (?) - I just pinned one additional silphid from the beetle container</t>
+  </si>
+  <si>
+    <t>there are two beetle vials - 3 in first - 13 in second  - I will mark NEW on specimens from the second vial</t>
+  </si>
+  <si>
+    <t>initially it was labelled as F(64/11) but due to process of elimination I changed the label to F(62/21)</t>
+  </si>
+  <si>
+    <t>I clearly pinned 12 carabids - but now I can't seem to find the beetle container with carabids removed</t>
+  </si>
+  <si>
+    <t>I pinned 8 beetles - but now I can't seem to locate the beetle container with carabids removed</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,6 +355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,16 +430,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -436,7 +469,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,8 +799,8 @@
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>79</v>
+      <c r="B5" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -818,10 +853,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +950,7 @@
       <c r="O1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q1" s="7" t="s">
@@ -927,7 +962,7 @@
       <c r="S1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U1" s="7" t="s">
@@ -945,7 +980,7 @@
       <c r="Y1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>53</v>
       </c>
       <c r="AA1" s="7" t="s">
@@ -960,10 +995,10 @@
       <c r="AD1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="13" t="s">
         <v>49</v>
       </c>
       <c r="AG1" s="7" t="s">
@@ -1020,7 +1055,7 @@
       <c r="AX1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1303,36 +1338,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
         <v>44727</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>F(48/7)</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="str">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>0_7</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="21">
         <v>48</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="21">
         <v>7</v>
       </c>
-      <c r="I9" s="9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="21">
+        <v>2</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1455,36 +1490,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
         <v>44727</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="str">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>0_11</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="17">
         <v>52</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="17">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
@@ -1845,36 +1880,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
+    <row r="23" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20">
         <v>44727</v>
       </c>
-      <c r="B23" s="12" t="str">
+      <c r="B23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="str">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>0_21</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="21">
         <v>62</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="21">
         <v>21</v>
       </c>
-      <c r="I23" s="9">
-        <v>2</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="I23" s="21">
+        <v>2</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2506,41 +2541,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+    <row r="39" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20">
         <v>44741</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="21" t="str">
         <f t="shared" si="3"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="20">
         <v>44727</v>
       </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="str">
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22" t="str">
         <f t="shared" si="4"/>
         <v>1_13</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="F39" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="21">
         <v>54</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="21">
         <v>13</v>
       </c>
-      <c r="I39" s="9">
-        <v>2</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
+      <c r="I39" s="21">
+        <v>2</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2840,38 +2875,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A47" s="8">
+    <row r="47" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20">
         <v>44741</v>
       </c>
-      <c r="B47" s="9" t="str">
+      <c r="B47" s="21" t="str">
         <f t="shared" si="3"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="20">
         <v>44727</v>
       </c>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="str">
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
+      <c r="E47" s="22" t="str">
         <f t="shared" si="4"/>
         <v>1_21</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="F47" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="21">
         <v>62</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="21">
         <v>21</v>
       </c>
-      <c r="I47" s="9">
-        <v>2</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9" t="s">
+      <c r="I47" s="21">
+        <v>2</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3250,10 +3285,10 @@
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="16"/>
+      <c r="L56" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="15"/>
       <c r="N56" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3908,6 +3943,12 @@
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
+      <c r="L70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
@@ -4198,36 +4239,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A77" s="8">
+    <row r="77" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16">
         <v>44769</v>
       </c>
-      <c r="B77" s="9" t="str">
+      <c r="B77" s="17" t="str">
         <f t="shared" si="5"/>
         <v>F(44/3)</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17">
         <v>3</v>
       </c>
-      <c r="E77" s="5" t="str">
+      <c r="E77" s="18" t="str">
         <f t="shared" si="6"/>
         <v>3_3</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="9">
+      <c r="F77" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="17">
         <v>44</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="17">
         <v>3</v>
       </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="I77" s="17">
+        <v>0</v>
+      </c>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
@@ -4270,36 +4311,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A79" s="8">
+    <row r="79" spans="1:49" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16">
         <v>44769</v>
       </c>
-      <c r="B79" s="9" t="str">
+      <c r="B79" s="17" t="str">
         <f t="shared" si="5"/>
         <v>S(46/5)</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17">
         <v>3</v>
       </c>
-      <c r="E79" s="5" t="str">
+      <c r="E79" s="18" t="str">
         <f t="shared" si="6"/>
         <v>3_5</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="17">
         <v>46</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="17">
         <v>5</v>
       </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
@@ -4439,41 +4480,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="17">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A83" s="8">
         <v>44769</v>
       </c>
-      <c r="B83" s="18" t="str">
+      <c r="B83" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9">
         <v>3</v>
       </c>
-      <c r="E83" s="19" t="str">
+      <c r="E83" s="5" t="str">
         <f t="shared" si="6"/>
         <v>3_9</v>
       </c>
-      <c r="F83" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="18">
+      <c r="F83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="9">
         <v>50</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="9">
         <v>9</v>
       </c>
-      <c r="I83" s="18">
-        <v>0</v>
-      </c>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="N83" s="19">
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N83" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AL83" s="19">
+      <c r="AL83" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4605,37 +4649,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A87" s="8">
+    <row r="87" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="16">
         <v>44769</v>
       </c>
-      <c r="B87" s="9" t="str">
+      <c r="B87" s="17" t="str">
         <f t="shared" si="5"/>
         <v>F(54/13)</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17">
         <v>3</v>
       </c>
-      <c r="E87" s="5" t="str">
+      <c r="E87" s="18" t="str">
         <f t="shared" si="6"/>
         <v>3_13</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="F87" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="17">
         <v>54</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="17">
         <v>13</v>
       </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="AN87" s="13"/>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
@@ -4916,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="5" t="s">
@@ -5303,36 +5346,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A102" s="11">
+    <row r="102" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16">
         <v>44784</v>
       </c>
-      <c r="B102" s="12" t="str">
+      <c r="B102" s="17" t="str">
         <f t="shared" si="8"/>
         <v>F(45/4)</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9">
+      <c r="C102" s="17"/>
+      <c r="D102" s="17">
         <v>4</v>
       </c>
-      <c r="E102" s="5" t="str">
+      <c r="E102" s="18" t="str">
         <f t="shared" si="9"/>
         <v>4_4</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="9">
+      <c r="F102" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="17">
         <v>45</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H102" s="17">
         <v>4</v>
       </c>
-      <c r="I102" s="9">
-        <v>0</v>
-      </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="I102" s="17">
+        <v>0</v>
+      </c>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
     </row>
     <row r="103" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
@@ -5545,113 +5588,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A107" s="11">
+    <row r="107" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="16">
         <v>44784</v>
       </c>
-      <c r="B107" s="12" t="str">
+      <c r="B107" s="17" t="str">
         <f t="shared" si="8"/>
         <v>F(50/9)</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9">
+      <c r="C107" s="17"/>
+      <c r="D107" s="17">
         <v>4</v>
       </c>
-      <c r="E107" s="5" t="str">
+      <c r="E107" s="18" t="str">
         <f t="shared" si="9"/>
         <v>4_9</v>
       </c>
-      <c r="F107" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="9">
+      <c r="F107" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="17">
         <v>50</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="17">
         <v>9</v>
       </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-    </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A108" s="11">
+      <c r="I107" s="17">
+        <v>0</v>
+      </c>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="16">
         <v>44784</v>
       </c>
-      <c r="B108" s="12" t="str">
+      <c r="B108" s="17" t="str">
         <f t="shared" si="8"/>
         <v>W(51/10)</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9">
+      <c r="C108" s="17"/>
+      <c r="D108" s="17">
         <v>4</v>
       </c>
-      <c r="E108" s="5" t="str">
+      <c r="E108" s="18" t="str">
         <f t="shared" si="9"/>
         <v>4_10</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="17">
         <v>51</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="17">
         <v>10</v>
       </c>
-      <c r="I108" s="9">
-        <v>0</v>
-      </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-    </row>
-    <row r="109" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="17">
+      <c r="I108" s="17">
+        <v>0</v>
+      </c>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="23">
         <v>44784</v>
       </c>
-      <c r="B109" s="18" t="str">
+      <c r="B109" s="24" t="str">
         <f t="shared" si="8"/>
         <v>F(52/11)</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="23">
         <v>44769</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="24">
         <v>4</v>
       </c>
-      <c r="E109" s="19" t="str">
+      <c r="E109" s="25" t="str">
         <f t="shared" si="9"/>
         <v>4_11</v>
       </c>
-      <c r="F109" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="18">
+      <c r="F109" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="24">
         <v>52</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="24">
         <v>11</v>
       </c>
-      <c r="I109" s="18">
-        <v>0</v>
-      </c>
-      <c r="J109" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K109" s="18"/>
-      <c r="L109" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="N109" s="19">
+      <c r="I109" s="24">
+        <v>0</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K109" s="24"/>
+      <c r="L109" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M109" s="25">
+        <v>16</v>
+      </c>
+      <c r="N109" s="25">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AG109" s="19">
-        <v>2</v>
-      </c>
-      <c r="AW109" s="19">
+      <c r="AG109" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW109" s="25">
         <v>1</v>
       </c>
     </row>
@@ -6784,6 +6830,12 @@
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
+      <c r="L135" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M135" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
@@ -6934,6 +6986,12 @@
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
+      <c r="L139" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M139" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
@@ -7062,42 +7120,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A143" s="8">
+    <row r="143" spans="1:49" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="26">
         <v>44796</v>
       </c>
-      <c r="B143" s="9" t="str">
+      <c r="B143" s="27" t="str">
         <f t="shared" si="10"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C143" s="26">
         <v>44784</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="27">
         <v>5</v>
       </c>
-      <c r="E143" s="5" t="str">
+      <c r="E143" s="28" t="str">
         <f t="shared" si="11"/>
         <v>5_21</v>
       </c>
-      <c r="F143" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" s="9">
+      <c r="F143" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="27">
         <v>62</v>
       </c>
-      <c r="H143" s="9">
+      <c r="H143" s="27">
         <v>21</v>
       </c>
-      <c r="I143" s="9">
-        <v>0</v>
-      </c>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M143" s="5">
+      <c r="I143" s="27">
+        <v>0</v>
+      </c>
+      <c r="J143" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K143" s="27"/>
+      <c r="M143" s="28">
         <v>8</v>
       </c>
     </row>
@@ -7250,6 +7307,12 @@
       </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
+      <c r="L147" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M147" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
@@ -8143,8 +8206,16 @@
       <c r="I167" s="9">
         <v>0</v>
       </c>
-      <c r="J167" s="9"/>
+      <c r="J167" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="K167" s="9"/>
+      <c r="L167" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
@@ -9221,109 +9292,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="17">
+    <row r="190" spans="1:51" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="26">
         <v>44824</v>
       </c>
-      <c r="B190" s="18" t="str">
+      <c r="B190" s="27" t="str">
         <f t="shared" si="13"/>
         <v>S(61/20)</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="26">
         <v>44810</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="27">
         <v>7</v>
       </c>
-      <c r="E190" s="19" t="str">
+      <c r="E190" s="28" t="str">
         <f t="shared" si="14"/>
         <v>7_20</v>
       </c>
-      <c r="F190" s="18" t="s">
+      <c r="F190" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="27">
         <v>61</v>
       </c>
-      <c r="H190" s="18">
+      <c r="H190" s="27">
         <v>20</v>
       </c>
-      <c r="I190" s="18">
-        <v>0</v>
-      </c>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="N190" s="19">
+      <c r="I190" s="27">
+        <v>0</v>
+      </c>
+      <c r="J190" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K190" s="27"/>
+      <c r="N190" s="28">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AB190" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG190" s="19">
-        <v>1</v>
-      </c>
-      <c r="AQ190" s="19">
+      <c r="AB190" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG190" s="28">
+        <v>1</v>
+      </c>
+      <c r="AQ190" s="28">
         <v>7</v>
       </c>
-      <c r="AT190" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW190" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="17">
+      <c r="AT190" s="28">
+        <v>1</v>
+      </c>
+      <c r="AW190" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:51" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="23">
         <v>44824</v>
       </c>
-      <c r="B191" s="18" t="str">
+      <c r="B191" s="24" t="str">
         <f t="shared" si="13"/>
         <v>F(62/21)</v>
       </c>
-      <c r="C191" s="17">
+      <c r="C191" s="23">
         <v>44810</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="24">
         <v>7</v>
       </c>
-      <c r="E191" s="19" t="str">
+      <c r="E191" s="25" t="str">
         <f t="shared" si="14"/>
         <v>7_21</v>
       </c>
-      <c r="F191" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191" s="18">
+      <c r="F191" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191" s="24">
         <v>62</v>
       </c>
-      <c r="H191" s="18">
+      <c r="H191" s="24">
         <v>21</v>
       </c>
-      <c r="I191" s="18">
-        <v>0</v>
-      </c>
-      <c r="J191" s="18" t="s">
+      <c r="I191" s="24">
+        <v>0</v>
+      </c>
+      <c r="J191" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K191" s="18"/>
-      <c r="L191" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="M191" s="19">
-        <v>2</v>
-      </c>
-      <c r="N191" s="19">
+      <c r="K191" s="24"/>
+      <c r="L191" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M191" s="25">
+        <v>11</v>
+      </c>
+      <c r="N191" s="25">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="AB191" s="19">
-        <v>6</v>
-      </c>
-      <c r="AG191" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW191" s="19">
+      <c r="AB191" s="25">
+        <v>6</v>
+      </c>
+      <c r="AG191" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW191" s="25">
         <v>2</v>
       </c>
     </row>
